--- a/Fraud Username List Dataset.xlsx
+++ b/Fraud Username List Dataset.xlsx
@@ -5,18 +5,20 @@
   <sheets>
     <sheet state="visible" name="Dataset Fraud" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Dataset Fraud'!$A$1:$C$2165</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="yxOAE0BHUxaMH3zQfxBQUPihBJPG6sRdlV17MYV8NQg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="DmgLISwlR3IzcTNUF21bFoEEE26RwadFAErfl+6V+k4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="1688">
   <si>
     <t>No</t>
   </si>
@@ -3432,9 +3434,6 @@
     <t>CAIRIN</t>
   </si>
   <si>
-    <t>1-Agu-2023</t>
-  </si>
-  <si>
     <t>EASY CASH</t>
   </si>
   <si>
@@ -3468,9 +3467,6 @@
     <t>Rahmat xride</t>
   </si>
   <si>
-    <t>2-Agu-2023</t>
-  </si>
-  <si>
     <t>Ooy</t>
   </si>
   <si>
@@ -3492,9 +3488,6 @@
     <t>EEMBTKILAP</t>
   </si>
   <si>
-    <t>3-Agu-2023</t>
-  </si>
-  <si>
     <t>Dkdme</t>
   </si>
   <si>
@@ -3516,9 +3509,6 @@
     <t>HOME CREDIT</t>
   </si>
   <si>
-    <t>4-Agu-2023</t>
-  </si>
-  <si>
     <t>Abadidana</t>
   </si>
   <si>
@@ -3537,9 +3527,6 @@
     <t>PT. Tri Usaha Berkat</t>
   </si>
   <si>
-    <t>5-Agu-2023</t>
-  </si>
-  <si>
     <t>PT Tri Usaha Berkat</t>
   </si>
   <si>
@@ -3555,9 +3542,6 @@
     <t>Jajah</t>
   </si>
   <si>
-    <t>6-Agu-2023</t>
-  </si>
-  <si>
     <t>Kapud</t>
   </si>
   <si>
@@ -3591,18 +3575,12 @@
     <t>Hadist Alkod</t>
   </si>
   <si>
-    <t>7-Agu-2023</t>
-  </si>
-  <si>
     <t>Arizona</t>
   </si>
   <si>
     <t>Yess</t>
   </si>
   <si>
-    <t>8-Agu-2023</t>
-  </si>
-  <si>
     <t>PT SUPER CASH</t>
   </si>
   <si>
@@ -3612,9 +3590,6 @@
     <t>PT HAPPY DANA</t>
   </si>
   <si>
-    <t>9-Agu-2023</t>
-  </si>
-  <si>
     <t>BAYI NYONYA NURLAILA LAUPA</t>
   </si>
   <si>
@@ -3633,24 +3608,15 @@
     <t>Fujinopeliblxs</t>
   </si>
   <si>
-    <t>10-Agu-2023</t>
-  </si>
-  <si>
     <t>Lokalfinacial lokalpay</t>
   </si>
   <si>
-    <t>11-Agu-2023</t>
-  </si>
-  <si>
     <t>MAHPUDIN WOM FINANCE</t>
   </si>
   <si>
     <t>TUNAI CEPAT</t>
   </si>
   <si>
-    <t>12-Agu-2023</t>
-  </si>
-  <si>
     <t>TITM</t>
   </si>
   <si>
@@ -3666,9 +3632,6 @@
     <t>warung</t>
   </si>
   <si>
-    <t>13-Agu-2023</t>
-  </si>
-  <si>
     <t>CIMB niaga</t>
   </si>
   <si>
@@ -3678,9 +3641,6 @@
     <t>PT Pinjam Mudah Indonesia</t>
   </si>
   <si>
-    <t>14-Agu-2023</t>
-  </si>
-  <si>
     <t>Herman Pembatalan</t>
   </si>
   <si>
@@ -3690,9 +3650,6 @@
     <t>BAYI NYONYA NURAINI KARYAWATI</t>
   </si>
   <si>
-    <t>15-Agu-2023</t>
-  </si>
-  <si>
     <t>Maxim</t>
   </si>
   <si>
@@ -3717,9 +3674,6 @@
     <t>Sukses</t>
   </si>
   <si>
-    <t>16-Agu-2023</t>
-  </si>
-  <si>
     <t>FXMARTONO</t>
   </si>
   <si>
@@ -3735,9 +3689,6 @@
     <t>Rio ngentot</t>
   </si>
   <si>
-    <t>17-Agu-2023</t>
-  </si>
-  <si>
     <t>SHOPEE</t>
   </si>
   <si>
@@ -3750,27 +3701,18 @@
     <t>Wom Finance</t>
   </si>
   <si>
-    <t>18-Agu-2023</t>
-  </si>
-  <si>
     <t>Gonjel</t>
   </si>
   <si>
     <t>ADAMODAL</t>
   </si>
   <si>
-    <t>19-Agu-2023</t>
-  </si>
-  <si>
     <t>LOKAL FINANSIAL</t>
   </si>
   <si>
     <t>PT SMARTECH TEKNOLOGI INDONESIA</t>
   </si>
   <si>
-    <t>20-Agu-2023</t>
-  </si>
-  <si>
     <t>LELELEBAARI</t>
   </si>
   <si>
@@ -3780,9 +3722,6 @@
     <t>Medsos</t>
   </si>
   <si>
-    <t>21-Agu-2023</t>
-  </si>
-  <si>
     <t>Atomeid</t>
   </si>
   <si>
@@ -3792,9 +3731,6 @@
     <t>Jajan</t>
   </si>
   <si>
-    <t>22-Agu-2023</t>
-  </si>
-  <si>
     <t>Cairin Id</t>
   </si>
   <si>
@@ -3810,9 +3746,6 @@
     <t>Ptcairin</t>
   </si>
   <si>
-    <t>23-Agu-2023</t>
-  </si>
-  <si>
     <t>KELIWON</t>
   </si>
   <si>
@@ -3828,9 +3761,6 @@
     <t>PT AKULAKU</t>
   </si>
   <si>
-    <t>24-Agu-2023</t>
-  </si>
-  <si>
     <t>BIMA FNC</t>
   </si>
   <si>
@@ -3843,9 +3773,6 @@
     <t>AYANG</t>
   </si>
   <si>
-    <t>25-Agu-2023</t>
-  </si>
-  <si>
     <t>AKULAKU FINANCE INDONESIA</t>
   </si>
   <si>
@@ -3876,9 +3803,6 @@
     <t>PT DANA DARURAT</t>
   </si>
   <si>
-    <t>26-Agu-2023</t>
-  </si>
-  <si>
     <t>Neng Teti</t>
   </si>
   <si>
@@ -3894,18 +3818,12 @@
     <t>MOH UWES</t>
   </si>
   <si>
-    <t>27-Agu-2023</t>
-  </si>
-  <si>
     <t>kontoktok</t>
   </si>
   <si>
     <t>BKPM</t>
   </si>
   <si>
-    <t>28-Agu-2023</t>
-  </si>
-  <si>
     <t>BUNGKUS</t>
   </si>
   <si>
@@ -3921,18 +3839,12 @@
     <t>Neng Rian</t>
   </si>
   <si>
-    <t>29-Agu-2023</t>
-  </si>
-  <si>
     <t>SBD KOMUNIKA</t>
   </si>
   <si>
     <t>Bangbang Hidayat</t>
   </si>
   <si>
-    <t>30-Agu-2023</t>
-  </si>
-  <si>
     <t>CARMA</t>
   </si>
   <si>
@@ -3942,9 +3854,6 @@
     <t>PT. ADAKAMI INDONESIA</t>
   </si>
   <si>
-    <t>31-Agu-2023</t>
-  </si>
-  <si>
     <t>Boim Pelor</t>
   </si>
   <si>
@@ -3957,9 +3866,6 @@
     <t>PTAdira Dinamika Multifinance Tbk</t>
   </si>
   <si>
-    <t>01-Sept-2023</t>
-  </si>
-  <si>
     <t>Bukalapak kilat</t>
   </si>
   <si>
@@ -3978,9 +3884,6 @@
     <t>Naruto M</t>
   </si>
   <si>
-    <t>02-Sept-2023</t>
-  </si>
-  <si>
     <t>Kemalong</t>
   </si>
   <si>
@@ -3996,15 +3899,9 @@
     <t>pengaktifan dana</t>
   </si>
   <si>
-    <t>03-Sept-2023</t>
-  </si>
-  <si>
     <t>SUANGSUANG</t>
   </si>
   <si>
-    <t>04-Sept-2023</t>
-  </si>
-  <si>
     <t>Eeee</t>
   </si>
   <si>
@@ -4026,9 +3923,6 @@
     <t>REZA ASTRA</t>
   </si>
   <si>
-    <t>05-Sept-2023</t>
-  </si>
-  <si>
     <t>Ramdan cell</t>
   </si>
   <si>
@@ -4041,9 +3935,6 @@
     <t>Kejok</t>
   </si>
   <si>
-    <t>06-Sept-2023</t>
-  </si>
-  <si>
     <t>NYAI</t>
   </si>
   <si>
@@ -4056,9 +3947,6 @@
     <t>GALATECH HERYANI</t>
   </si>
   <si>
-    <t>07-Sept-2023</t>
-  </si>
-  <si>
     <t>GIVEAWAY INDONESIA</t>
   </si>
   <si>
@@ -4068,15 +3956,9 @@
     <t>Pelunas Ibu Yetty</t>
   </si>
   <si>
-    <t>08-Sept-2023</t>
-  </si>
-  <si>
     <t>OY PENINA MERAUDJE</t>
   </si>
   <si>
-    <t>09-Sept-2023</t>
-  </si>
-  <si>
     <t>BUSSAN AUTO FINANCE</t>
   </si>
   <si>
@@ -4095,9 +3977,6 @@
     <t>PT TRI USAHA BERKAT IND</t>
   </si>
   <si>
-    <t>10-Sept-2023</t>
-  </si>
-  <si>
     <t>Pinjaman Plus</t>
   </si>
   <si>
@@ -4110,9 +3989,6 @@
     <t>Oto Kredit Motor</t>
   </si>
   <si>
-    <t>11-Sept-2023</t>
-  </si>
-  <si>
     <t>GOVINDO</t>
   </si>
   <si>
@@ -4128,9 +4004,6 @@
     <t>AGEN FASHION</t>
   </si>
   <si>
-    <t>12-Sept-2023</t>
-  </si>
-  <si>
     <t>Anggi Selvianita Lunas</t>
   </si>
   <si>
@@ -4146,9 +4019,6 @@
     <t>BAF BUSSAN AUTO FINANCE</t>
   </si>
   <si>
-    <t>13-Sept-2023</t>
-  </si>
-  <si>
     <t>HOME-CREDIT</t>
   </si>
   <si>
@@ -4173,9 +4043,6 @@
     <t>Uang Tunai</t>
   </si>
   <si>
-    <t>14-Sept-2023</t>
-  </si>
-  <si>
     <t>Kredit Plus</t>
   </si>
   <si>
@@ -4197,9 +4064,6 @@
     <t>Homx Credit</t>
   </si>
   <si>
-    <t>15-Sept-2023</t>
-  </si>
-  <si>
     <t>HxMxCxeDxT</t>
   </si>
   <si>
@@ -4209,9 +4073,6 @@
     <t>PT Shopee Security</t>
   </si>
   <si>
-    <t>16-Sept-2023</t>
-  </si>
-  <si>
     <t>GUNAKAN ATM LAIN</t>
   </si>
   <si>
@@ -4221,9 +4082,6 @@
     <t>Alwancell</t>
   </si>
   <si>
-    <t>17-Sept-2023</t>
-  </si>
-  <si>
     <t>OMAH</t>
   </si>
   <si>
@@ -4233,9 +4091,6 @@
     <t>RXXXiA</t>
   </si>
   <si>
-    <t>18-Sept-2023</t>
-  </si>
-  <si>
     <t>JNT EXPRES</t>
   </si>
   <si>
@@ -4257,9 +4112,6 @@
     <t>Hddh</t>
   </si>
   <si>
-    <t>19-Sept-2023</t>
-  </si>
-  <si>
     <t>PT. Dompet Harapan Bangsa</t>
   </si>
   <si>
@@ -4287,9 +4139,6 @@
     <t>Shoppe Xpress</t>
   </si>
   <si>
-    <t>20-Sept-2023</t>
-  </si>
-  <si>
     <t>RUNTAH</t>
   </si>
   <si>
@@ -4314,9 +4163,6 @@
     <t>Rajawali</t>
   </si>
   <si>
-    <t>22-Sept-2023</t>
-  </si>
-  <si>
     <t>BEDDUSOLO</t>
   </si>
   <si>
@@ -4332,9 +4178,6 @@
     <t>SENSS</t>
   </si>
   <si>
-    <t>23-Sept-2023</t>
-  </si>
-  <si>
     <t>BFI FINANCE</t>
   </si>
   <si>
@@ -4344,9 +4187,6 @@
     <t>BUSANA</t>
   </si>
   <si>
-    <t>24-Sept-2023</t>
-  </si>
-  <si>
     <t>KREDIT KILAT PENGEMBALIAN</t>
   </si>
   <si>
@@ -4359,9 +4199,6 @@
     <t>aloysitus</t>
   </si>
   <si>
-    <t>25-Sept-2023</t>
-  </si>
-  <si>
     <t>UTANGRUSMANA</t>
   </si>
   <si>
@@ -4371,9 +4208,6 @@
     <t>Darjono (DEV)</t>
   </si>
   <si>
-    <t>26-Sept-2023</t>
-  </si>
-  <si>
     <t>Loklo</t>
   </si>
   <si>
@@ -4425,9 +4259,6 @@
     <t>PT RUPIAH CEPAT</t>
   </si>
   <si>
-    <t>27-Sept-2023</t>
-  </si>
-  <si>
     <t>Leny Cell</t>
   </si>
   <si>
@@ -4447,9 +4278,6 @@
   </si>
   <si>
     <t>test temporary 1952</t>
-  </si>
-  <si>
-    <t>28-Sept-2023</t>
   </si>
   <si>
     <t>UJI ARTHA WIJAYANTI KREDIT KILAT</t>
@@ -5344,7 +5172,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5371,6 +5199,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -47955,8 +47795,8 @@
       <c r="B1462" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="C1462" s="6" t="s">
-        <v>1138</v>
+      <c r="C1462" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1462" s="5"/>
       <c r="E1462" s="5"/>
@@ -47982,10 +47822,10 @@
         <v>1462</v>
       </c>
       <c r="B1463" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C1463" s="6" t="s">
         <v>1138</v>
+      </c>
+      <c r="C1463" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1463" s="5"/>
       <c r="E1463" s="5"/>
@@ -48013,8 +47853,8 @@
       <c r="B1464" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C1464" s="6" t="s">
-        <v>1138</v>
+      <c r="C1464" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1464" s="5"/>
       <c r="E1464" s="5"/>
@@ -48040,10 +47880,10 @@
         <v>1464</v>
       </c>
       <c r="B1465" s="5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C1465" s="6" t="s">
-        <v>1138</v>
+        <v>1139</v>
+      </c>
+      <c r="C1465" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1465" s="5"/>
       <c r="E1465" s="5"/>
@@ -48069,10 +47909,10 @@
         <v>1465</v>
       </c>
       <c r="B1466" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C1466" s="6" t="s">
-        <v>1138</v>
+        <v>1140</v>
+      </c>
+      <c r="C1466" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1466" s="5"/>
       <c r="E1466" s="5"/>
@@ -48100,8 +47940,8 @@
       <c r="B1467" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C1467" s="6" t="s">
-        <v>1138</v>
+      <c r="C1467" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1467" s="5"/>
       <c r="E1467" s="5"/>
@@ -48127,10 +47967,10 @@
         <v>1467</v>
       </c>
       <c r="B1468" s="5" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C1468" s="6" t="s">
-        <v>1138</v>
+        <v>1141</v>
+      </c>
+      <c r="C1468" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1468" s="5"/>
       <c r="E1468" s="5"/>
@@ -48156,10 +47996,10 @@
         <v>1468</v>
       </c>
       <c r="B1469" s="5" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C1469" s="6" t="s">
-        <v>1138</v>
+        <v>1142</v>
+      </c>
+      <c r="C1469" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1469" s="5"/>
       <c r="E1469" s="5"/>
@@ -48187,8 +48027,8 @@
       <c r="B1470" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C1470" s="6" t="s">
-        <v>1138</v>
+      <c r="C1470" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1470" s="5"/>
       <c r="E1470" s="5"/>
@@ -48216,8 +48056,8 @@
       <c r="B1471" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="C1471" s="6" t="s">
-        <v>1138</v>
+      <c r="C1471" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1471" s="5"/>
       <c r="E1471" s="5"/>
@@ -48243,10 +48083,10 @@
         <v>1471</v>
       </c>
       <c r="B1472" s="5" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C1472" s="6" t="s">
-        <v>1138</v>
+        <v>1143</v>
+      </c>
+      <c r="C1472" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1472" s="5"/>
       <c r="E1472" s="5"/>
@@ -48272,10 +48112,10 @@
         <v>1472</v>
       </c>
       <c r="B1473" s="5" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C1473" s="6" t="s">
-        <v>1138</v>
+        <v>1144</v>
+      </c>
+      <c r="C1473" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1473" s="5"/>
       <c r="E1473" s="5"/>
@@ -48301,10 +48141,10 @@
         <v>1473</v>
       </c>
       <c r="B1474" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C1474" s="6" t="s">
-        <v>1138</v>
+        <v>1145</v>
+      </c>
+      <c r="C1474" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1474" s="5"/>
       <c r="E1474" s="5"/>
@@ -48332,8 +48172,8 @@
       <c r="B1475" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C1475" s="6" t="s">
-        <v>1138</v>
+      <c r="C1475" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1475" s="5"/>
       <c r="E1475" s="5"/>
@@ -48361,8 +48201,8 @@
       <c r="B1476" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1476" s="6" t="s">
-        <v>1138</v>
+      <c r="C1476" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1476" s="5"/>
       <c r="E1476" s="5"/>
@@ -48388,10 +48228,10 @@
         <v>1476</v>
       </c>
       <c r="B1477" s="5" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C1477" s="6" t="s">
-        <v>1138</v>
+        <v>1146</v>
+      </c>
+      <c r="C1477" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1477" s="5"/>
       <c r="E1477" s="5"/>
@@ -48417,10 +48257,10 @@
         <v>1477</v>
       </c>
       <c r="B1478" s="5" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C1478" s="6" t="s">
-        <v>1138</v>
+        <v>1147</v>
+      </c>
+      <c r="C1478" s="14">
+        <v>45139.0</v>
       </c>
       <c r="D1478" s="5"/>
       <c r="E1478" s="5"/>
@@ -48446,10 +48286,10 @@
         <v>1478</v>
       </c>
       <c r="B1479" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C1479" s="6" t="s">
-        <v>1150</v>
+        <v>1148</v>
+      </c>
+      <c r="C1479" s="14">
+        <v>45140.0</v>
       </c>
       <c r="D1479" s="5"/>
       <c r="E1479" s="5"/>
@@ -48475,10 +48315,10 @@
         <v>1479</v>
       </c>
       <c r="B1480" s="5" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C1480" s="6" t="s">
-        <v>1150</v>
+        <v>1149</v>
+      </c>
+      <c r="C1480" s="14">
+        <v>45140.0</v>
       </c>
       <c r="D1480" s="5"/>
       <c r="E1480" s="5"/>
@@ -48504,10 +48344,10 @@
         <v>1480</v>
       </c>
       <c r="B1481" s="5" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C1481" s="6" t="s">
         <v>1150</v>
+      </c>
+      <c r="C1481" s="14">
+        <v>45140.0</v>
       </c>
       <c r="D1481" s="5"/>
       <c r="E1481" s="5"/>
@@ -48533,10 +48373,10 @@
         <v>1481</v>
       </c>
       <c r="B1482" s="5" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C1482" s="6" t="s">
-        <v>1150</v>
+        <v>1151</v>
+      </c>
+      <c r="C1482" s="14">
+        <v>45140.0</v>
       </c>
       <c r="D1482" s="5"/>
       <c r="E1482" s="5"/>
@@ -48562,10 +48402,10 @@
         <v>1482</v>
       </c>
       <c r="B1483" s="5" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C1483" s="6" t="s">
-        <v>1150</v>
+        <v>1152</v>
+      </c>
+      <c r="C1483" s="14">
+        <v>45140.0</v>
       </c>
       <c r="D1483" s="5"/>
       <c r="E1483" s="5"/>
@@ -48591,10 +48431,10 @@
         <v>1483</v>
       </c>
       <c r="B1484" s="5" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C1484" s="6" t="s">
-        <v>1150</v>
+        <v>1153</v>
+      </c>
+      <c r="C1484" s="14">
+        <v>45140.0</v>
       </c>
       <c r="D1484" s="5"/>
       <c r="E1484" s="5"/>
@@ -48622,8 +48462,8 @@
       <c r="B1485" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1485" s="6" t="s">
-        <v>1150</v>
+      <c r="C1485" s="14">
+        <v>45140.0</v>
       </c>
       <c r="D1485" s="5"/>
       <c r="E1485" s="5"/>
@@ -48651,8 +48491,8 @@
       <c r="B1486" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="C1486" s="6" t="s">
-        <v>1150</v>
+      <c r="C1486" s="14">
+        <v>45140.0</v>
       </c>
       <c r="D1486" s="5"/>
       <c r="E1486" s="5"/>
@@ -48678,10 +48518,10 @@
         <v>1486</v>
       </c>
       <c r="B1487" s="5" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C1487" s="6" t="s">
-        <v>1150</v>
+        <v>1154</v>
+      </c>
+      <c r="C1487" s="14">
+        <v>45140.0</v>
       </c>
       <c r="D1487" s="5"/>
       <c r="E1487" s="5"/>
@@ -48707,10 +48547,10 @@
         <v>1487</v>
       </c>
       <c r="B1488" s="5" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C1488" s="6" t="s">
-        <v>1158</v>
+        <v>1155</v>
+      </c>
+      <c r="C1488" s="14">
+        <v>45141.0</v>
       </c>
       <c r="D1488" s="5"/>
       <c r="E1488" s="5"/>
@@ -48736,10 +48576,10 @@
         <v>1488</v>
       </c>
       <c r="B1489" s="5" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C1489" s="6" t="s">
-        <v>1158</v>
+        <v>1156</v>
+      </c>
+      <c r="C1489" s="14">
+        <v>45141.0</v>
       </c>
       <c r="D1489" s="5"/>
       <c r="E1489" s="5"/>
@@ -48765,10 +48605,10 @@
         <v>1489</v>
       </c>
       <c r="B1490" s="5" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C1490" s="6" t="s">
-        <v>1158</v>
+        <v>1157</v>
+      </c>
+      <c r="C1490" s="14">
+        <v>45141.0</v>
       </c>
       <c r="D1490" s="5"/>
       <c r="E1490" s="5"/>
@@ -48794,10 +48634,10 @@
         <v>1490</v>
       </c>
       <c r="B1491" s="5" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C1491" s="6" t="s">
         <v>1158</v>
+      </c>
+      <c r="C1491" s="14">
+        <v>45141.0</v>
       </c>
       <c r="D1491" s="5"/>
       <c r="E1491" s="5"/>
@@ -48823,10 +48663,10 @@
         <v>1491</v>
       </c>
       <c r="B1492" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C1492" s="6" t="s">
-        <v>1158</v>
+        <v>1159</v>
+      </c>
+      <c r="C1492" s="14">
+        <v>45141.0</v>
       </c>
       <c r="D1492" s="5"/>
       <c r="E1492" s="5"/>
@@ -48852,10 +48692,10 @@
         <v>1492</v>
       </c>
       <c r="B1493" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C1493" s="6" t="s">
-        <v>1158</v>
+        <v>1160</v>
+      </c>
+      <c r="C1493" s="14">
+        <v>45141.0</v>
       </c>
       <c r="D1493" s="5"/>
       <c r="E1493" s="5"/>
@@ -48881,10 +48721,10 @@
         <v>1493</v>
       </c>
       <c r="B1494" s="5" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C1494" s="6" t="s">
-        <v>1158</v>
+        <v>1161</v>
+      </c>
+      <c r="C1494" s="14">
+        <v>45141.0</v>
       </c>
       <c r="D1494" s="5"/>
       <c r="E1494" s="5"/>
@@ -48910,10 +48750,10 @@
         <v>1494</v>
       </c>
       <c r="B1495" s="5" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C1495" s="6" t="s">
-        <v>1158</v>
+        <v>1162</v>
+      </c>
+      <c r="C1495" s="14">
+        <v>45141.0</v>
       </c>
       <c r="D1495" s="5"/>
       <c r="E1495" s="5"/>
@@ -48941,8 +48781,8 @@
       <c r="B1496" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1496" s="6" t="s">
-        <v>1166</v>
+      <c r="C1496" s="14">
+        <v>45142.0</v>
       </c>
       <c r="D1496" s="5"/>
       <c r="E1496" s="5"/>
@@ -48968,10 +48808,10 @@
         <v>1496</v>
       </c>
       <c r="B1497" s="5" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C1497" s="6" t="s">
-        <v>1166</v>
+        <v>1163</v>
+      </c>
+      <c r="C1497" s="14">
+        <v>45142.0</v>
       </c>
       <c r="D1497" s="5"/>
       <c r="E1497" s="5"/>
@@ -48997,10 +48837,10 @@
         <v>1497</v>
       </c>
       <c r="B1498" s="5" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C1498" s="6" t="s">
-        <v>1166</v>
+        <v>1164</v>
+      </c>
+      <c r="C1498" s="14">
+        <v>45142.0</v>
       </c>
       <c r="D1498" s="5"/>
       <c r="E1498" s="5"/>
@@ -49026,10 +48866,10 @@
         <v>1498</v>
       </c>
       <c r="B1499" s="5" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C1499" s="6" t="s">
-        <v>1166</v>
+        <v>1162</v>
+      </c>
+      <c r="C1499" s="14">
+        <v>45142.0</v>
       </c>
       <c r="D1499" s="5"/>
       <c r="E1499" s="5"/>
@@ -49055,10 +48895,10 @@
         <v>1499</v>
       </c>
       <c r="B1500" s="5" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C1500" s="6" t="s">
-        <v>1166</v>
+        <v>1165</v>
+      </c>
+      <c r="C1500" s="14">
+        <v>45142.0</v>
       </c>
       <c r="D1500" s="5"/>
       <c r="E1500" s="5"/>
@@ -49084,10 +48924,10 @@
         <v>1500</v>
       </c>
       <c r="B1501" s="5" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C1501" s="6" t="s">
         <v>1166</v>
+      </c>
+      <c r="C1501" s="14">
+        <v>45142.0</v>
       </c>
       <c r="D1501" s="5"/>
       <c r="E1501" s="5"/>
@@ -49113,10 +48953,10 @@
         <v>1501</v>
       </c>
       <c r="B1502" s="5" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C1502" s="6" t="s">
-        <v>1166</v>
+        <v>1167</v>
+      </c>
+      <c r="C1502" s="14">
+        <v>45142.0</v>
       </c>
       <c r="D1502" s="5"/>
       <c r="E1502" s="5"/>
@@ -49142,10 +48982,10 @@
         <v>1502</v>
       </c>
       <c r="B1503" s="5" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C1503" s="6" t="s">
-        <v>1166</v>
+        <v>1168</v>
+      </c>
+      <c r="C1503" s="14">
+        <v>45142.0</v>
       </c>
       <c r="D1503" s="5"/>
       <c r="E1503" s="5"/>
@@ -49173,8 +49013,8 @@
       <c r="B1504" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="C1504" s="6" t="s">
-        <v>1173</v>
+      <c r="C1504" s="14">
+        <v>45143.0</v>
       </c>
       <c r="D1504" s="5"/>
       <c r="E1504" s="5"/>
@@ -49200,10 +49040,10 @@
         <v>1504</v>
       </c>
       <c r="B1505" s="5" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C1505" s="6" t="s">
-        <v>1173</v>
+        <v>1169</v>
+      </c>
+      <c r="C1505" s="14">
+        <v>45143.0</v>
       </c>
       <c r="D1505" s="5"/>
       <c r="E1505" s="5"/>
@@ -49231,8 +49071,8 @@
       <c r="B1506" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1506" s="6" t="s">
-        <v>1173</v>
+      <c r="C1506" s="14">
+        <v>45143.0</v>
       </c>
       <c r="D1506" s="5"/>
       <c r="E1506" s="5"/>
@@ -49258,10 +49098,10 @@
         <v>1506</v>
       </c>
       <c r="B1507" s="5" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C1507" s="6" t="s">
-        <v>1173</v>
+        <v>1170</v>
+      </c>
+      <c r="C1507" s="14">
+        <v>45143.0</v>
       </c>
       <c r="D1507" s="5"/>
       <c r="E1507" s="5"/>
@@ -49287,10 +49127,10 @@
         <v>1507</v>
       </c>
       <c r="B1508" s="5" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C1508" s="6" t="s">
-        <v>1173</v>
+        <v>1171</v>
+      </c>
+      <c r="C1508" s="14">
+        <v>45143.0</v>
       </c>
       <c r="D1508" s="5"/>
       <c r="E1508" s="5"/>
@@ -49318,8 +49158,8 @@
       <c r="B1509" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1509" s="6" t="s">
-        <v>1173</v>
+      <c r="C1509" s="14">
+        <v>45143.0</v>
       </c>
       <c r="D1509" s="5"/>
       <c r="E1509" s="5"/>
@@ -49345,10 +49185,10 @@
         <v>1509</v>
       </c>
       <c r="B1510" s="5" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C1510" s="6" t="s">
-        <v>1173</v>
+        <v>1172</v>
+      </c>
+      <c r="C1510" s="14">
+        <v>45143.0</v>
       </c>
       <c r="D1510" s="5"/>
       <c r="E1510" s="5"/>
@@ -49374,10 +49214,10 @@
         <v>1510</v>
       </c>
       <c r="B1511" s="5" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C1511" s="6" t="s">
-        <v>1179</v>
+        <v>1173</v>
+      </c>
+      <c r="C1511" s="14">
+        <v>45144.0</v>
       </c>
       <c r="D1511" s="5"/>
       <c r="E1511" s="5"/>
@@ -49403,10 +49243,10 @@
         <v>1511</v>
       </c>
       <c r="B1512" s="5" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C1512" s="6" t="s">
-        <v>1179</v>
+        <v>1174</v>
+      </c>
+      <c r="C1512" s="14">
+        <v>45144.0</v>
       </c>
       <c r="D1512" s="5"/>
       <c r="E1512" s="5"/>
@@ -49432,10 +49272,10 @@
         <v>1512</v>
       </c>
       <c r="B1513" s="5" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C1513" s="6" t="s">
-        <v>1179</v>
+        <v>1175</v>
+      </c>
+      <c r="C1513" s="14">
+        <v>45144.0</v>
       </c>
       <c r="D1513" s="5"/>
       <c r="E1513" s="5"/>
@@ -49461,10 +49301,10 @@
         <v>1513</v>
       </c>
       <c r="B1514" s="5" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C1514" s="6" t="s">
-        <v>1179</v>
+        <v>1176</v>
+      </c>
+      <c r="C1514" s="14">
+        <v>45144.0</v>
       </c>
       <c r="D1514" s="5"/>
       <c r="E1514" s="5"/>
@@ -49490,10 +49330,10 @@
         <v>1514</v>
       </c>
       <c r="B1515" s="5" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C1515" s="6" t="s">
-        <v>1179</v>
+        <v>1177</v>
+      </c>
+      <c r="C1515" s="14">
+        <v>45144.0</v>
       </c>
       <c r="D1515" s="5"/>
       <c r="E1515" s="5"/>
@@ -49519,10 +49359,10 @@
         <v>1515</v>
       </c>
       <c r="B1516" s="5" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C1516" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
+      </c>
+      <c r="C1516" s="14">
+        <v>45144.0</v>
       </c>
       <c r="D1516" s="5"/>
       <c r="E1516" s="5"/>
@@ -49548,10 +49388,10 @@
         <v>1516</v>
       </c>
       <c r="B1517" s="5" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C1517" s="6" t="s">
         <v>1179</v>
+      </c>
+      <c r="C1517" s="14">
+        <v>45144.0</v>
       </c>
       <c r="D1517" s="5"/>
       <c r="E1517" s="5"/>
@@ -49577,10 +49417,10 @@
         <v>1517</v>
       </c>
       <c r="B1518" s="5" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C1518" s="6" t="s">
-        <v>1179</v>
+        <v>1180</v>
+      </c>
+      <c r="C1518" s="14">
+        <v>45144.0</v>
       </c>
       <c r="D1518" s="5"/>
       <c r="E1518" s="5"/>
@@ -49606,10 +49446,10 @@
         <v>1518</v>
       </c>
       <c r="B1519" s="5" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C1519" s="6" t="s">
-        <v>1179</v>
+        <v>1181</v>
+      </c>
+      <c r="C1519" s="14">
+        <v>45144.0</v>
       </c>
       <c r="D1519" s="5"/>
       <c r="E1519" s="5"/>
@@ -49635,10 +49475,10 @@
         <v>1519</v>
       </c>
       <c r="B1520" s="5" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C1520" s="6" t="s">
-        <v>1179</v>
+        <v>1182</v>
+      </c>
+      <c r="C1520" s="14">
+        <v>45144.0</v>
       </c>
       <c r="D1520" s="5"/>
       <c r="E1520" s="5"/>
@@ -49666,8 +49506,8 @@
       <c r="B1521" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1521" s="6" t="s">
-        <v>1179</v>
+      <c r="C1521" s="14">
+        <v>45144.0</v>
       </c>
       <c r="D1521" s="5"/>
       <c r="E1521" s="5"/>
@@ -49693,10 +49533,10 @@
         <v>1521</v>
       </c>
       <c r="B1522" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C1522" s="6" t="s">
-        <v>1179</v>
+        <v>1183</v>
+      </c>
+      <c r="C1522" s="14">
+        <v>45144.0</v>
       </c>
       <c r="D1522" s="5"/>
       <c r="E1522" s="5"/>
@@ -49722,10 +49562,10 @@
         <v>1522</v>
       </c>
       <c r="B1523" s="5" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C1523" s="6" t="s">
-        <v>1191</v>
+        <v>1184</v>
+      </c>
+      <c r="C1523" s="14">
+        <v>45145.0</v>
       </c>
       <c r="D1523" s="5"/>
       <c r="E1523" s="5"/>
@@ -49753,8 +49593,8 @@
       <c r="B1524" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1524" s="6" t="s">
-        <v>1191</v>
+      <c r="C1524" s="14">
+        <v>45145.0</v>
       </c>
       <c r="D1524" s="5"/>
       <c r="E1524" s="5"/>
@@ -49780,10 +49620,10 @@
         <v>1524</v>
       </c>
       <c r="B1525" s="5" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C1525" s="6" t="s">
-        <v>1191</v>
+        <v>1185</v>
+      </c>
+      <c r="C1525" s="14">
+        <v>45145.0</v>
       </c>
       <c r="D1525" s="5"/>
       <c r="E1525" s="5"/>
@@ -49809,10 +49649,10 @@
         <v>1525</v>
       </c>
       <c r="B1526" s="5" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C1526" s="6" t="s">
-        <v>1194</v>
+        <v>1186</v>
+      </c>
+      <c r="C1526" s="14">
+        <v>45146.0</v>
       </c>
       <c r="D1526" s="5"/>
       <c r="E1526" s="5"/>
@@ -49840,8 +49680,8 @@
       <c r="B1527" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="C1527" s="6" t="s">
-        <v>1194</v>
+      <c r="C1527" s="14">
+        <v>45146.0</v>
       </c>
       <c r="D1527" s="5"/>
       <c r="E1527" s="5"/>
@@ -49867,10 +49707,10 @@
         <v>1527</v>
       </c>
       <c r="B1528" s="5" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C1528" s="6" t="s">
-        <v>1194</v>
+        <v>1187</v>
+      </c>
+      <c r="C1528" s="14">
+        <v>45146.0</v>
       </c>
       <c r="D1528" s="5"/>
       <c r="E1528" s="5"/>
@@ -49898,8 +49738,8 @@
       <c r="B1529" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1529" s="6" t="s">
-        <v>1194</v>
+      <c r="C1529" s="14">
+        <v>45146.0</v>
       </c>
       <c r="D1529" s="5"/>
       <c r="E1529" s="5"/>
@@ -49927,8 +49767,8 @@
       <c r="B1530" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="C1530" s="6" t="s">
-        <v>1194</v>
+      <c r="C1530" s="14">
+        <v>45146.0</v>
       </c>
       <c r="D1530" s="5"/>
       <c r="E1530" s="5"/>
@@ -49956,8 +49796,8 @@
       <c r="B1531" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="C1531" s="6" t="s">
-        <v>1194</v>
+      <c r="C1531" s="14">
+        <v>45146.0</v>
       </c>
       <c r="D1531" s="5"/>
       <c r="E1531" s="5"/>
@@ -49985,8 +49825,8 @@
       <c r="B1532" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C1532" s="6" t="s">
-        <v>1194</v>
+      <c r="C1532" s="14">
+        <v>45146.0</v>
       </c>
       <c r="D1532" s="5"/>
       <c r="E1532" s="5"/>
@@ -50012,10 +49852,10 @@
         <v>1532</v>
       </c>
       <c r="B1533" s="5" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C1533" s="6" t="s">
-        <v>1194</v>
+        <v>1188</v>
+      </c>
+      <c r="C1533" s="14">
+        <v>45146.0</v>
       </c>
       <c r="D1533" s="5"/>
       <c r="E1533" s="5"/>
@@ -50043,8 +49883,8 @@
       <c r="B1534" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1534" s="6" t="s">
-        <v>1194</v>
+      <c r="C1534" s="14">
+        <v>45146.0</v>
       </c>
       <c r="D1534" s="5"/>
       <c r="E1534" s="5"/>
@@ -50070,10 +49910,10 @@
         <v>1534</v>
       </c>
       <c r="B1535" s="5" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C1535" s="6" t="s">
-        <v>1198</v>
+        <v>1189</v>
+      </c>
+      <c r="C1535" s="14">
+        <v>45147.0</v>
       </c>
       <c r="D1535" s="5"/>
       <c r="E1535" s="5"/>
@@ -50099,10 +49939,10 @@
         <v>1535</v>
       </c>
       <c r="B1536" s="5" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C1536" s="6" t="s">
-        <v>1198</v>
+        <v>1190</v>
+      </c>
+      <c r="C1536" s="14">
+        <v>45147.0</v>
       </c>
       <c r="D1536" s="5"/>
       <c r="E1536" s="5"/>
@@ -50128,10 +49968,10 @@
         <v>1536</v>
       </c>
       <c r="B1537" s="5" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C1537" s="6" t="s">
-        <v>1198</v>
+        <v>1191</v>
+      </c>
+      <c r="C1537" s="14">
+        <v>45147.0</v>
       </c>
       <c r="D1537" s="5"/>
       <c r="E1537" s="5"/>
@@ -50157,10 +49997,10 @@
         <v>1537</v>
       </c>
       <c r="B1538" s="5" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C1538" s="6" t="s">
-        <v>1198</v>
+        <v>1192</v>
+      </c>
+      <c r="C1538" s="14">
+        <v>45147.0</v>
       </c>
       <c r="D1538" s="5"/>
       <c r="E1538" s="5"/>
@@ -50186,10 +50026,10 @@
         <v>1538</v>
       </c>
       <c r="B1539" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C1539" s="6" t="s">
-        <v>1198</v>
+        <v>1193</v>
+      </c>
+      <c r="C1539" s="14">
+        <v>45147.0</v>
       </c>
       <c r="D1539" s="5"/>
       <c r="E1539" s="5"/>
@@ -50215,10 +50055,10 @@
         <v>1539</v>
       </c>
       <c r="B1540" s="5" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C1540" s="6" t="s">
-        <v>1198</v>
+        <v>1194</v>
+      </c>
+      <c r="C1540" s="14">
+        <v>45147.0</v>
       </c>
       <c r="D1540" s="5"/>
       <c r="E1540" s="5"/>
@@ -50244,10 +50084,10 @@
         <v>1540</v>
       </c>
       <c r="B1541" s="5" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C1541" s="6" t="s">
-        <v>1205</v>
+        <v>1195</v>
+      </c>
+      <c r="C1541" s="14">
+        <v>45148.0</v>
       </c>
       <c r="D1541" s="5"/>
       <c r="E1541" s="5"/>
@@ -50275,8 +50115,8 @@
       <c r="B1542" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1542" s="6" t="s">
-        <v>1205</v>
+      <c r="C1542" s="14">
+        <v>45148.0</v>
       </c>
       <c r="D1542" s="5"/>
       <c r="E1542" s="5"/>
@@ -50304,8 +50144,8 @@
       <c r="B1543" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="C1543" s="6" t="s">
-        <v>1205</v>
+      <c r="C1543" s="14">
+        <v>45148.0</v>
       </c>
       <c r="D1543" s="5"/>
       <c r="E1543" s="5"/>
@@ -50333,8 +50173,8 @@
       <c r="B1544" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1544" s="6" t="s">
-        <v>1205</v>
+      <c r="C1544" s="14">
+        <v>45148.0</v>
       </c>
       <c r="D1544" s="5"/>
       <c r="E1544" s="5"/>
@@ -50360,10 +50200,10 @@
         <v>1544</v>
       </c>
       <c r="B1545" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C1545" s="6" t="s">
-        <v>1205</v>
+        <v>1196</v>
+      </c>
+      <c r="C1545" s="14">
+        <v>45148.0</v>
       </c>
       <c r="D1545" s="5"/>
       <c r="E1545" s="5"/>
@@ -50391,8 +50231,8 @@
       <c r="B1546" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1546" s="6" t="s">
-        <v>1207</v>
+      <c r="C1546" s="14">
+        <v>45149.0</v>
       </c>
       <c r="D1546" s="5"/>
       <c r="E1546" s="5"/>
@@ -50418,10 +50258,10 @@
         <v>1546</v>
       </c>
       <c r="B1547" s="5" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C1547" s="6" t="s">
-        <v>1207</v>
+        <v>1197</v>
+      </c>
+      <c r="C1547" s="14">
+        <v>45149.0</v>
       </c>
       <c r="D1547" s="5"/>
       <c r="E1547" s="5"/>
@@ -50449,8 +50289,8 @@
       <c r="B1548" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1548" s="6" t="s">
-        <v>1207</v>
+      <c r="C1548" s="14">
+        <v>45149.0</v>
       </c>
       <c r="D1548" s="5"/>
       <c r="E1548" s="5"/>
@@ -50476,10 +50316,10 @@
         <v>1548</v>
       </c>
       <c r="B1549" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C1549" s="6" t="s">
-        <v>1207</v>
+        <v>1198</v>
+      </c>
+      <c r="C1549" s="14">
+        <v>45149.0</v>
       </c>
       <c r="D1549" s="5"/>
       <c r="E1549" s="5"/>
@@ -50505,10 +50345,10 @@
         <v>1549</v>
       </c>
       <c r="B1550" s="5" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C1550" s="6" t="s">
-        <v>1210</v>
+        <v>1188</v>
+      </c>
+      <c r="C1550" s="14">
+        <v>45150.0</v>
       </c>
       <c r="D1550" s="5"/>
       <c r="E1550" s="5"/>
@@ -50534,10 +50374,10 @@
         <v>1550</v>
       </c>
       <c r="B1551" s="5" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C1551" s="6" t="s">
-        <v>1210</v>
+        <v>1199</v>
+      </c>
+      <c r="C1551" s="14">
+        <v>45150.0</v>
       </c>
       <c r="D1551" s="5"/>
       <c r="E1551" s="5"/>
@@ -50563,10 +50403,10 @@
         <v>1551</v>
       </c>
       <c r="B1552" s="5" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C1552" s="6" t="s">
-        <v>1210</v>
+        <v>1200</v>
+      </c>
+      <c r="C1552" s="14">
+        <v>45150.0</v>
       </c>
       <c r="D1552" s="5"/>
       <c r="E1552" s="5"/>
@@ -50592,10 +50432,10 @@
         <v>1552</v>
       </c>
       <c r="B1553" s="5" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C1553" s="6" t="s">
-        <v>1210</v>
+        <v>1201</v>
+      </c>
+      <c r="C1553" s="14">
+        <v>45150.0</v>
       </c>
       <c r="D1553" s="5"/>
       <c r="E1553" s="5"/>
@@ -50621,10 +50461,10 @@
         <v>1553</v>
       </c>
       <c r="B1554" s="5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C1554" s="6" t="s">
-        <v>1210</v>
+        <v>1202</v>
+      </c>
+      <c r="C1554" s="14">
+        <v>45150.0</v>
       </c>
       <c r="D1554" s="5"/>
       <c r="E1554" s="5"/>
@@ -50650,10 +50490,10 @@
         <v>1554</v>
       </c>
       <c r="B1555" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C1555" s="6" t="s">
-        <v>1216</v>
+        <v>1203</v>
+      </c>
+      <c r="C1555" s="14">
+        <v>45151.0</v>
       </c>
       <c r="D1555" s="5"/>
       <c r="E1555" s="5"/>
@@ -50679,10 +50519,10 @@
         <v>1555</v>
       </c>
       <c r="B1556" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C1556" s="6" t="s">
-        <v>1216</v>
+        <v>1204</v>
+      </c>
+      <c r="C1556" s="14">
+        <v>45151.0</v>
       </c>
       <c r="D1556" s="5"/>
       <c r="E1556" s="5"/>
@@ -50708,10 +50548,10 @@
         <v>1556</v>
       </c>
       <c r="B1557" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C1557" s="6" t="s">
-        <v>1216</v>
+        <v>1205</v>
+      </c>
+      <c r="C1557" s="14">
+        <v>45151.0</v>
       </c>
       <c r="D1557" s="5"/>
       <c r="E1557" s="5"/>
@@ -50737,10 +50577,10 @@
         <v>1557</v>
       </c>
       <c r="B1558" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C1558" s="6" t="s">
-        <v>1216</v>
+        <v>1205</v>
+      </c>
+      <c r="C1558" s="14">
+        <v>45151.0</v>
       </c>
       <c r="D1558" s="5"/>
       <c r="E1558" s="5"/>
@@ -50768,8 +50608,8 @@
       <c r="B1559" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1559" s="6" t="s">
-        <v>1216</v>
+      <c r="C1559" s="14">
+        <v>45151.0</v>
       </c>
       <c r="D1559" s="5"/>
       <c r="E1559" s="5"/>
@@ -50795,10 +50635,10 @@
         <v>1559</v>
       </c>
       <c r="B1560" s="5" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C1560" s="6" t="s">
-        <v>1220</v>
+        <v>1206</v>
+      </c>
+      <c r="C1560" s="14">
+        <v>45152.0</v>
       </c>
       <c r="D1560" s="5"/>
       <c r="E1560" s="5"/>
@@ -50826,8 +50666,8 @@
       <c r="B1561" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="C1561" s="6" t="s">
-        <v>1220</v>
+      <c r="C1561" s="14">
+        <v>45152.0</v>
       </c>
       <c r="D1561" s="5"/>
       <c r="E1561" s="5"/>
@@ -50853,10 +50693,10 @@
         <v>1561</v>
       </c>
       <c r="B1562" s="5" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C1562" s="6" t="s">
-        <v>1220</v>
+        <v>1207</v>
+      </c>
+      <c r="C1562" s="14">
+        <v>45152.0</v>
       </c>
       <c r="D1562" s="5"/>
       <c r="E1562" s="5"/>
@@ -50882,10 +50722,10 @@
         <v>1562</v>
       </c>
       <c r="B1563" s="5" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C1563" s="6" t="s">
-        <v>1220</v>
+        <v>1208</v>
+      </c>
+      <c r="C1563" s="14">
+        <v>45152.0</v>
       </c>
       <c r="D1563" s="5"/>
       <c r="E1563" s="5"/>
@@ -50911,10 +50751,10 @@
         <v>1563</v>
       </c>
       <c r="B1564" s="5" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C1564" s="6" t="s">
-        <v>1224</v>
+        <v>1209</v>
+      </c>
+      <c r="C1564" s="14">
+        <v>45153.0</v>
       </c>
       <c r="D1564" s="5"/>
       <c r="E1564" s="5"/>
@@ -50940,10 +50780,10 @@
         <v>1564</v>
       </c>
       <c r="B1565" s="5" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C1565" s="6" t="s">
-        <v>1224</v>
+        <v>1210</v>
+      </c>
+      <c r="C1565" s="14">
+        <v>45153.0</v>
       </c>
       <c r="D1565" s="5"/>
       <c r="E1565" s="5"/>
@@ -50969,10 +50809,10 @@
         <v>1565</v>
       </c>
       <c r="B1566" s="5" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C1566" s="6" t="s">
-        <v>1224</v>
+        <v>1211</v>
+      </c>
+      <c r="C1566" s="14">
+        <v>45153.0</v>
       </c>
       <c r="D1566" s="5"/>
       <c r="E1566" s="5"/>
@@ -51000,8 +50840,8 @@
       <c r="B1567" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1567" s="6" t="s">
-        <v>1224</v>
+      <c r="C1567" s="14">
+        <v>45153.0</v>
       </c>
       <c r="D1567" s="5"/>
       <c r="E1567" s="5"/>
@@ -51029,8 +50869,8 @@
       <c r="B1568" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="C1568" s="6" t="s">
-        <v>1224</v>
+      <c r="C1568" s="14">
+        <v>45153.0</v>
       </c>
       <c r="D1568" s="5"/>
       <c r="E1568" s="5"/>
@@ -51056,10 +50896,10 @@
         <v>1568</v>
       </c>
       <c r="B1569" s="5" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C1569" s="6" t="s">
-        <v>1224</v>
+        <v>1212</v>
+      </c>
+      <c r="C1569" s="14">
+        <v>45153.0</v>
       </c>
       <c r="D1569" s="5"/>
       <c r="E1569" s="5"/>
@@ -51085,10 +50925,10 @@
         <v>1569</v>
       </c>
       <c r="B1570" s="5" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C1570" s="6" t="s">
-        <v>1224</v>
+        <v>1213</v>
+      </c>
+      <c r="C1570" s="14">
+        <v>45153.0</v>
       </c>
       <c r="D1570" s="5"/>
       <c r="E1570" s="5"/>
@@ -51114,10 +50954,10 @@
         <v>1570</v>
       </c>
       <c r="B1571" s="5" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C1571" s="6" t="s">
-        <v>1224</v>
+        <v>1214</v>
+      </c>
+      <c r="C1571" s="14">
+        <v>45153.0</v>
       </c>
       <c r="D1571" s="5"/>
       <c r="E1571" s="5"/>
@@ -51143,10 +50983,10 @@
         <v>1571</v>
       </c>
       <c r="B1572" s="5" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C1572" s="6" t="s">
-        <v>1224</v>
+        <v>1215</v>
+      </c>
+      <c r="C1572" s="14">
+        <v>45153.0</v>
       </c>
       <c r="D1572" s="5"/>
       <c r="E1572" s="5"/>
@@ -51172,10 +51012,10 @@
         <v>1572</v>
       </c>
       <c r="B1573" s="5" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C1573" s="6" t="s">
-        <v>1224</v>
+        <v>1216</v>
+      </c>
+      <c r="C1573" s="14">
+        <v>45153.0</v>
       </c>
       <c r="D1573" s="5"/>
       <c r="E1573" s="5"/>
@@ -51201,10 +51041,10 @@
         <v>1573</v>
       </c>
       <c r="B1574" s="5" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C1574" s="6" t="s">
-        <v>1233</v>
+        <v>1217</v>
+      </c>
+      <c r="C1574" s="14">
+        <v>45154.0</v>
       </c>
       <c r="D1574" s="5"/>
       <c r="E1574" s="5"/>
@@ -51230,10 +51070,10 @@
         <v>1574</v>
       </c>
       <c r="B1575" s="5" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C1575" s="6" t="s">
-        <v>1233</v>
+        <v>1218</v>
+      </c>
+      <c r="C1575" s="14">
+        <v>45154.0</v>
       </c>
       <c r="D1575" s="5"/>
       <c r="E1575" s="5"/>
@@ -51259,10 +51099,10 @@
         <v>1575</v>
       </c>
       <c r="B1576" s="5" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C1576" s="6" t="s">
-        <v>1233</v>
+        <v>1219</v>
+      </c>
+      <c r="C1576" s="14">
+        <v>45154.0</v>
       </c>
       <c r="D1576" s="5"/>
       <c r="E1576" s="5"/>
@@ -51288,10 +51128,10 @@
         <v>1576</v>
       </c>
       <c r="B1577" s="5" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C1577" s="6" t="s">
-        <v>1233</v>
+        <v>1220</v>
+      </c>
+      <c r="C1577" s="14">
+        <v>45154.0</v>
       </c>
       <c r="D1577" s="5"/>
       <c r="E1577" s="5"/>
@@ -51317,10 +51157,10 @@
         <v>1577</v>
       </c>
       <c r="B1578" s="5" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C1578" s="6" t="s">
-        <v>1233</v>
+        <v>1221</v>
+      </c>
+      <c r="C1578" s="14">
+        <v>45154.0</v>
       </c>
       <c r="D1578" s="5"/>
       <c r="E1578" s="5"/>
@@ -51346,10 +51186,10 @@
         <v>1578</v>
       </c>
       <c r="B1579" s="5" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C1579" s="6" t="s">
-        <v>1233</v>
+        <v>1222</v>
+      </c>
+      <c r="C1579" s="14">
+        <v>45154.0</v>
       </c>
       <c r="D1579" s="5"/>
       <c r="E1579" s="5"/>
@@ -51375,10 +51215,10 @@
         <v>1579</v>
       </c>
       <c r="B1580" s="5" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C1580" s="6" t="s">
-        <v>1239</v>
+        <v>1216</v>
+      </c>
+      <c r="C1580" s="14">
+        <v>45155.0</v>
       </c>
       <c r="D1580" s="5"/>
       <c r="E1580" s="5"/>
@@ -51404,10 +51244,10 @@
         <v>1580</v>
       </c>
       <c r="B1581" s="5" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C1581" s="6" t="s">
-        <v>1239</v>
+        <v>1223</v>
+      </c>
+      <c r="C1581" s="14">
+        <v>45155.0</v>
       </c>
       <c r="D1581" s="5"/>
       <c r="E1581" s="5"/>
@@ -51433,10 +51273,10 @@
         <v>1581</v>
       </c>
       <c r="B1582" s="5" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C1582" s="6" t="s">
-        <v>1239</v>
+        <v>1224</v>
+      </c>
+      <c r="C1582" s="14">
+        <v>45155.0</v>
       </c>
       <c r="D1582" s="5"/>
       <c r="E1582" s="5"/>
@@ -51462,10 +51302,10 @@
         <v>1582</v>
       </c>
       <c r="B1583" s="5" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C1583" s="6" t="s">
-        <v>1239</v>
+        <v>1225</v>
+      </c>
+      <c r="C1583" s="14">
+        <v>45155.0</v>
       </c>
       <c r="D1583" s="5"/>
       <c r="E1583" s="5"/>
@@ -51491,10 +51331,10 @@
         <v>1583</v>
       </c>
       <c r="B1584" s="5" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C1584" s="6" t="s">
-        <v>1244</v>
+        <v>1226</v>
+      </c>
+      <c r="C1584" s="14">
+        <v>45156.0</v>
       </c>
       <c r="D1584" s="5"/>
       <c r="E1584" s="5"/>
@@ -51522,8 +51362,8 @@
       <c r="B1585" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="C1585" s="6" t="s">
-        <v>1244</v>
+      <c r="C1585" s="14">
+        <v>45156.0</v>
       </c>
       <c r="D1585" s="5"/>
       <c r="E1585" s="5"/>
@@ -51549,10 +51389,10 @@
         <v>1585</v>
       </c>
       <c r="B1586" s="5" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C1586" s="6" t="s">
-        <v>1244</v>
+        <v>1227</v>
+      </c>
+      <c r="C1586" s="14">
+        <v>45156.0</v>
       </c>
       <c r="D1586" s="5"/>
       <c r="E1586" s="5"/>
@@ -51578,10 +51418,10 @@
         <v>1586</v>
       </c>
       <c r="B1587" s="5" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C1587" s="6" t="s">
-        <v>1247</v>
+        <v>1228</v>
+      </c>
+      <c r="C1587" s="14">
+        <v>45157.0</v>
       </c>
       <c r="D1587" s="5"/>
       <c r="E1587" s="5"/>
@@ -51609,8 +51449,8 @@
       <c r="B1588" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1588" s="6" t="s">
-        <v>1247</v>
+      <c r="C1588" s="14">
+        <v>45157.0</v>
       </c>
       <c r="D1588" s="5"/>
       <c r="E1588" s="5"/>
@@ -51638,8 +51478,8 @@
       <c r="B1589" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="C1589" s="6" t="s">
-        <v>1247</v>
+      <c r="C1589" s="14">
+        <v>45157.0</v>
       </c>
       <c r="D1589" s="5"/>
       <c r="E1589" s="5"/>
@@ -51665,10 +51505,10 @@
         <v>1589</v>
       </c>
       <c r="B1590" s="5" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C1590" s="6" t="s">
-        <v>1247</v>
+        <v>1229</v>
+      </c>
+      <c r="C1590" s="14">
+        <v>45157.0</v>
       </c>
       <c r="D1590" s="5"/>
       <c r="E1590" s="5"/>
@@ -51694,10 +51534,10 @@
         <v>1590</v>
       </c>
       <c r="B1591" s="5" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C1591" s="6" t="s">
-        <v>1250</v>
+        <v>1230</v>
+      </c>
+      <c r="C1591" s="14">
+        <v>45158.0</v>
       </c>
       <c r="D1591" s="5"/>
       <c r="E1591" s="5"/>
@@ -51723,10 +51563,10 @@
         <v>1591</v>
       </c>
       <c r="B1592" s="5" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C1592" s="6" t="s">
-        <v>1250</v>
+        <v>1231</v>
+      </c>
+      <c r="C1592" s="14">
+        <v>45158.0</v>
       </c>
       <c r="D1592" s="5"/>
       <c r="E1592" s="5"/>
@@ -51754,8 +51594,8 @@
       <c r="B1593" s="5" t="s">
         <v>1136</v>
       </c>
-      <c r="C1593" s="6" t="s">
-        <v>1250</v>
+      <c r="C1593" s="14">
+        <v>45158.0</v>
       </c>
       <c r="D1593" s="5"/>
       <c r="E1593" s="5"/>
@@ -51781,10 +51621,10 @@
         <v>1593</v>
       </c>
       <c r="B1594" s="5" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C1594" s="6" t="s">
-        <v>1250</v>
+        <v>1232</v>
+      </c>
+      <c r="C1594" s="14">
+        <v>45158.0</v>
       </c>
       <c r="D1594" s="5"/>
       <c r="E1594" s="5"/>
@@ -51810,10 +51650,10 @@
         <v>1594</v>
       </c>
       <c r="B1595" s="5" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C1595" s="6" t="s">
-        <v>1254</v>
+        <v>1233</v>
+      </c>
+      <c r="C1595" s="14">
+        <v>45159.0</v>
       </c>
       <c r="D1595" s="5"/>
       <c r="E1595" s="5"/>
@@ -51839,10 +51679,10 @@
         <v>1595</v>
       </c>
       <c r="B1596" s="5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C1596" s="6" t="s">
-        <v>1254</v>
+        <v>1234</v>
+      </c>
+      <c r="C1596" s="14">
+        <v>45159.0</v>
       </c>
       <c r="D1596" s="5"/>
       <c r="E1596" s="5"/>
@@ -51868,10 +51708,10 @@
         <v>1596</v>
       </c>
       <c r="B1597" s="5" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C1597" s="6" t="s">
-        <v>1254</v>
+        <v>1235</v>
+      </c>
+      <c r="C1597" s="14">
+        <v>45159.0</v>
       </c>
       <c r="D1597" s="5"/>
       <c r="E1597" s="5"/>
@@ -51897,10 +51737,10 @@
         <v>1597</v>
       </c>
       <c r="B1598" s="5" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C1598" s="6" t="s">
-        <v>1258</v>
+        <v>1236</v>
+      </c>
+      <c r="C1598" s="14">
+        <v>45160.0</v>
       </c>
       <c r="D1598" s="5"/>
       <c r="E1598" s="5"/>
@@ -51926,10 +51766,10 @@
         <v>1598</v>
       </c>
       <c r="B1599" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C1599" s="6" t="s">
-        <v>1258</v>
+        <v>1198</v>
+      </c>
+      <c r="C1599" s="14">
+        <v>45160.0</v>
       </c>
       <c r="D1599" s="5"/>
       <c r="E1599" s="5"/>
@@ -51955,10 +51795,10 @@
         <v>1599</v>
       </c>
       <c r="B1600" s="5" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C1600" s="6" t="s">
-        <v>1258</v>
+        <v>1237</v>
+      </c>
+      <c r="C1600" s="14">
+        <v>45160.0</v>
       </c>
       <c r="D1600" s="5"/>
       <c r="E1600" s="5"/>
@@ -51984,10 +51824,10 @@
         <v>1600</v>
       </c>
       <c r="B1601" s="5" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C1601" s="6" t="s">
-        <v>1258</v>
+        <v>1238</v>
+      </c>
+      <c r="C1601" s="14">
+        <v>45160.0</v>
       </c>
       <c r="D1601" s="5"/>
       <c r="E1601" s="5"/>
@@ -52013,10 +51853,10 @@
         <v>1601</v>
       </c>
       <c r="B1602" s="5" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C1602" s="6" t="s">
-        <v>1258</v>
+        <v>1239</v>
+      </c>
+      <c r="C1602" s="14">
+        <v>45160.0</v>
       </c>
       <c r="D1602" s="5"/>
       <c r="E1602" s="5"/>
@@ -52042,10 +51882,10 @@
         <v>1602</v>
       </c>
       <c r="B1603" s="5" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C1603" s="6" t="s">
-        <v>1258</v>
+        <v>1240</v>
+      </c>
+      <c r="C1603" s="14">
+        <v>45160.0</v>
       </c>
       <c r="D1603" s="5"/>
       <c r="E1603" s="5"/>
@@ -52071,10 +51911,10 @@
         <v>1603</v>
       </c>
       <c r="B1604" s="5" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C1604" s="6" t="s">
-        <v>1264</v>
+        <v>1241</v>
+      </c>
+      <c r="C1604" s="14">
+        <v>45161.0</v>
       </c>
       <c r="D1604" s="5"/>
       <c r="E1604" s="5"/>
@@ -52100,10 +51940,10 @@
         <v>1604</v>
       </c>
       <c r="B1605" s="5" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C1605" s="6" t="s">
-        <v>1264</v>
+        <v>1242</v>
+      </c>
+      <c r="C1605" s="14">
+        <v>45161.0</v>
       </c>
       <c r="D1605" s="5"/>
       <c r="E1605" s="5"/>
@@ -52129,10 +51969,10 @@
         <v>1605</v>
       </c>
       <c r="B1606" s="5" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C1606" s="6" t="s">
-        <v>1264</v>
+        <v>1243</v>
+      </c>
+      <c r="C1606" s="14">
+        <v>45161.0</v>
       </c>
       <c r="D1606" s="5"/>
       <c r="E1606" s="5"/>
@@ -52158,10 +51998,10 @@
         <v>1606</v>
       </c>
       <c r="B1607" s="5" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C1607" s="6" t="s">
-        <v>1264</v>
+        <v>1244</v>
+      </c>
+      <c r="C1607" s="14">
+        <v>45161.0</v>
       </c>
       <c r="D1607" s="5"/>
       <c r="E1607" s="5"/>
@@ -52187,10 +52027,10 @@
         <v>1607</v>
       </c>
       <c r="B1608" s="5" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C1608" s="6" t="s">
-        <v>1264</v>
+        <v>1245</v>
+      </c>
+      <c r="C1608" s="14">
+        <v>45161.0</v>
       </c>
       <c r="D1608" s="5"/>
       <c r="E1608" s="5"/>
@@ -52216,10 +52056,10 @@
         <v>1608</v>
       </c>
       <c r="B1609" s="5" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C1609" s="6" t="s">
-        <v>1264</v>
+        <v>1244</v>
+      </c>
+      <c r="C1609" s="14">
+        <v>45161.0</v>
       </c>
       <c r="D1609" s="5"/>
       <c r="E1609" s="5"/>
@@ -52245,10 +52085,10 @@
         <v>1609</v>
       </c>
       <c r="B1610" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C1610" s="6" t="s">
-        <v>1270</v>
+        <v>1246</v>
+      </c>
+      <c r="C1610" s="14">
+        <v>45162.0</v>
       </c>
       <c r="D1610" s="5"/>
       <c r="E1610" s="5"/>
@@ -52274,10 +52114,10 @@
         <v>1610</v>
       </c>
       <c r="B1611" s="5" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C1611" s="6" t="s">
-        <v>1270</v>
+        <v>1247</v>
+      </c>
+      <c r="C1611" s="14">
+        <v>45162.0</v>
       </c>
       <c r="D1611" s="5"/>
       <c r="E1611" s="5"/>
@@ -52303,10 +52143,10 @@
         <v>1611</v>
       </c>
       <c r="B1612" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C1612" s="6" t="s">
-        <v>1270</v>
+        <v>1248</v>
+      </c>
+      <c r="C1612" s="14">
+        <v>45162.0</v>
       </c>
       <c r="D1612" s="5"/>
       <c r="E1612" s="5"/>
@@ -52332,10 +52172,10 @@
         <v>1612</v>
       </c>
       <c r="B1613" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C1613" s="6" t="s">
-        <v>1270</v>
+        <v>1248</v>
+      </c>
+      <c r="C1613" s="14">
+        <v>45162.0</v>
       </c>
       <c r="D1613" s="5"/>
       <c r="E1613" s="5"/>
@@ -52361,10 +52201,10 @@
         <v>1613</v>
       </c>
       <c r="B1614" s="5" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C1614" s="6" t="s">
-        <v>1270</v>
+        <v>1249</v>
+      </c>
+      <c r="C1614" s="14">
+        <v>45162.0</v>
       </c>
       <c r="D1614" s="5"/>
       <c r="E1614" s="5"/>
@@ -52390,10 +52230,10 @@
         <v>1614</v>
       </c>
       <c r="B1615" s="5" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C1615" s="6" t="s">
-        <v>1270</v>
+        <v>1250</v>
+      </c>
+      <c r="C1615" s="14">
+        <v>45162.0</v>
       </c>
       <c r="D1615" s="5"/>
       <c r="E1615" s="5"/>
@@ -52419,10 +52259,10 @@
         <v>1615</v>
       </c>
       <c r="B1616" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C1616" s="6" t="s">
-        <v>1275</v>
+        <v>1246</v>
+      </c>
+      <c r="C1616" s="14">
+        <v>45163.0</v>
       </c>
       <c r="D1616" s="5"/>
       <c r="E1616" s="5"/>
@@ -52448,10 +52288,10 @@
         <v>1616</v>
       </c>
       <c r="B1617" s="5" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C1617" s="6" t="s">
-        <v>1275</v>
+        <v>1251</v>
+      </c>
+      <c r="C1617" s="14">
+        <v>45163.0</v>
       </c>
       <c r="D1617" s="5"/>
       <c r="E1617" s="5"/>
@@ -52477,10 +52317,10 @@
         <v>1617</v>
       </c>
       <c r="B1618" s="5" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C1618" s="6" t="s">
-        <v>1275</v>
+        <v>1252</v>
+      </c>
+      <c r="C1618" s="14">
+        <v>45163.0</v>
       </c>
       <c r="D1618" s="5"/>
       <c r="E1618" s="5"/>
@@ -52506,10 +52346,10 @@
         <v>1618</v>
       </c>
       <c r="B1619" s="5" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C1619" s="6" t="s">
-        <v>1275</v>
+        <v>1253</v>
+      </c>
+      <c r="C1619" s="14">
+        <v>45163.0</v>
       </c>
       <c r="D1619" s="5"/>
       <c r="E1619" s="5"/>
@@ -52535,10 +52375,10 @@
         <v>1619</v>
       </c>
       <c r="B1620" s="5" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C1620" s="6" t="s">
-        <v>1275</v>
+        <v>1254</v>
+      </c>
+      <c r="C1620" s="14">
+        <v>45163.0</v>
       </c>
       <c r="D1620" s="5"/>
       <c r="E1620" s="5"/>
@@ -52566,8 +52406,8 @@
       <c r="B1621" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="C1621" s="6" t="s">
-        <v>1275</v>
+      <c r="C1621" s="14">
+        <v>45163.0</v>
       </c>
       <c r="D1621" s="5"/>
       <c r="E1621" s="5"/>
@@ -52593,10 +52433,10 @@
         <v>1621</v>
       </c>
       <c r="B1622" s="5" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C1622" s="6" t="s">
-        <v>1275</v>
+        <v>1255</v>
+      </c>
+      <c r="C1622" s="14">
+        <v>45163.0</v>
       </c>
       <c r="D1622" s="5"/>
       <c r="E1622" s="5"/>
@@ -52622,10 +52462,10 @@
         <v>1622</v>
       </c>
       <c r="B1623" s="5" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C1623" s="6" t="s">
-        <v>1275</v>
+        <v>1256</v>
+      </c>
+      <c r="C1623" s="14">
+        <v>45163.0</v>
       </c>
       <c r="D1623" s="5"/>
       <c r="E1623" s="5"/>
@@ -52651,10 +52491,10 @@
         <v>1623</v>
       </c>
       <c r="B1624" s="5" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C1624" s="6" t="s">
-        <v>1275</v>
+        <v>1257</v>
+      </c>
+      <c r="C1624" s="14">
+        <v>45163.0</v>
       </c>
       <c r="D1624" s="5"/>
       <c r="E1624" s="5"/>
@@ -52680,10 +52520,10 @@
         <v>1624</v>
       </c>
       <c r="B1625" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C1625" s="6" t="s">
-        <v>1275</v>
+        <v>1258</v>
+      </c>
+      <c r="C1625" s="14">
+        <v>45163.0</v>
       </c>
       <c r="D1625" s="5"/>
       <c r="E1625" s="5"/>
@@ -52709,10 +52549,10 @@
         <v>1625</v>
       </c>
       <c r="B1626" s="5" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C1626" s="6" t="s">
-        <v>1275</v>
+        <v>1259</v>
+      </c>
+      <c r="C1626" s="14">
+        <v>45163.0</v>
       </c>
       <c r="D1626" s="5"/>
       <c r="E1626" s="5"/>
@@ -52738,10 +52578,10 @@
         <v>1626</v>
       </c>
       <c r="B1627" s="5" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C1627" s="6" t="s">
-        <v>1286</v>
+        <v>1260</v>
+      </c>
+      <c r="C1627" s="14">
+        <v>45164.0</v>
       </c>
       <c r="D1627" s="5"/>
       <c r="E1627" s="5"/>
@@ -52767,10 +52607,10 @@
         <v>1627</v>
       </c>
       <c r="B1628" s="5" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C1628" s="6" t="s">
-        <v>1286</v>
+        <v>1260</v>
+      </c>
+      <c r="C1628" s="14">
+        <v>45164.0</v>
       </c>
       <c r="D1628" s="5"/>
       <c r="E1628" s="5"/>
@@ -52796,10 +52636,10 @@
         <v>1628</v>
       </c>
       <c r="B1629" s="5" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C1629" s="6" t="s">
-        <v>1286</v>
+        <v>1261</v>
+      </c>
+      <c r="C1629" s="14">
+        <v>45164.0</v>
       </c>
       <c r="D1629" s="5"/>
       <c r="E1629" s="5"/>
@@ -52827,8 +52667,8 @@
       <c r="B1630" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="C1630" s="6" t="s">
-        <v>1286</v>
+      <c r="C1630" s="14">
+        <v>45164.0</v>
       </c>
       <c r="D1630" s="5"/>
       <c r="E1630" s="5"/>
@@ -52854,10 +52694,10 @@
         <v>1630</v>
       </c>
       <c r="B1631" s="5" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C1631" s="6" t="s">
-        <v>1286</v>
+        <v>1262</v>
+      </c>
+      <c r="C1631" s="14">
+        <v>45164.0</v>
       </c>
       <c r="D1631" s="5"/>
       <c r="E1631" s="5"/>
@@ -52885,8 +52725,8 @@
       <c r="B1632" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="C1632" s="6" t="s">
-        <v>1286</v>
+      <c r="C1632" s="14">
+        <v>45164.0</v>
       </c>
       <c r="D1632" s="5"/>
       <c r="E1632" s="5"/>
@@ -52912,10 +52752,10 @@
         <v>1632</v>
       </c>
       <c r="B1633" s="5" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C1633" s="6" t="s">
-        <v>1286</v>
+        <v>1263</v>
+      </c>
+      <c r="C1633" s="14">
+        <v>45164.0</v>
       </c>
       <c r="D1633" s="5"/>
       <c r="E1633" s="5"/>
@@ -52941,10 +52781,10 @@
         <v>1633</v>
       </c>
       <c r="B1634" s="5" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C1634" s="6" t="s">
-        <v>1286</v>
+        <v>1264</v>
+      </c>
+      <c r="C1634" s="14">
+        <v>45164.0</v>
       </c>
       <c r="D1634" s="5"/>
       <c r="E1634" s="5"/>
@@ -52970,10 +52810,10 @@
         <v>1634</v>
       </c>
       <c r="B1635" s="5" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C1635" s="6" t="s">
-        <v>1292</v>
+        <v>1265</v>
+      </c>
+      <c r="C1635" s="14">
+        <v>45165.0</v>
       </c>
       <c r="D1635" s="5"/>
       <c r="E1635" s="5"/>
@@ -52999,10 +52839,10 @@
         <v>1635</v>
       </c>
       <c r="B1636" s="5" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C1636" s="6" t="s">
-        <v>1292</v>
+        <v>1266</v>
+      </c>
+      <c r="C1636" s="14">
+        <v>45165.0</v>
       </c>
       <c r="D1636" s="5"/>
       <c r="E1636" s="5"/>
@@ -53030,8 +52870,8 @@
       <c r="B1637" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="C1637" s="6" t="s">
-        <v>1292</v>
+      <c r="C1637" s="14">
+        <v>45165.0</v>
       </c>
       <c r="D1637" s="5"/>
       <c r="E1637" s="5"/>
@@ -53057,10 +52897,10 @@
         <v>1637</v>
       </c>
       <c r="B1638" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C1638" s="6" t="s">
-        <v>1292</v>
+        <v>1267</v>
+      </c>
+      <c r="C1638" s="14">
+        <v>45165.0</v>
       </c>
       <c r="D1638" s="5"/>
       <c r="E1638" s="5"/>
@@ -53088,8 +52928,8 @@
       <c r="B1639" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="C1639" s="6" t="s">
-        <v>1295</v>
+      <c r="C1639" s="14">
+        <v>45166.0</v>
       </c>
       <c r="D1639" s="5"/>
       <c r="E1639" s="5"/>
@@ -53115,10 +52955,10 @@
         <v>1639</v>
       </c>
       <c r="B1640" s="5" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C1640" s="6" t="s">
-        <v>1295</v>
+        <v>1268</v>
+      </c>
+      <c r="C1640" s="14">
+        <v>45166.0</v>
       </c>
       <c r="D1640" s="5"/>
       <c r="E1640" s="5"/>
@@ -53144,10 +52984,10 @@
         <v>1640</v>
       </c>
       <c r="B1641" s="5" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C1641" s="6" t="s">
-        <v>1295</v>
+        <v>1269</v>
+      </c>
+      <c r="C1641" s="14">
+        <v>45166.0</v>
       </c>
       <c r="D1641" s="5"/>
       <c r="E1641" s="5"/>
@@ -53173,10 +53013,10 @@
         <v>1641</v>
       </c>
       <c r="B1642" s="5" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C1642" s="6" t="s">
-        <v>1295</v>
+        <v>1270</v>
+      </c>
+      <c r="C1642" s="14">
+        <v>45166.0</v>
       </c>
       <c r="D1642" s="5"/>
       <c r="E1642" s="5"/>
@@ -53202,10 +53042,10 @@
         <v>1642</v>
       </c>
       <c r="B1643" s="5" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C1643" s="6" t="s">
-        <v>1295</v>
+        <v>1271</v>
+      </c>
+      <c r="C1643" s="14">
+        <v>45166.0</v>
       </c>
       <c r="D1643" s="5"/>
       <c r="E1643" s="5"/>
@@ -53231,10 +53071,10 @@
         <v>1643</v>
       </c>
       <c r="B1644" s="5" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C1644" s="6" t="s">
-        <v>1301</v>
+        <v>1272</v>
+      </c>
+      <c r="C1644" s="14">
+        <v>45167.0</v>
       </c>
       <c r="D1644" s="5"/>
       <c r="E1644" s="5"/>
@@ -53260,10 +53100,10 @@
         <v>1644</v>
       </c>
       <c r="B1645" s="5" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C1645" s="6" t="s">
-        <v>1301</v>
+        <v>1273</v>
+      </c>
+      <c r="C1645" s="14">
+        <v>45167.0</v>
       </c>
       <c r="D1645" s="5"/>
       <c r="E1645" s="5"/>
@@ -53289,10 +53129,10 @@
         <v>1645</v>
       </c>
       <c r="B1646" s="5" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C1646" s="6" t="s">
-        <v>1301</v>
+        <v>1274</v>
+      </c>
+      <c r="C1646" s="14">
+        <v>45167.0</v>
       </c>
       <c r="D1646" s="5"/>
       <c r="E1646" s="5"/>
@@ -53318,10 +53158,10 @@
         <v>1646</v>
       </c>
       <c r="B1647" s="5" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C1647" s="6" t="s">
-        <v>1304</v>
+        <v>1247</v>
+      </c>
+      <c r="C1647" s="14">
+        <v>45168.0</v>
       </c>
       <c r="D1647" s="5"/>
       <c r="E1647" s="5"/>
@@ -53347,10 +53187,10 @@
         <v>1647</v>
       </c>
       <c r="B1648" s="5" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C1648" s="6" t="s">
-        <v>1304</v>
+        <v>1275</v>
+      </c>
+      <c r="C1648" s="14">
+        <v>45168.0</v>
       </c>
       <c r="D1648" s="5"/>
       <c r="E1648" s="5"/>
@@ -53376,10 +53216,10 @@
         <v>1648</v>
       </c>
       <c r="B1649" s="5" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C1649" s="6" t="s">
-        <v>1304</v>
+        <v>1276</v>
+      </c>
+      <c r="C1649" s="14">
+        <v>45168.0</v>
       </c>
       <c r="D1649" s="5"/>
       <c r="E1649" s="5"/>
@@ -53405,10 +53245,10 @@
         <v>1649</v>
       </c>
       <c r="B1650" s="5" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C1650" s="6" t="s">
-        <v>1308</v>
+        <v>1277</v>
+      </c>
+      <c r="C1650" s="14">
+        <v>45169.0</v>
       </c>
       <c r="D1650" s="5"/>
       <c r="E1650" s="5"/>
@@ -53434,10 +53274,10 @@
         <v>1650</v>
       </c>
       <c r="B1651" s="5" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C1651" s="6" t="s">
-        <v>1308</v>
+        <v>1278</v>
+      </c>
+      <c r="C1651" s="14">
+        <v>45169.0</v>
       </c>
       <c r="D1651" s="5"/>
       <c r="E1651" s="5"/>
@@ -53463,10 +53303,10 @@
         <v>1651</v>
       </c>
       <c r="B1652" s="5" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C1652" s="6" t="s">
-        <v>1308</v>
+        <v>1279</v>
+      </c>
+      <c r="C1652" s="14">
+        <v>45169.0</v>
       </c>
       <c r="D1652" s="5"/>
       <c r="E1652" s="5"/>
@@ -53492,10 +53332,10 @@
         <v>1652</v>
       </c>
       <c r="B1653" s="5" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C1653" s="6" t="s">
-        <v>1308</v>
+        <v>1280</v>
+      </c>
+      <c r="C1653" s="14">
+        <v>45169.0</v>
       </c>
       <c r="D1653" s="5"/>
       <c r="E1653" s="5"/>
@@ -53521,10 +53361,10 @@
         <v>1653</v>
       </c>
       <c r="B1654" s="5" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C1654" s="6" t="s">
-        <v>1313</v>
+        <v>1281</v>
+      </c>
+      <c r="C1654" s="14">
+        <v>45170.0</v>
       </c>
       <c r="D1654" s="5"/>
       <c r="E1654" s="5"/>
@@ -53550,10 +53390,10 @@
         <v>1654</v>
       </c>
       <c r="B1655" s="5" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C1655" s="6" t="s">
-        <v>1313</v>
+        <v>1282</v>
+      </c>
+      <c r="C1655" s="14">
+        <v>45170.0</v>
       </c>
       <c r="D1655" s="5"/>
       <c r="E1655" s="5"/>
@@ -53581,8 +53421,8 @@
       <c r="B1656" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="C1656" s="6" t="s">
-        <v>1313</v>
+      <c r="C1656" s="14">
+        <v>45170.0</v>
       </c>
       <c r="D1656" s="5"/>
       <c r="E1656" s="5"/>
@@ -53608,10 +53448,10 @@
         <v>1656</v>
       </c>
       <c r="B1657" s="5" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C1657" s="6" t="s">
-        <v>1313</v>
+        <v>1283</v>
+      </c>
+      <c r="C1657" s="14">
+        <v>45170.0</v>
       </c>
       <c r="D1657" s="5"/>
       <c r="E1657" s="5"/>
@@ -53637,10 +53477,10 @@
         <v>1657</v>
       </c>
       <c r="B1658" s="5" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C1658" s="6" t="s">
-        <v>1313</v>
+        <v>1284</v>
+      </c>
+      <c r="C1658" s="14">
+        <v>45170.0</v>
       </c>
       <c r="D1658" s="5"/>
       <c r="E1658" s="5"/>
@@ -53666,10 +53506,10 @@
         <v>1658</v>
       </c>
       <c r="B1659" s="5" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C1659" s="6" t="s">
-        <v>1313</v>
+        <v>1285</v>
+      </c>
+      <c r="C1659" s="14">
+        <v>45170.0</v>
       </c>
       <c r="D1659" s="5"/>
       <c r="E1659" s="5"/>
@@ -53697,8 +53537,8 @@
       <c r="B1660" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C1660" s="6" t="s">
-        <v>1313</v>
+      <c r="C1660" s="14">
+        <v>45170.0</v>
       </c>
       <c r="D1660" s="5"/>
       <c r="E1660" s="5"/>
@@ -53724,10 +53564,10 @@
         <v>1660</v>
       </c>
       <c r="B1661" s="5" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C1661" s="6" t="s">
-        <v>1313</v>
+        <v>1286</v>
+      </c>
+      <c r="C1661" s="14">
+        <v>45170.0</v>
       </c>
       <c r="D1661" s="5"/>
       <c r="E1661" s="5"/>
@@ -53753,10 +53593,10 @@
         <v>1661</v>
       </c>
       <c r="B1662" s="5" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C1662" s="6" t="s">
-        <v>1320</v>
+        <v>1287</v>
+      </c>
+      <c r="C1662" s="14">
+        <v>45171.0</v>
       </c>
       <c r="D1662" s="5"/>
       <c r="E1662" s="5"/>
@@ -53782,10 +53622,10 @@
         <v>1662</v>
       </c>
       <c r="B1663" s="5" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C1663" s="6" t="s">
-        <v>1320</v>
+        <v>1288</v>
+      </c>
+      <c r="C1663" s="14">
+        <v>45171.0</v>
       </c>
       <c r="D1663" s="5"/>
       <c r="E1663" s="5"/>
@@ -53811,10 +53651,10 @@
         <v>1663</v>
       </c>
       <c r="B1664" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C1664" s="6" t="s">
-        <v>1320</v>
+        <v>1289</v>
+      </c>
+      <c r="C1664" s="14">
+        <v>45171.0</v>
       </c>
       <c r="D1664" s="5"/>
       <c r="E1664" s="5"/>
@@ -53840,10 +53680,10 @@
         <v>1664</v>
       </c>
       <c r="B1665" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C1665" s="6" t="s">
-        <v>1320</v>
+        <v>1290</v>
+      </c>
+      <c r="C1665" s="14">
+        <v>45171.0</v>
       </c>
       <c r="D1665" s="5"/>
       <c r="E1665" s="5"/>
@@ -53869,10 +53709,10 @@
         <v>1665</v>
       </c>
       <c r="B1666" s="5" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C1666" s="6" t="s">
-        <v>1320</v>
+        <v>1291</v>
+      </c>
+      <c r="C1666" s="14">
+        <v>45171.0</v>
       </c>
       <c r="D1666" s="5"/>
       <c r="E1666" s="5"/>
@@ -53898,10 +53738,10 @@
         <v>1666</v>
       </c>
       <c r="B1667" s="5" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C1667" s="6" t="s">
-        <v>1326</v>
+        <v>1292</v>
+      </c>
+      <c r="C1667" s="14">
+        <v>45172.0</v>
       </c>
       <c r="D1667" s="5"/>
       <c r="E1667" s="5"/>
@@ -53927,10 +53767,10 @@
         <v>1667</v>
       </c>
       <c r="B1668" s="5" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C1668" s="6" t="s">
-        <v>1328</v>
+        <v>1293</v>
+      </c>
+      <c r="C1668" s="14">
+        <v>45173.0</v>
       </c>
       <c r="D1668" s="5"/>
       <c r="E1668" s="5"/>
@@ -53956,10 +53796,10 @@
         <v>1668</v>
       </c>
       <c r="B1669" s="5" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C1669" s="6" t="s">
-        <v>1328</v>
+        <v>1294</v>
+      </c>
+      <c r="C1669" s="14">
+        <v>45173.0</v>
       </c>
       <c r="D1669" s="5"/>
       <c r="E1669" s="5"/>
@@ -53985,10 +53825,10 @@
         <v>1669</v>
       </c>
       <c r="B1670" s="5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C1670" s="6" t="s">
-        <v>1328</v>
+        <v>1295</v>
+      </c>
+      <c r="C1670" s="14">
+        <v>45173.0</v>
       </c>
       <c r="D1670" s="5"/>
       <c r="E1670" s="5"/>
@@ -54016,8 +53856,8 @@
       <c r="B1671" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1671" s="6" t="s">
-        <v>1328</v>
+      <c r="C1671" s="14">
+        <v>45173.0</v>
       </c>
       <c r="D1671" s="5"/>
       <c r="E1671" s="5"/>
@@ -54043,10 +53883,10 @@
         <v>1671</v>
       </c>
       <c r="B1672" s="5" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C1672" s="6" t="s">
-        <v>1328</v>
+        <v>1296</v>
+      </c>
+      <c r="C1672" s="14">
+        <v>45173.0</v>
       </c>
       <c r="D1672" s="5"/>
       <c r="E1672" s="5"/>
@@ -54072,10 +53912,10 @@
         <v>1672</v>
       </c>
       <c r="B1673" s="5" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C1673" s="6" t="s">
-        <v>1328</v>
+        <v>1297</v>
+      </c>
+      <c r="C1673" s="14">
+        <v>45173.0</v>
       </c>
       <c r="D1673" s="5"/>
       <c r="E1673" s="5"/>
@@ -54101,10 +53941,10 @@
         <v>1673</v>
       </c>
       <c r="B1674" s="5" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C1674" s="6" t="s">
-        <v>1328</v>
+        <v>1187</v>
+      </c>
+      <c r="C1674" s="14">
+        <v>45173.0</v>
       </c>
       <c r="D1674" s="5"/>
       <c r="E1674" s="5"/>
@@ -54130,10 +53970,10 @@
         <v>1674</v>
       </c>
       <c r="B1675" s="5" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C1675" s="6" t="s">
-        <v>1328</v>
+        <v>1298</v>
+      </c>
+      <c r="C1675" s="14">
+        <v>45173.0</v>
       </c>
       <c r="D1675" s="5"/>
       <c r="E1675" s="5"/>
@@ -54161,8 +54001,8 @@
       <c r="B1676" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="C1676" s="6" t="s">
-        <v>1328</v>
+      <c r="C1676" s="14">
+        <v>45173.0</v>
       </c>
       <c r="D1676" s="5"/>
       <c r="E1676" s="5"/>
@@ -54188,10 +54028,10 @@
         <v>1676</v>
       </c>
       <c r="B1677" s="5" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C1677" s="6" t="s">
-        <v>1328</v>
+        <v>1299</v>
+      </c>
+      <c r="C1677" s="14">
+        <v>45173.0</v>
       </c>
       <c r="D1677" s="5"/>
       <c r="E1677" s="5"/>
@@ -54217,10 +54057,10 @@
         <v>1677</v>
       </c>
       <c r="B1678" s="5" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C1678" s="6" t="s">
-        <v>1328</v>
+        <v>1300</v>
+      </c>
+      <c r="C1678" s="14">
+        <v>45173.0</v>
       </c>
       <c r="D1678" s="5"/>
       <c r="E1678" s="5"/>
@@ -54248,8 +54088,8 @@
       <c r="B1679" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C1679" s="6" t="s">
-        <v>1336</v>
+      <c r="C1679" s="14">
+        <v>45174.0</v>
       </c>
       <c r="D1679" s="5"/>
       <c r="E1679" s="5"/>
@@ -54275,10 +54115,10 @@
         <v>1679</v>
       </c>
       <c r="B1680" s="5" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C1680" s="6" t="s">
-        <v>1336</v>
+        <v>1301</v>
+      </c>
+      <c r="C1680" s="14">
+        <v>45174.0</v>
       </c>
       <c r="D1680" s="5"/>
       <c r="E1680" s="5"/>
@@ -54306,8 +54146,8 @@
       <c r="B1681" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="C1681" s="6" t="s">
-        <v>1336</v>
+      <c r="C1681" s="14">
+        <v>45174.0</v>
       </c>
       <c r="D1681" s="5"/>
       <c r="E1681" s="5"/>
@@ -54333,10 +54173,10 @@
         <v>1681</v>
       </c>
       <c r="B1682" s="5" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C1682" s="6" t="s">
-        <v>1336</v>
+        <v>1302</v>
+      </c>
+      <c r="C1682" s="14">
+        <v>45174.0</v>
       </c>
       <c r="D1682" s="5"/>
       <c r="E1682" s="5"/>
@@ -54362,10 +54202,10 @@
         <v>1682</v>
       </c>
       <c r="B1683" s="5" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C1683" s="6" t="s">
-        <v>1336</v>
+        <v>1303</v>
+      </c>
+      <c r="C1683" s="14">
+        <v>45174.0</v>
       </c>
       <c r="D1683" s="5"/>
       <c r="E1683" s="5"/>
@@ -54391,10 +54231,10 @@
         <v>1683</v>
       </c>
       <c r="B1684" s="5" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C1684" s="6" t="s">
-        <v>1341</v>
+        <v>1304</v>
+      </c>
+      <c r="C1684" s="14">
+        <v>45175.0</v>
       </c>
       <c r="D1684" s="5"/>
       <c r="E1684" s="5"/>
@@ -54420,10 +54260,10 @@
         <v>1684</v>
       </c>
       <c r="B1685" s="5" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C1685" s="6" t="s">
-        <v>1341</v>
+        <v>1305</v>
+      </c>
+      <c r="C1685" s="14">
+        <v>45175.0</v>
       </c>
       <c r="D1685" s="5"/>
       <c r="E1685" s="5"/>
@@ -54449,10 +54289,10 @@
         <v>1685</v>
       </c>
       <c r="B1686" s="5" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C1686" s="6" t="s">
-        <v>1341</v>
+        <v>1306</v>
+      </c>
+      <c r="C1686" s="14">
+        <v>45175.0</v>
       </c>
       <c r="D1686" s="5"/>
       <c r="E1686" s="5"/>
@@ -54478,10 +54318,10 @@
         <v>1686</v>
       </c>
       <c r="B1687" s="5" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C1687" s="6" t="s">
-        <v>1341</v>
+        <v>1307</v>
+      </c>
+      <c r="C1687" s="14">
+        <v>45175.0</v>
       </c>
       <c r="D1687" s="5"/>
       <c r="E1687" s="5"/>
@@ -54507,10 +54347,10 @@
         <v>1687</v>
       </c>
       <c r="B1688" s="5" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C1688" s="6" t="s">
-        <v>1346</v>
+        <v>1308</v>
+      </c>
+      <c r="C1688" s="14">
+        <v>45176.0</v>
       </c>
       <c r="D1688" s="5"/>
       <c r="E1688" s="5"/>
@@ -54536,10 +54376,10 @@
         <v>1688</v>
       </c>
       <c r="B1689" s="5" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C1689" s="6" t="s">
-        <v>1346</v>
+        <v>1309</v>
+      </c>
+      <c r="C1689" s="14">
+        <v>45176.0</v>
       </c>
       <c r="D1689" s="5"/>
       <c r="E1689" s="5"/>
@@ -54565,10 +54405,10 @@
         <v>1689</v>
       </c>
       <c r="B1690" s="5" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C1690" s="6" t="s">
-        <v>1346</v>
+        <v>1310</v>
+      </c>
+      <c r="C1690" s="14">
+        <v>45176.0</v>
       </c>
       <c r="D1690" s="5"/>
       <c r="E1690" s="5"/>
@@ -54594,10 +54434,10 @@
         <v>1690</v>
       </c>
       <c r="B1691" s="5" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C1691" s="6" t="s">
-        <v>1350</v>
+        <v>1311</v>
+      </c>
+      <c r="C1691" s="14">
+        <v>45177.0</v>
       </c>
       <c r="D1691" s="5"/>
       <c r="E1691" s="5"/>
@@ -54623,10 +54463,10 @@
         <v>1691</v>
       </c>
       <c r="B1692" s="5" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C1692" s="6" t="s">
-        <v>1350</v>
+        <v>1311</v>
+      </c>
+      <c r="C1692" s="14">
+        <v>45177.0</v>
       </c>
       <c r="D1692" s="5"/>
       <c r="E1692" s="5"/>
@@ -54652,10 +54492,10 @@
         <v>1692</v>
       </c>
       <c r="B1693" s="5" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C1693" s="6" t="s">
-        <v>1352</v>
+        <v>1312</v>
+      </c>
+      <c r="C1693" s="14">
+        <v>45177.0</v>
       </c>
       <c r="D1693" s="5"/>
       <c r="E1693" s="5"/>
@@ -54681,10 +54521,10 @@
         <v>1693</v>
       </c>
       <c r="B1694" s="5" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C1694" s="6" t="s">
-        <v>1352</v>
+        <v>1313</v>
+      </c>
+      <c r="C1694" s="14">
+        <v>45177.0</v>
       </c>
       <c r="D1694" s="5"/>
       <c r="E1694" s="5"/>
@@ -54710,10 +54550,10 @@
         <v>1694</v>
       </c>
       <c r="B1695" s="5" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C1695" s="6" t="s">
-        <v>1352</v>
+        <v>1314</v>
+      </c>
+      <c r="C1695" s="14">
+        <v>45177.0</v>
       </c>
       <c r="D1695" s="5"/>
       <c r="E1695" s="5"/>
@@ -54739,10 +54579,10 @@
         <v>1695</v>
       </c>
       <c r="B1696" s="5" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C1696" s="6" t="s">
-        <v>1352</v>
+        <v>1315</v>
+      </c>
+      <c r="C1696" s="14">
+        <v>45177.0</v>
       </c>
       <c r="D1696" s="5"/>
       <c r="E1696" s="5"/>
@@ -54768,10 +54608,10 @@
         <v>1696</v>
       </c>
       <c r="B1697" s="5" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C1697" s="6" t="s">
-        <v>1352</v>
+        <v>1316</v>
+      </c>
+      <c r="C1697" s="14">
+        <v>45177.0</v>
       </c>
       <c r="D1697" s="5"/>
       <c r="E1697" s="5"/>
@@ -54797,10 +54637,10 @@
         <v>1697</v>
       </c>
       <c r="B1698" s="5" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C1698" s="6" t="s">
-        <v>1352</v>
+        <v>1317</v>
+      </c>
+      <c r="C1698" s="14">
+        <v>45177.0</v>
       </c>
       <c r="D1698" s="5"/>
       <c r="E1698" s="5"/>
@@ -54828,8 +54668,8 @@
       <c r="B1699" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="C1699" s="6" t="s">
-        <v>1352</v>
+      <c r="C1699" s="14">
+        <v>45177.0</v>
       </c>
       <c r="D1699" s="5"/>
       <c r="E1699" s="5"/>
@@ -54855,10 +54695,10 @@
         <v>1699</v>
       </c>
       <c r="B1700" s="5" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C1700" s="6" t="s">
-        <v>1359</v>
+        <v>1318</v>
+      </c>
+      <c r="C1700" s="14">
+        <v>45179.0</v>
       </c>
       <c r="D1700" s="5"/>
       <c r="E1700" s="5"/>
@@ -54884,10 +54724,10 @@
         <v>1700</v>
       </c>
       <c r="B1701" s="5" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C1701" s="6" t="s">
-        <v>1359</v>
+        <v>1319</v>
+      </c>
+      <c r="C1701" s="14">
+        <v>45179.0</v>
       </c>
       <c r="D1701" s="5"/>
       <c r="E1701" s="5"/>
@@ -54913,10 +54753,10 @@
         <v>1701</v>
       </c>
       <c r="B1702" s="5" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C1702" s="6" t="s">
-        <v>1359</v>
+        <v>1320</v>
+      </c>
+      <c r="C1702" s="14">
+        <v>45179.0</v>
       </c>
       <c r="D1702" s="5"/>
       <c r="E1702" s="5"/>
@@ -54944,8 +54784,8 @@
       <c r="B1703" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="C1703" s="6" t="s">
-        <v>1359</v>
+      <c r="C1703" s="14">
+        <v>45179.0</v>
       </c>
       <c r="D1703" s="5"/>
       <c r="E1703" s="5"/>
@@ -54971,10 +54811,10 @@
         <v>1703</v>
       </c>
       <c r="B1704" s="5" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C1704" s="6" t="s">
-        <v>1359</v>
+        <v>1321</v>
+      </c>
+      <c r="C1704" s="14">
+        <v>45179.0</v>
       </c>
       <c r="D1704" s="5"/>
       <c r="E1704" s="5"/>
@@ -55000,10 +54840,10 @@
         <v>1704</v>
       </c>
       <c r="B1705" s="5" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C1705" s="6" t="s">
-        <v>1364</v>
+        <v>1322</v>
+      </c>
+      <c r="C1705" s="14">
+        <v>45180.0</v>
       </c>
       <c r="D1705" s="5"/>
       <c r="E1705" s="5"/>
@@ -55029,10 +54869,10 @@
         <v>1705</v>
       </c>
       <c r="B1706" s="5" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C1706" s="6" t="s">
-        <v>1364</v>
+        <v>1323</v>
+      </c>
+      <c r="C1706" s="14">
+        <v>45180.0</v>
       </c>
       <c r="D1706" s="5"/>
       <c r="E1706" s="5"/>
@@ -55058,10 +54898,10 @@
         <v>1706</v>
       </c>
       <c r="B1707" s="5" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C1707" s="6" t="s">
-        <v>1364</v>
+        <v>1324</v>
+      </c>
+      <c r="C1707" s="14">
+        <v>45180.0</v>
       </c>
       <c r="D1707" s="5"/>
       <c r="E1707" s="5"/>
@@ -55087,10 +54927,10 @@
         <v>1707</v>
       </c>
       <c r="B1708" s="5" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C1708" s="6" t="s">
-        <v>1364</v>
+        <v>1325</v>
+      </c>
+      <c r="C1708" s="14">
+        <v>45180.0</v>
       </c>
       <c r="D1708" s="5"/>
       <c r="E1708" s="5"/>
@@ -55116,10 +54956,10 @@
         <v>1708</v>
       </c>
       <c r="B1709" s="5" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C1709" s="6" t="s">
-        <v>1364</v>
+        <v>1325</v>
+      </c>
+      <c r="C1709" s="14">
+        <v>45180.0</v>
       </c>
       <c r="D1709" s="5"/>
       <c r="E1709" s="5"/>
@@ -55145,10 +54985,10 @@
         <v>1709</v>
       </c>
       <c r="B1710" s="5" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C1710" s="6" t="s">
-        <v>1364</v>
+        <v>1326</v>
+      </c>
+      <c r="C1710" s="14">
+        <v>45180.0</v>
       </c>
       <c r="D1710" s="5"/>
       <c r="E1710" s="5"/>
@@ -55176,8 +55016,8 @@
       <c r="B1711" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1711" s="6" t="s">
-        <v>1364</v>
+      <c r="C1711" s="14">
+        <v>45180.0</v>
       </c>
       <c r="D1711" s="5"/>
       <c r="E1711" s="5"/>
@@ -55203,10 +55043,10 @@
         <v>1711</v>
       </c>
       <c r="B1712" s="5" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C1712" s="6" t="s">
-        <v>1370</v>
+        <v>1327</v>
+      </c>
+      <c r="C1712" s="14">
+        <v>45181.0</v>
       </c>
       <c r="D1712" s="5"/>
       <c r="E1712" s="5"/>
@@ -55232,10 +55072,10 @@
         <v>1712</v>
       </c>
       <c r="B1713" s="5" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C1713" s="6" t="s">
-        <v>1370</v>
+        <v>1328</v>
+      </c>
+      <c r="C1713" s="14">
+        <v>45181.0</v>
       </c>
       <c r="D1713" s="5"/>
       <c r="E1713" s="5"/>
@@ -55261,10 +55101,10 @@
         <v>1713</v>
       </c>
       <c r="B1714" s="5" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C1714" s="6" t="s">
-        <v>1370</v>
+        <v>1329</v>
+      </c>
+      <c r="C1714" s="14">
+        <v>45181.0</v>
       </c>
       <c r="D1714" s="5"/>
       <c r="E1714" s="5"/>
@@ -55290,10 +55130,10 @@
         <v>1714</v>
       </c>
       <c r="B1715" s="5" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C1715" s="6" t="s">
-        <v>1370</v>
+        <v>1330</v>
+      </c>
+      <c r="C1715" s="14">
+        <v>45181.0</v>
       </c>
       <c r="D1715" s="5"/>
       <c r="E1715" s="5"/>
@@ -55321,8 +55161,8 @@
       <c r="B1716" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="C1716" s="6" t="s">
-        <v>1370</v>
+      <c r="C1716" s="14">
+        <v>45181.0</v>
       </c>
       <c r="D1716" s="5"/>
       <c r="E1716" s="5"/>
@@ -55350,8 +55190,8 @@
       <c r="B1717" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="C1717" s="6" t="s">
-        <v>1370</v>
+      <c r="C1717" s="14">
+        <v>45181.0</v>
       </c>
       <c r="D1717" s="5"/>
       <c r="E1717" s="5"/>
@@ -55377,10 +55217,10 @@
         <v>1717</v>
       </c>
       <c r="B1718" s="5" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C1718" s="6" t="s">
-        <v>1370</v>
+        <v>1331</v>
+      </c>
+      <c r="C1718" s="14">
+        <v>45181.0</v>
       </c>
       <c r="D1718" s="5"/>
       <c r="E1718" s="5"/>
@@ -55406,10 +55246,10 @@
         <v>1718</v>
       </c>
       <c r="B1719" s="5" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C1719" s="6" t="s">
-        <v>1376</v>
+        <v>1332</v>
+      </c>
+      <c r="C1719" s="14">
+        <v>45182.0</v>
       </c>
       <c r="D1719" s="5"/>
       <c r="E1719" s="5"/>
@@ -55435,10 +55275,10 @@
         <v>1719</v>
       </c>
       <c r="B1720" s="5" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C1720" s="6" t="s">
-        <v>1376</v>
+        <v>1332</v>
+      </c>
+      <c r="C1720" s="14">
+        <v>45182.0</v>
       </c>
       <c r="D1720" s="5"/>
       <c r="E1720" s="5"/>
@@ -55464,10 +55304,10 @@
         <v>1720</v>
       </c>
       <c r="B1721" s="5" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C1721" s="6" t="s">
-        <v>1376</v>
+        <v>1333</v>
+      </c>
+      <c r="C1721" s="14">
+        <v>45182.0</v>
       </c>
       <c r="D1721" s="5"/>
       <c r="E1721" s="5"/>
@@ -55493,10 +55333,10 @@
         <v>1721</v>
       </c>
       <c r="B1722" s="5" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C1722" s="6" t="s">
-        <v>1376</v>
+        <v>1334</v>
+      </c>
+      <c r="C1722" s="14">
+        <v>45182.0</v>
       </c>
       <c r="D1722" s="5"/>
       <c r="E1722" s="5"/>
@@ -55522,10 +55362,10 @@
         <v>1722</v>
       </c>
       <c r="B1723" s="5" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C1723" s="6" t="s">
-        <v>1376</v>
+        <v>1335</v>
+      </c>
+      <c r="C1723" s="14">
+        <v>45182.0</v>
       </c>
       <c r="D1723" s="5"/>
       <c r="E1723" s="5"/>
@@ -55551,10 +55391,10 @@
         <v>1723</v>
       </c>
       <c r="B1724" s="5" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C1724" s="6" t="s">
-        <v>1376</v>
+        <v>1336</v>
+      </c>
+      <c r="C1724" s="14">
+        <v>45182.0</v>
       </c>
       <c r="D1724" s="5"/>
       <c r="E1724" s="5"/>
@@ -55580,10 +55420,10 @@
         <v>1724</v>
       </c>
       <c r="B1725" s="5" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C1725" s="6" t="s">
-        <v>1376</v>
+        <v>1337</v>
+      </c>
+      <c r="C1725" s="14">
+        <v>45182.0</v>
       </c>
       <c r="D1725" s="5"/>
       <c r="E1725" s="5"/>
@@ -55609,10 +55449,10 @@
         <v>1725</v>
       </c>
       <c r="B1726" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C1726" s="6" t="s">
-        <v>1376</v>
+        <v>1338</v>
+      </c>
+      <c r="C1726" s="14">
+        <v>45182.0</v>
       </c>
       <c r="D1726" s="5"/>
       <c r="E1726" s="5"/>
@@ -55638,10 +55478,10 @@
         <v>1726</v>
       </c>
       <c r="B1727" s="5" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C1727" s="6" t="s">
-        <v>1376</v>
+        <v>1339</v>
+      </c>
+      <c r="C1727" s="14">
+        <v>45182.0</v>
       </c>
       <c r="D1727" s="5"/>
       <c r="E1727" s="5"/>
@@ -55667,10 +55507,10 @@
         <v>1727</v>
       </c>
       <c r="B1728" s="5" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C1728" s="6" t="s">
-        <v>1385</v>
+        <v>1340</v>
+      </c>
+      <c r="C1728" s="14">
+        <v>45183.0</v>
       </c>
       <c r="D1728" s="5"/>
       <c r="E1728" s="5"/>
@@ -55696,10 +55536,10 @@
         <v>1728</v>
       </c>
       <c r="B1729" s="5" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C1729" s="6" t="s">
-        <v>1385</v>
+        <v>1341</v>
+      </c>
+      <c r="C1729" s="14">
+        <v>45183.0</v>
       </c>
       <c r="D1729" s="5"/>
       <c r="E1729" s="5"/>
@@ -55725,10 +55565,10 @@
         <v>1729</v>
       </c>
       <c r="B1730" s="5" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C1730" s="6" t="s">
-        <v>1385</v>
+        <v>1342</v>
+      </c>
+      <c r="C1730" s="14">
+        <v>45183.0</v>
       </c>
       <c r="D1730" s="5"/>
       <c r="E1730" s="5"/>
@@ -55754,10 +55594,10 @@
         <v>1730</v>
       </c>
       <c r="B1731" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C1731" s="6" t="s">
-        <v>1385</v>
+        <v>1343</v>
+      </c>
+      <c r="C1731" s="14">
+        <v>45183.0</v>
       </c>
       <c r="D1731" s="5"/>
       <c r="E1731" s="5"/>
@@ -55783,10 +55623,10 @@
         <v>1731</v>
       </c>
       <c r="B1732" s="5" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C1732" s="6" t="s">
-        <v>1385</v>
+        <v>1344</v>
+      </c>
+      <c r="C1732" s="14">
+        <v>45183.0</v>
       </c>
       <c r="D1732" s="5"/>
       <c r="E1732" s="5"/>
@@ -55812,10 +55652,10 @@
         <v>1732</v>
       </c>
       <c r="B1733" s="5" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C1733" s="6" t="s">
-        <v>1385</v>
+        <v>1345</v>
+      </c>
+      <c r="C1733" s="14">
+        <v>45183.0</v>
       </c>
       <c r="D1733" s="5"/>
       <c r="E1733" s="5"/>
@@ -55841,10 +55681,10 @@
         <v>1733</v>
       </c>
       <c r="B1734" s="5" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C1734" s="6" t="s">
-        <v>1385</v>
+        <v>1346</v>
+      </c>
+      <c r="C1734" s="14">
+        <v>45183.0</v>
       </c>
       <c r="D1734" s="5"/>
       <c r="E1734" s="5"/>
@@ -55870,10 +55710,10 @@
         <v>1734</v>
       </c>
       <c r="B1735" s="5" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C1735" s="6" t="s">
-        <v>1393</v>
+        <v>1347</v>
+      </c>
+      <c r="C1735" s="14">
+        <v>45184.0</v>
       </c>
       <c r="D1735" s="5"/>
       <c r="E1735" s="5"/>
@@ -55899,10 +55739,10 @@
         <v>1735</v>
       </c>
       <c r="B1736" s="5" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C1736" s="6" t="s">
-        <v>1393</v>
+        <v>1348</v>
+      </c>
+      <c r="C1736" s="14">
+        <v>45184.0</v>
       </c>
       <c r="D1736" s="5"/>
       <c r="E1736" s="5"/>
@@ -55928,10 +55768,10 @@
         <v>1736</v>
       </c>
       <c r="B1737" s="5" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C1737" s="6" t="s">
-        <v>1393</v>
+        <v>1349</v>
+      </c>
+      <c r="C1737" s="14">
+        <v>45184.0</v>
       </c>
       <c r="D1737" s="5"/>
       <c r="E1737" s="5"/>
@@ -55957,10 +55797,10 @@
         <v>1737</v>
       </c>
       <c r="B1738" s="5" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C1738" s="6" t="s">
-        <v>1397</v>
+        <v>1350</v>
+      </c>
+      <c r="C1738" s="14">
+        <v>45185.0</v>
       </c>
       <c r="D1738" s="5"/>
       <c r="E1738" s="5"/>
@@ -55988,8 +55828,8 @@
       <c r="B1739" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="C1739" s="6" t="s">
-        <v>1397</v>
+      <c r="C1739" s="14">
+        <v>45185.0</v>
       </c>
       <c r="D1739" s="5"/>
       <c r="E1739" s="5"/>
@@ -56015,10 +55855,10 @@
         <v>1739</v>
       </c>
       <c r="B1740" s="5" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C1740" s="6" t="s">
-        <v>1397</v>
+        <v>1351</v>
+      </c>
+      <c r="C1740" s="14">
+        <v>45185.0</v>
       </c>
       <c r="D1740" s="5"/>
       <c r="E1740" s="5"/>
@@ -56044,10 +55884,10 @@
         <v>1740</v>
       </c>
       <c r="B1741" s="5" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C1741" s="6" t="s">
-        <v>1397</v>
+        <v>1352</v>
+      </c>
+      <c r="C1741" s="14">
+        <v>45185.0</v>
       </c>
       <c r="D1741" s="5"/>
       <c r="E1741" s="5"/>
@@ -56073,10 +55913,10 @@
         <v>1741</v>
       </c>
       <c r="B1742" s="5" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C1742" s="6" t="s">
-        <v>1401</v>
+        <v>1353</v>
+      </c>
+      <c r="C1742" s="14">
+        <v>45186.0</v>
       </c>
       <c r="D1742" s="5"/>
       <c r="E1742" s="5"/>
@@ -56102,10 +55942,10 @@
         <v>1742</v>
       </c>
       <c r="B1743" s="5" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C1743" s="6" t="s">
-        <v>1401</v>
+        <v>1354</v>
+      </c>
+      <c r="C1743" s="14">
+        <v>45186.0</v>
       </c>
       <c r="D1743" s="5"/>
       <c r="E1743" s="5"/>
@@ -56131,10 +55971,10 @@
         <v>1743</v>
       </c>
       <c r="B1744" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C1744" s="6" t="s">
-        <v>1401</v>
+        <v>1355</v>
+      </c>
+      <c r="C1744" s="14">
+        <v>45186.0</v>
       </c>
       <c r="D1744" s="5"/>
       <c r="E1744" s="5"/>
@@ -56160,10 +56000,10 @@
         <v>1744</v>
       </c>
       <c r="B1745" s="5" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C1745" s="6" t="s">
-        <v>1401</v>
+        <v>1356</v>
+      </c>
+      <c r="C1745" s="14">
+        <v>45186.0</v>
       </c>
       <c r="D1745" s="5"/>
       <c r="E1745" s="5"/>
@@ -56189,10 +56029,10 @@
         <v>1745</v>
       </c>
       <c r="B1746" s="5" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C1746" s="6" t="s">
-        <v>1405</v>
+        <v>1345</v>
+      </c>
+      <c r="C1746" s="14">
+        <v>45187.0</v>
       </c>
       <c r="D1746" s="5"/>
       <c r="E1746" s="5"/>
@@ -56218,10 +56058,10 @@
         <v>1746</v>
       </c>
       <c r="B1747" s="5" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C1747" s="6" t="s">
-        <v>1405</v>
+        <v>1357</v>
+      </c>
+      <c r="C1747" s="14">
+        <v>45187.0</v>
       </c>
       <c r="D1747" s="5"/>
       <c r="E1747" s="5"/>
@@ -56247,10 +56087,10 @@
         <v>1747</v>
       </c>
       <c r="B1748" s="5" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C1748" s="6" t="s">
-        <v>1405</v>
+        <v>1358</v>
+      </c>
+      <c r="C1748" s="14">
+        <v>45187.0</v>
       </c>
       <c r="D1748" s="5"/>
       <c r="E1748" s="5"/>
@@ -56276,10 +56116,10 @@
         <v>1748</v>
       </c>
       <c r="B1749" s="5" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C1749" s="6" t="s">
-        <v>1405</v>
+        <v>1359</v>
+      </c>
+      <c r="C1749" s="14">
+        <v>45187.0</v>
       </c>
       <c r="D1749" s="5"/>
       <c r="E1749" s="5"/>
@@ -56305,10 +56145,10 @@
         <v>1749</v>
       </c>
       <c r="B1750" s="5" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C1750" s="6" t="s">
-        <v>1405</v>
+        <v>1360</v>
+      </c>
+      <c r="C1750" s="14">
+        <v>45187.0</v>
       </c>
       <c r="D1750" s="5"/>
       <c r="E1750" s="5"/>
@@ -56334,10 +56174,10 @@
         <v>1750</v>
       </c>
       <c r="B1751" s="5" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C1751" s="6" t="s">
-        <v>1405</v>
+        <v>1361</v>
+      </c>
+      <c r="C1751" s="14">
+        <v>45187.0</v>
       </c>
       <c r="D1751" s="5"/>
       <c r="E1751" s="5"/>
@@ -56363,10 +56203,10 @@
         <v>1751</v>
       </c>
       <c r="B1752" s="5" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C1752" s="6" t="s">
-        <v>1405</v>
+        <v>1362</v>
+      </c>
+      <c r="C1752" s="14">
+        <v>45187.0</v>
       </c>
       <c r="D1752" s="5"/>
       <c r="E1752" s="5"/>
@@ -56392,10 +56232,10 @@
         <v>1752</v>
       </c>
       <c r="B1753" s="5" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C1753" s="6" t="s">
-        <v>1413</v>
+        <v>1363</v>
+      </c>
+      <c r="C1753" s="14">
+        <v>45188.0</v>
       </c>
       <c r="D1753" s="5"/>
       <c r="E1753" s="5"/>
@@ -56421,10 +56261,10 @@
         <v>1753</v>
       </c>
       <c r="B1754" s="5" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C1754" s="6" t="s">
-        <v>1413</v>
+        <v>1364</v>
+      </c>
+      <c r="C1754" s="14">
+        <v>45188.0</v>
       </c>
       <c r="D1754" s="5"/>
       <c r="E1754" s="5"/>
@@ -56450,10 +56290,10 @@
         <v>1754</v>
       </c>
       <c r="B1755" s="5" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C1755" s="6" t="s">
-        <v>1413</v>
+        <v>1365</v>
+      </c>
+      <c r="C1755" s="14">
+        <v>45188.0</v>
       </c>
       <c r="D1755" s="5"/>
       <c r="E1755" s="5"/>
@@ -56479,10 +56319,10 @@
         <v>1755</v>
       </c>
       <c r="B1756" s="5" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C1756" s="6" t="s">
-        <v>1413</v>
+        <v>1365</v>
+      </c>
+      <c r="C1756" s="14">
+        <v>45188.0</v>
       </c>
       <c r="D1756" s="5"/>
       <c r="E1756" s="5"/>
@@ -56508,10 +56348,10 @@
         <v>1756</v>
       </c>
       <c r="B1757" s="5" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C1757" s="6" t="s">
-        <v>1413</v>
+        <v>1366</v>
+      </c>
+      <c r="C1757" s="14">
+        <v>45188.0</v>
       </c>
       <c r="D1757" s="5"/>
       <c r="E1757" s="5"/>
@@ -56537,10 +56377,10 @@
         <v>1757</v>
       </c>
       <c r="B1758" s="5" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C1758" s="6" t="s">
-        <v>1413</v>
+        <v>1367</v>
+      </c>
+      <c r="C1758" s="14">
+        <v>45188.0</v>
       </c>
       <c r="D1758" s="5"/>
       <c r="E1758" s="5"/>
@@ -56566,10 +56406,10 @@
         <v>1758</v>
       </c>
       <c r="B1759" s="5" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C1759" s="6" t="s">
-        <v>1413</v>
+        <v>1368</v>
+      </c>
+      <c r="C1759" s="14">
+        <v>45188.0</v>
       </c>
       <c r="D1759" s="5"/>
       <c r="E1759" s="5"/>
@@ -56595,10 +56435,10 @@
         <v>1759</v>
       </c>
       <c r="B1760" s="5" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C1760" s="6" t="s">
-        <v>1413</v>
+        <v>1360</v>
+      </c>
+      <c r="C1760" s="14">
+        <v>45188.0</v>
       </c>
       <c r="D1760" s="5"/>
       <c r="E1760" s="5"/>
@@ -56624,10 +56464,10 @@
         <v>1760</v>
       </c>
       <c r="B1761" s="5" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C1761" s="6" t="s">
-        <v>1413</v>
+        <v>1369</v>
+      </c>
+      <c r="C1761" s="14">
+        <v>45188.0</v>
       </c>
       <c r="D1761" s="5"/>
       <c r="E1761" s="5"/>
@@ -56653,10 +56493,10 @@
         <v>1761</v>
       </c>
       <c r="B1762" s="5" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C1762" s="6" t="s">
-        <v>1413</v>
+        <v>1370</v>
+      </c>
+      <c r="C1762" s="14">
+        <v>45188.0</v>
       </c>
       <c r="D1762" s="5"/>
       <c r="E1762" s="5"/>
@@ -56682,10 +56522,10 @@
         <v>1762</v>
       </c>
       <c r="B1763" s="5" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C1763" s="6" t="s">
-        <v>1413</v>
+        <v>1371</v>
+      </c>
+      <c r="C1763" s="14">
+        <v>45188.0</v>
       </c>
       <c r="D1763" s="5"/>
       <c r="E1763" s="5"/>
@@ -56711,10 +56551,10 @@
         <v>1763</v>
       </c>
       <c r="B1764" s="5" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C1764" s="6" t="s">
-        <v>1423</v>
+        <v>1372</v>
+      </c>
+      <c r="C1764" s="14">
+        <v>45189.0</v>
       </c>
       <c r="D1764" s="5"/>
       <c r="E1764" s="5"/>
@@ -56740,10 +56580,10 @@
         <v>1764</v>
       </c>
       <c r="B1765" s="5" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C1765" s="6" t="s">
-        <v>1423</v>
+        <v>1373</v>
+      </c>
+      <c r="C1765" s="14">
+        <v>45189.0</v>
       </c>
       <c r="D1765" s="5"/>
       <c r="E1765" s="5"/>
@@ -56769,10 +56609,10 @@
         <v>1765</v>
       </c>
       <c r="B1766" s="5" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C1766" s="6" t="s">
-        <v>1423</v>
+        <v>1374</v>
+      </c>
+      <c r="C1766" s="14">
+        <v>45189.0</v>
       </c>
       <c r="D1766" s="5"/>
       <c r="E1766" s="5"/>
@@ -56798,10 +56638,10 @@
         <v>1766</v>
       </c>
       <c r="B1767" s="9" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C1767" s="6" t="s">
-        <v>1423</v>
+        <v>1375</v>
+      </c>
+      <c r="C1767" s="14">
+        <v>45189.0</v>
       </c>
       <c r="D1767" s="5"/>
       <c r="E1767" s="5"/>
@@ -56827,10 +56667,10 @@
         <v>1767</v>
       </c>
       <c r="B1768" s="5" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C1768" s="6" t="s">
-        <v>1423</v>
+        <v>1376</v>
+      </c>
+      <c r="C1768" s="14">
+        <v>45189.0</v>
       </c>
       <c r="D1768" s="5"/>
       <c r="E1768" s="5"/>
@@ -56856,10 +56696,10 @@
         <v>1768</v>
       </c>
       <c r="B1769" s="5" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C1769" s="6" t="s">
-        <v>1423</v>
+        <v>1377</v>
+      </c>
+      <c r="C1769" s="14">
+        <v>45189.0</v>
       </c>
       <c r="D1769" s="5"/>
       <c r="E1769" s="5"/>
@@ -56885,10 +56725,10 @@
         <v>1769</v>
       </c>
       <c r="B1770" s="5" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C1770" s="6" t="s">
-        <v>1423</v>
+        <v>1377</v>
+      </c>
+      <c r="C1770" s="14">
+        <v>45189.0</v>
       </c>
       <c r="D1770" s="5"/>
       <c r="E1770" s="5"/>
@@ -56914,10 +56754,10 @@
         <v>1770</v>
       </c>
       <c r="B1771" s="5" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C1771" s="6" t="s">
-        <v>1423</v>
+        <v>1378</v>
+      </c>
+      <c r="C1771" s="14">
+        <v>45189.0</v>
       </c>
       <c r="D1771" s="5"/>
       <c r="E1771" s="5"/>
@@ -56943,10 +56783,10 @@
         <v>1771</v>
       </c>
       <c r="B1772" s="5" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C1772" s="6" t="s">
-        <v>1423</v>
+        <v>1379</v>
+      </c>
+      <c r="C1772" s="14">
+        <v>45189.0</v>
       </c>
       <c r="D1772" s="5"/>
       <c r="E1772" s="5"/>
@@ -56972,10 +56812,10 @@
         <v>1772</v>
       </c>
       <c r="B1773" s="5" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C1773" s="6" t="s">
-        <v>1432</v>
+        <v>1380</v>
+      </c>
+      <c r="C1773" s="14">
+        <v>45191.0</v>
       </c>
       <c r="D1773" s="5"/>
       <c r="E1773" s="5"/>
@@ -57001,10 +56841,10 @@
         <v>1773</v>
       </c>
       <c r="B1774" s="5" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C1774" s="6" t="s">
-        <v>1432</v>
+        <v>1381</v>
+      </c>
+      <c r="C1774" s="14">
+        <v>45191.0</v>
       </c>
       <c r="D1774" s="5"/>
       <c r="E1774" s="5"/>
@@ -57030,10 +56870,10 @@
         <v>1774</v>
       </c>
       <c r="B1775" s="5" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C1775" s="6" t="s">
-        <v>1432</v>
+        <v>1382</v>
+      </c>
+      <c r="C1775" s="14">
+        <v>45191.0</v>
       </c>
       <c r="D1775" s="5"/>
       <c r="E1775" s="5"/>
@@ -57059,10 +56899,10 @@
         <v>1775</v>
       </c>
       <c r="B1776" s="5" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C1776" s="6" t="s">
-        <v>1432</v>
+        <v>1383</v>
+      </c>
+      <c r="C1776" s="14">
+        <v>45191.0</v>
       </c>
       <c r="D1776" s="5"/>
       <c r="E1776" s="5"/>
@@ -57088,10 +56928,10 @@
         <v>1776</v>
       </c>
       <c r="B1777" s="5" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C1777" s="6" t="s">
-        <v>1432</v>
+        <v>1384</v>
+      </c>
+      <c r="C1777" s="14">
+        <v>45191.0</v>
       </c>
       <c r="D1777" s="5"/>
       <c r="E1777" s="5"/>
@@ -57117,10 +56957,10 @@
         <v>1777</v>
       </c>
       <c r="B1778" s="5" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C1778" s="6" t="s">
-        <v>1432</v>
+        <v>1384</v>
+      </c>
+      <c r="C1778" s="14">
+        <v>45191.0</v>
       </c>
       <c r="D1778" s="5"/>
       <c r="E1778" s="5"/>
@@ -57146,10 +56986,10 @@
         <v>1778</v>
       </c>
       <c r="B1779" s="5" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C1779" s="6" t="s">
-        <v>1432</v>
+        <v>1383</v>
+      </c>
+      <c r="C1779" s="14">
+        <v>45191.0</v>
       </c>
       <c r="D1779" s="5"/>
       <c r="E1779" s="5"/>
@@ -57175,10 +57015,10 @@
         <v>1779</v>
       </c>
       <c r="B1780" s="5" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C1780" s="6" t="s">
-        <v>1432</v>
+        <v>1385</v>
+      </c>
+      <c r="C1780" s="14">
+        <v>45191.0</v>
       </c>
       <c r="D1780" s="5"/>
       <c r="E1780" s="5"/>
@@ -57206,8 +57046,8 @@
       <c r="B1781" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C1781" s="6" t="s">
-        <v>1438</v>
+      <c r="C1781" s="14">
+        <v>45192.0</v>
       </c>
       <c r="D1781" s="5"/>
       <c r="E1781" s="5"/>
@@ -57233,10 +57073,10 @@
         <v>1781</v>
       </c>
       <c r="B1782" s="5" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C1782" s="6" t="s">
-        <v>1438</v>
+        <v>1386</v>
+      </c>
+      <c r="C1782" s="14">
+        <v>45192.0</v>
       </c>
       <c r="D1782" s="5"/>
       <c r="E1782" s="5"/>
@@ -57264,8 +57104,8 @@
       <c r="B1783" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="C1783" s="6" t="s">
-        <v>1438</v>
+      <c r="C1783" s="14">
+        <v>45192.0</v>
       </c>
       <c r="D1783" s="5"/>
       <c r="E1783" s="5"/>
@@ -57291,10 +57131,10 @@
         <v>1783</v>
       </c>
       <c r="B1784" s="5" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C1784" s="6" t="s">
-        <v>1438</v>
+        <v>1387</v>
+      </c>
+      <c r="C1784" s="14">
+        <v>45192.0</v>
       </c>
       <c r="D1784" s="5"/>
       <c r="E1784" s="5"/>
@@ -57320,10 +57160,10 @@
         <v>1784</v>
       </c>
       <c r="B1785" s="5" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C1785" s="6" t="s">
-        <v>1442</v>
+        <v>1388</v>
+      </c>
+      <c r="C1785" s="14">
+        <v>45193.0</v>
       </c>
       <c r="D1785" s="5"/>
       <c r="E1785" s="5"/>
@@ -57349,10 +57189,10 @@
         <v>1785</v>
       </c>
       <c r="B1786" s="5" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C1786" s="6" t="s">
-        <v>1442</v>
+        <v>1389</v>
+      </c>
+      <c r="C1786" s="14">
+        <v>45193.0</v>
       </c>
       <c r="D1786" s="5"/>
       <c r="E1786" s="5"/>
@@ -57380,8 +57220,8 @@
       <c r="B1787" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="C1787" s="6" t="s">
-        <v>1442</v>
+      <c r="C1787" s="14">
+        <v>45193.0</v>
       </c>
       <c r="D1787" s="5"/>
       <c r="E1787" s="5"/>
@@ -57407,10 +57247,10 @@
         <v>1787</v>
       </c>
       <c r="B1788" s="5" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C1788" s="6" t="s">
-        <v>1442</v>
+        <v>1390</v>
+      </c>
+      <c r="C1788" s="14">
+        <v>45193.0</v>
       </c>
       <c r="D1788" s="5"/>
       <c r="E1788" s="5"/>
@@ -57436,10 +57276,10 @@
         <v>1788</v>
       </c>
       <c r="B1789" s="5" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C1789" s="6" t="s">
-        <v>1442</v>
+        <v>1390</v>
+      </c>
+      <c r="C1789" s="14">
+        <v>45193.0</v>
       </c>
       <c r="D1789" s="5"/>
       <c r="E1789" s="5"/>
@@ -57465,10 +57305,10 @@
         <v>1789</v>
       </c>
       <c r="B1790" s="5" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C1790" s="6" t="s">
-        <v>1442</v>
+        <v>1391</v>
+      </c>
+      <c r="C1790" s="14">
+        <v>45193.0</v>
       </c>
       <c r="D1790" s="5"/>
       <c r="E1790" s="5"/>
@@ -57494,10 +57334,10 @@
         <v>1790</v>
       </c>
       <c r="B1791" s="5" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C1791" s="6" t="s">
-        <v>1447</v>
+        <v>1392</v>
+      </c>
+      <c r="C1791" s="14">
+        <v>45194.0</v>
       </c>
       <c r="D1791" s="5"/>
       <c r="E1791" s="5"/>
@@ -57523,10 +57363,10 @@
         <v>1791</v>
       </c>
       <c r="B1792" s="5" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C1792" s="6" t="s">
-        <v>1447</v>
+        <v>1393</v>
+      </c>
+      <c r="C1792" s="14">
+        <v>45194.0</v>
       </c>
       <c r="D1792" s="5"/>
       <c r="E1792" s="5"/>
@@ -57552,10 +57392,10 @@
         <v>1792</v>
       </c>
       <c r="B1793" s="5" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C1793" s="6" t="s">
-        <v>1447</v>
+        <v>1394</v>
+      </c>
+      <c r="C1793" s="14">
+        <v>45194.0</v>
       </c>
       <c r="D1793" s="5"/>
       <c r="E1793" s="5"/>
@@ -57581,10 +57421,10 @@
         <v>1793</v>
       </c>
       <c r="B1794" s="5" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C1794" s="6" t="s">
-        <v>1451</v>
+        <v>1395</v>
+      </c>
+      <c r="C1794" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1794" s="5"/>
       <c r="E1794" s="5"/>
@@ -57610,10 +57450,10 @@
         <v>1794</v>
       </c>
       <c r="B1795" s="5" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C1795" s="6" t="s">
-        <v>1451</v>
+        <v>1396</v>
+      </c>
+      <c r="C1795" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1795" s="5"/>
       <c r="E1795" s="5"/>
@@ -57641,8 +57481,8 @@
       <c r="B1796" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="C1796" s="6" t="s">
-        <v>1451</v>
+      <c r="C1796" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1796" s="5"/>
       <c r="E1796" s="5"/>
@@ -57668,10 +57508,10 @@
         <v>1796</v>
       </c>
       <c r="B1797" s="5" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C1797" s="6" t="s">
-        <v>1451</v>
+        <v>1397</v>
+      </c>
+      <c r="C1797" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1797" s="5"/>
       <c r="E1797" s="5"/>
@@ -57699,8 +57539,8 @@
       <c r="B1798" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="C1798" s="6" t="s">
-        <v>1451</v>
+      <c r="C1798" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1798" s="5"/>
       <c r="E1798" s="5"/>
@@ -57728,8 +57568,8 @@
       <c r="B1799" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="C1799" s="6" t="s">
-        <v>1451</v>
+      <c r="C1799" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1799" s="5"/>
       <c r="E1799" s="5"/>
@@ -57755,10 +57595,10 @@
         <v>1799</v>
       </c>
       <c r="B1800" s="5" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C1800" s="6" t="s">
-        <v>1451</v>
+        <v>1398</v>
+      </c>
+      <c r="C1800" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1800" s="5"/>
       <c r="E1800" s="5"/>
@@ -57784,10 +57624,10 @@
         <v>1800</v>
       </c>
       <c r="B1801" s="5" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C1801" s="6" t="s">
-        <v>1451</v>
+        <v>1399</v>
+      </c>
+      <c r="C1801" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1801" s="5"/>
       <c r="E1801" s="5"/>
@@ -57813,10 +57653,10 @@
         <v>1801</v>
       </c>
       <c r="B1802" s="5" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C1802" s="6" t="s">
-        <v>1451</v>
+        <v>1400</v>
+      </c>
+      <c r="C1802" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1802" s="5"/>
       <c r="E1802" s="5"/>
@@ -57842,10 +57682,10 @@
         <v>1802</v>
       </c>
       <c r="B1803" s="5" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C1803" s="6" t="s">
-        <v>1451</v>
+        <v>1401</v>
+      </c>
+      <c r="C1803" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1803" s="5"/>
       <c r="E1803" s="5"/>
@@ -57871,10 +57711,10 @@
         <v>1803</v>
       </c>
       <c r="B1804" s="5" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C1804" s="6" t="s">
-        <v>1451</v>
+        <v>1402</v>
+      </c>
+      <c r="C1804" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1804" s="5"/>
       <c r="E1804" s="5"/>
@@ -57900,10 +57740,10 @@
         <v>1804</v>
       </c>
       <c r="B1805" s="5" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C1805" s="6" t="s">
-        <v>1451</v>
+        <v>1403</v>
+      </c>
+      <c r="C1805" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1805" s="5"/>
       <c r="E1805" s="5"/>
@@ -57929,10 +57769,10 @@
         <v>1805</v>
       </c>
       <c r="B1806" s="5" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C1806" s="6" t="s">
-        <v>1451</v>
+        <v>1404</v>
+      </c>
+      <c r="C1806" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1806" s="5"/>
       <c r="E1806" s="5"/>
@@ -57958,10 +57798,10 @@
         <v>1806</v>
       </c>
       <c r="B1807" s="5" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C1807" s="6" t="s">
-        <v>1451</v>
+        <v>1405</v>
+      </c>
+      <c r="C1807" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1807" s="5"/>
       <c r="E1807" s="5"/>
@@ -57987,10 +57827,10 @@
         <v>1807</v>
       </c>
       <c r="B1808" s="5" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C1808" s="6" t="s">
-        <v>1451</v>
+        <v>1406</v>
+      </c>
+      <c r="C1808" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1808" s="5"/>
       <c r="E1808" s="5"/>
@@ -58016,10 +57856,10 @@
         <v>1808</v>
       </c>
       <c r="B1809" s="5" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C1809" s="6" t="s">
-        <v>1451</v>
+        <v>1407</v>
+      </c>
+      <c r="C1809" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1809" s="5"/>
       <c r="E1809" s="5"/>
@@ -58045,10 +57885,10 @@
         <v>1809</v>
       </c>
       <c r="B1810" s="5" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C1810" s="6" t="s">
-        <v>1451</v>
+        <v>1408</v>
+      </c>
+      <c r="C1810" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1810" s="5"/>
       <c r="E1810" s="5"/>
@@ -58074,10 +57914,10 @@
         <v>1810</v>
       </c>
       <c r="B1811" s="5" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C1811" s="6" t="s">
-        <v>1451</v>
+        <v>1409</v>
+      </c>
+      <c r="C1811" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1811" s="5"/>
       <c r="E1811" s="5"/>
@@ -58103,10 +57943,10 @@
         <v>1811</v>
       </c>
       <c r="B1812" s="5" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C1812" s="6" t="s">
-        <v>1451</v>
+        <v>1410</v>
+      </c>
+      <c r="C1812" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1812" s="5"/>
       <c r="E1812" s="5"/>
@@ -58134,8 +57974,8 @@
       <c r="B1813" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C1813" s="6" t="s">
-        <v>1451</v>
+      <c r="C1813" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1813" s="5"/>
       <c r="E1813" s="5"/>
@@ -58161,10 +58001,10 @@
         <v>1813</v>
       </c>
       <c r="B1814" s="5" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C1814" s="6" t="s">
-        <v>1451</v>
+        <v>1411</v>
+      </c>
+      <c r="C1814" s="14">
+        <v>45195.0</v>
       </c>
       <c r="D1814" s="5"/>
       <c r="E1814" s="5"/>
@@ -58190,10 +58030,10 @@
         <v>1814</v>
       </c>
       <c r="B1815" s="5" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C1815" s="6" t="s">
-        <v>1469</v>
+        <v>1412</v>
+      </c>
+      <c r="C1815" s="14">
+        <v>45196.0</v>
       </c>
       <c r="D1815" s="5"/>
       <c r="E1815" s="5"/>
@@ -58219,10 +58059,10 @@
         <v>1815</v>
       </c>
       <c r="B1816" s="5" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C1816" s="6" t="s">
-        <v>1469</v>
+        <v>1413</v>
+      </c>
+      <c r="C1816" s="14">
+        <v>45196.0</v>
       </c>
       <c r="D1816" s="5"/>
       <c r="E1816" s="5"/>
@@ -58248,10 +58088,10 @@
         <v>1816</v>
       </c>
       <c r="B1817" s="5" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C1817" s="6" t="s">
-        <v>1469</v>
+        <v>1414</v>
+      </c>
+      <c r="C1817" s="14">
+        <v>45196.0</v>
       </c>
       <c r="D1817" s="5"/>
       <c r="E1817" s="5"/>
@@ -58277,10 +58117,10 @@
         <v>1817</v>
       </c>
       <c r="B1818" s="5" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C1818" s="6" t="s">
-        <v>1469</v>
+        <v>1415</v>
+      </c>
+      <c r="C1818" s="14">
+        <v>45196.0</v>
       </c>
       <c r="D1818" s="5"/>
       <c r="E1818" s="5"/>
@@ -58308,8 +58148,8 @@
       <c r="B1819" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C1819" s="6" t="s">
-        <v>1469</v>
+      <c r="C1819" s="14">
+        <v>45196.0</v>
       </c>
       <c r="D1819" s="5"/>
       <c r="E1819" s="5"/>
@@ -58335,10 +58175,10 @@
         <v>1819</v>
       </c>
       <c r="B1820" s="5" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C1820" s="6" t="s">
-        <v>1469</v>
+        <v>1416</v>
+      </c>
+      <c r="C1820" s="14">
+        <v>45196.0</v>
       </c>
       <c r="D1820" s="5"/>
       <c r="E1820" s="5"/>
@@ -58364,10 +58204,10 @@
         <v>1820</v>
       </c>
       <c r="B1821" s="5" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C1821" s="6" t="s">
-        <v>1469</v>
+        <v>1417</v>
+      </c>
+      <c r="C1821" s="14">
+        <v>45196.0</v>
       </c>
       <c r="D1821" s="5"/>
       <c r="E1821" s="5"/>
@@ -58393,10 +58233,10 @@
         <v>1821</v>
       </c>
       <c r="B1822" s="5" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C1822" s="6" t="s">
-        <v>1469</v>
+        <v>1418</v>
+      </c>
+      <c r="C1822" s="14">
+        <v>45196.0</v>
       </c>
       <c r="D1822" s="5"/>
       <c r="E1822" s="5"/>
@@ -58422,10 +58262,10 @@
         <v>1822</v>
       </c>
       <c r="B1823" s="5" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C1823" s="6" t="s">
-        <v>1477</v>
+        <v>1419</v>
+      </c>
+      <c r="C1823" s="14">
+        <v>45197.0</v>
       </c>
       <c r="D1823" s="5"/>
       <c r="E1823" s="5"/>
@@ -58451,10 +58291,10 @@
         <v>1823</v>
       </c>
       <c r="B1824" s="5" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C1824" s="6" t="s">
-        <v>1477</v>
+        <v>1420</v>
+      </c>
+      <c r="C1824" s="14">
+        <v>45197.0</v>
       </c>
       <c r="D1824" s="5"/>
       <c r="E1824" s="5"/>
@@ -58480,10 +58320,10 @@
         <v>1824</v>
       </c>
       <c r="B1825" s="5" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C1825" s="6" t="s">
-        <v>1477</v>
+        <v>1421</v>
+      </c>
+      <c r="C1825" s="14">
+        <v>45197.0</v>
       </c>
       <c r="D1825" s="5"/>
       <c r="E1825" s="5"/>
@@ -58509,10 +58349,10 @@
         <v>1825</v>
       </c>
       <c r="B1826" s="5" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C1826" s="6" t="s">
-        <v>1477</v>
+        <v>1157</v>
+      </c>
+      <c r="C1826" s="14">
+        <v>45197.0</v>
       </c>
       <c r="D1826" s="5"/>
       <c r="E1826" s="5"/>
@@ -58538,10 +58378,10 @@
         <v>1826</v>
       </c>
       <c r="B1827" s="5" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C1827" s="6" t="s">
-        <v>1477</v>
+        <v>1422</v>
+      </c>
+      <c r="C1827" s="14">
+        <v>45197.0</v>
       </c>
       <c r="D1827" s="5"/>
       <c r="E1827" s="5"/>
@@ -58567,10 +58407,10 @@
         <v>1827</v>
       </c>
       <c r="B1828" s="5" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C1828" s="6" t="s">
-        <v>1477</v>
+        <v>1423</v>
+      </c>
+      <c r="C1828" s="14">
+        <v>45197.0</v>
       </c>
       <c r="D1828" s="5"/>
       <c r="E1828" s="5"/>
@@ -58596,7 +58436,7 @@
         <v>1828</v>
       </c>
       <c r="B1829" s="5" t="s">
-        <v>1482</v>
+        <v>1424</v>
       </c>
       <c r="C1829" s="6">
         <v>45198.0</v>
@@ -58625,7 +58465,7 @@
         <v>1829</v>
       </c>
       <c r="B1830" s="5" t="s">
-        <v>1483</v>
+        <v>1425</v>
       </c>
       <c r="C1830" s="6">
         <v>45198.0</v>
@@ -58712,7 +58552,7 @@
         <v>1832</v>
       </c>
       <c r="B1833" s="5" t="s">
-        <v>1484</v>
+        <v>1426</v>
       </c>
       <c r="C1833" s="6">
         <v>45198.0</v>
@@ -58741,7 +58581,7 @@
         <v>1833</v>
       </c>
       <c r="B1834" s="5" t="s">
-        <v>1485</v>
+        <v>1427</v>
       </c>
       <c r="C1834" s="6">
         <v>45198.0</v>
@@ -58828,7 +58668,7 @@
         <v>1836</v>
       </c>
       <c r="B1837" s="5" t="s">
-        <v>1486</v>
+        <v>1428</v>
       </c>
       <c r="C1837" s="6">
         <v>45198.0</v>
@@ -58857,7 +58697,7 @@
         <v>1837</v>
       </c>
       <c r="B1838" s="5" t="s">
-        <v>1487</v>
+        <v>1429</v>
       </c>
       <c r="C1838" s="6">
         <v>45198.0</v>
@@ -58886,7 +58726,7 @@
         <v>1838</v>
       </c>
       <c r="B1839" s="5" t="s">
-        <v>1483</v>
+        <v>1425</v>
       </c>
       <c r="C1839" s="6">
         <v>45199.0</v>
@@ -58944,7 +58784,7 @@
         <v>1840</v>
       </c>
       <c r="B1841" s="5" t="s">
-        <v>1488</v>
+        <v>1430</v>
       </c>
       <c r="C1841" s="6">
         <v>45199.0</v>
@@ -59002,7 +58842,7 @@
         <v>1842</v>
       </c>
       <c r="B1843" s="5" t="s">
-        <v>1489</v>
+        <v>1431</v>
       </c>
       <c r="C1843" s="6">
         <v>45200.0</v>
@@ -59031,7 +58871,7 @@
         <v>1843</v>
       </c>
       <c r="B1844" s="5" t="s">
-        <v>1490</v>
+        <v>1432</v>
       </c>
       <c r="C1844" s="6">
         <v>45200.0</v>
@@ -59060,7 +58900,7 @@
         <v>1844</v>
       </c>
       <c r="B1845" s="5" t="s">
-        <v>1491</v>
+        <v>1433</v>
       </c>
       <c r="C1845" s="6">
         <v>45200.0</v>
@@ -59089,7 +58929,7 @@
         <v>1845</v>
       </c>
       <c r="B1846" s="5" t="s">
-        <v>1492</v>
+        <v>1434</v>
       </c>
       <c r="C1846" s="6">
         <v>45200.0</v>
@@ -59118,7 +58958,7 @@
         <v>1846</v>
       </c>
       <c r="B1847" s="5" t="s">
-        <v>1436</v>
+        <v>1384</v>
       </c>
       <c r="C1847" s="6">
         <v>45200.0</v>
@@ -59147,7 +58987,7 @@
         <v>1847</v>
       </c>
       <c r="B1848" s="5" t="s">
-        <v>1493</v>
+        <v>1435</v>
       </c>
       <c r="C1848" s="6">
         <v>45200.0</v>
@@ -59176,7 +59016,7 @@
         <v>1848</v>
       </c>
       <c r="B1849" s="5" t="s">
-        <v>1494</v>
+        <v>1436</v>
       </c>
       <c r="C1849" s="6">
         <v>45200.0</v>
@@ -59205,7 +59045,7 @@
         <v>1849</v>
       </c>
       <c r="B1850" s="5" t="s">
-        <v>1495</v>
+        <v>1437</v>
       </c>
       <c r="C1850" s="6">
         <v>45201.0</v>
@@ -59234,7 +59074,7 @@
         <v>1850</v>
       </c>
       <c r="B1851" s="5" t="s">
-        <v>1496</v>
+        <v>1438</v>
       </c>
       <c r="C1851" s="6">
         <v>45201.0</v>
@@ -59263,7 +59103,7 @@
         <v>1851</v>
       </c>
       <c r="B1852" s="5" t="s">
-        <v>1497</v>
+        <v>1439</v>
       </c>
       <c r="C1852" s="6">
         <v>45201.0</v>
@@ -59321,7 +59161,7 @@
         <v>1853</v>
       </c>
       <c r="B1854" s="5" t="s">
-        <v>1498</v>
+        <v>1440</v>
       </c>
       <c r="C1854" s="6">
         <v>45201.0</v>
@@ -59350,7 +59190,7 @@
         <v>1854</v>
       </c>
       <c r="B1855" s="5" t="s">
-        <v>1499</v>
+        <v>1441</v>
       </c>
       <c r="C1855" s="6">
         <v>45202.0</v>
@@ -59379,7 +59219,7 @@
         <v>1855</v>
       </c>
       <c r="B1856" s="5" t="s">
-        <v>1324</v>
+        <v>1291</v>
       </c>
       <c r="C1856" s="6">
         <v>45202.0</v>
@@ -59408,7 +59248,7 @@
         <v>1856</v>
       </c>
       <c r="B1857" s="5" t="s">
-        <v>1500</v>
+        <v>1442</v>
       </c>
       <c r="C1857" s="6">
         <v>45202.0</v>
@@ -59437,7 +59277,7 @@
         <v>1857</v>
       </c>
       <c r="B1858" s="5" t="s">
-        <v>1501</v>
+        <v>1443</v>
       </c>
       <c r="C1858" s="6">
         <v>45202.0</v>
@@ -59495,7 +59335,7 @@
         <v>1859</v>
       </c>
       <c r="B1860" s="5" t="s">
-        <v>1502</v>
+        <v>1444</v>
       </c>
       <c r="C1860" s="6">
         <v>45202.0</v>
@@ -59524,7 +59364,7 @@
         <v>1860</v>
       </c>
       <c r="B1861" s="5" t="s">
-        <v>1503</v>
+        <v>1445</v>
       </c>
       <c r="C1861" s="6">
         <v>45202.0</v>
@@ -59553,7 +59393,7 @@
         <v>1861</v>
       </c>
       <c r="B1862" s="5" t="s">
-        <v>1504</v>
+        <v>1446</v>
       </c>
       <c r="C1862" s="6">
         <v>45202.0</v>
@@ -59582,7 +59422,7 @@
         <v>1862</v>
       </c>
       <c r="B1863" s="5" t="s">
-        <v>1505</v>
+        <v>1447</v>
       </c>
       <c r="C1863" s="6">
         <v>45202.0</v>
@@ -59611,7 +59451,7 @@
         <v>1863</v>
       </c>
       <c r="B1864" s="5" t="s">
-        <v>1506</v>
+        <v>1448</v>
       </c>
       <c r="C1864" s="6">
         <v>45202.0</v>
@@ -59640,7 +59480,7 @@
         <v>1864</v>
       </c>
       <c r="B1865" s="5" t="s">
-        <v>1507</v>
+        <v>1449</v>
       </c>
       <c r="C1865" s="6">
         <v>45202.0</v>
@@ -59669,7 +59509,7 @@
         <v>1865</v>
       </c>
       <c r="B1866" s="5" t="s">
-        <v>1491</v>
+        <v>1433</v>
       </c>
       <c r="C1866" s="6">
         <v>45202.0</v>
@@ -59698,7 +59538,7 @@
         <v>1866</v>
       </c>
       <c r="B1867" s="5" t="s">
-        <v>1508</v>
+        <v>1450</v>
       </c>
       <c r="C1867" s="6">
         <v>45202.0</v>
@@ -59727,7 +59567,7 @@
         <v>1867</v>
       </c>
       <c r="B1868" s="5" t="s">
-        <v>1509</v>
+        <v>1451</v>
       </c>
       <c r="C1868" s="6">
         <v>45202.0</v>
@@ -59756,7 +59596,7 @@
         <v>1868</v>
       </c>
       <c r="B1869" s="5" t="s">
-        <v>1510</v>
+        <v>1452</v>
       </c>
       <c r="C1869" s="6">
         <v>45202.0</v>
@@ -59785,7 +59625,7 @@
         <v>1869</v>
       </c>
       <c r="B1870" s="5" t="s">
-        <v>1511</v>
+        <v>1453</v>
       </c>
       <c r="C1870" s="6">
         <v>45202.0</v>
@@ -59814,7 +59654,7 @@
         <v>1870</v>
       </c>
       <c r="B1871" s="5" t="s">
-        <v>1512</v>
+        <v>1454</v>
       </c>
       <c r="C1871" s="6">
         <v>45202.0</v>
@@ -59843,7 +59683,7 @@
         <v>1871</v>
       </c>
       <c r="B1872" s="5" t="s">
-        <v>1513</v>
+        <v>1455</v>
       </c>
       <c r="C1872" s="6">
         <v>45203.0</v>
@@ -59872,7 +59712,7 @@
         <v>1872</v>
       </c>
       <c r="B1873" s="5" t="s">
-        <v>1514</v>
+        <v>1456</v>
       </c>
       <c r="C1873" s="6">
         <v>45203.0</v>
@@ -59901,7 +59741,7 @@
         <v>1873</v>
       </c>
       <c r="B1874" s="5" t="s">
-        <v>1515</v>
+        <v>1457</v>
       </c>
       <c r="C1874" s="6">
         <v>45203.0</v>
@@ -59930,7 +59770,7 @@
         <v>1874</v>
       </c>
       <c r="B1875" s="12" t="s">
-        <v>1516</v>
+        <v>1458</v>
       </c>
       <c r="C1875" s="6">
         <v>45203.0</v>
@@ -59988,7 +59828,7 @@
         <v>1876</v>
       </c>
       <c r="B1877" s="5" t="s">
-        <v>1517</v>
+        <v>1459</v>
       </c>
       <c r="C1877" s="6">
         <v>45203.0</v>
@@ -60046,7 +59886,7 @@
         <v>1878</v>
       </c>
       <c r="B1879" s="5" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C1879" s="6">
         <v>45204.0</v>
@@ -60075,7 +59915,7 @@
         <v>1879</v>
       </c>
       <c r="B1880" s="5" t="s">
-        <v>1518</v>
+        <v>1460</v>
       </c>
       <c r="C1880" s="6">
         <v>45204.0</v>
@@ -60104,7 +59944,7 @@
         <v>1880</v>
       </c>
       <c r="B1881" s="5" t="s">
-        <v>1519</v>
+        <v>1461</v>
       </c>
       <c r="C1881" s="6">
         <v>45204.0</v>
@@ -60133,7 +59973,7 @@
         <v>1881</v>
       </c>
       <c r="B1882" s="5" t="s">
-        <v>1520</v>
+        <v>1462</v>
       </c>
       <c r="C1882" s="6">
         <v>45204.0</v>
@@ -60162,7 +60002,7 @@
         <v>1882</v>
       </c>
       <c r="B1883" s="5" t="s">
-        <v>1521</v>
+        <v>1463</v>
       </c>
       <c r="C1883" s="6">
         <v>45204.0</v>
@@ -60191,7 +60031,7 @@
         <v>1883</v>
       </c>
       <c r="B1884" s="5" t="s">
-        <v>1522</v>
+        <v>1464</v>
       </c>
       <c r="C1884" s="6">
         <v>45204.0</v>
@@ -60220,7 +60060,7 @@
         <v>1884</v>
       </c>
       <c r="B1885" s="5" t="s">
-        <v>1523</v>
+        <v>1465</v>
       </c>
       <c r="C1885" s="6">
         <v>45204.0</v>
@@ -60249,7 +60089,7 @@
         <v>1885</v>
       </c>
       <c r="B1886" s="5" t="s">
-        <v>1517</v>
+        <v>1459</v>
       </c>
       <c r="C1886" s="6">
         <v>45204.0</v>
@@ -60278,7 +60118,7 @@
         <v>1886</v>
       </c>
       <c r="B1887" s="5" t="s">
-        <v>1524</v>
+        <v>1466</v>
       </c>
       <c r="C1887" s="6">
         <v>45204.0</v>
@@ -60307,7 +60147,7 @@
         <v>1887</v>
       </c>
       <c r="B1888" s="5" t="s">
-        <v>1525</v>
+        <v>1467</v>
       </c>
       <c r="C1888" s="6">
         <v>45205.0</v>
@@ -60336,7 +60176,7 @@
         <v>1888</v>
       </c>
       <c r="B1889" s="5" t="s">
-        <v>1526</v>
+        <v>1468</v>
       </c>
       <c r="C1889" s="6">
         <v>45205.0</v>
@@ -60365,7 +60205,7 @@
         <v>1889</v>
       </c>
       <c r="B1890" s="5" t="s">
-        <v>1527</v>
+        <v>1469</v>
       </c>
       <c r="C1890" s="6">
         <v>45205.0</v>
@@ -60394,7 +60234,7 @@
         <v>1890</v>
       </c>
       <c r="B1891" s="5" t="s">
-        <v>1528</v>
+        <v>1470</v>
       </c>
       <c r="C1891" s="6">
         <v>45205.0</v>
@@ -60423,7 +60263,7 @@
         <v>1891</v>
       </c>
       <c r="B1892" s="5" t="s">
-        <v>1529</v>
+        <v>1471</v>
       </c>
       <c r="C1892" s="6">
         <v>45206.0</v>
@@ -60452,7 +60292,7 @@
         <v>1892</v>
       </c>
       <c r="B1893" s="5" t="s">
-        <v>1530</v>
+        <v>1472</v>
       </c>
       <c r="C1893" s="6">
         <v>45206.0</v>
@@ -60481,7 +60321,7 @@
         <v>1893</v>
       </c>
       <c r="B1894" s="5" t="s">
-        <v>1531</v>
+        <v>1473</v>
       </c>
       <c r="C1894" s="6">
         <v>45206.0</v>
@@ -60510,7 +60350,7 @@
         <v>1894</v>
       </c>
       <c r="B1895" s="5" t="s">
-        <v>1532</v>
+        <v>1474</v>
       </c>
       <c r="C1895" s="6">
         <v>45206.0</v>
@@ -60539,7 +60379,7 @@
         <v>1895</v>
       </c>
       <c r="B1896" s="5" t="s">
-        <v>1533</v>
+        <v>1475</v>
       </c>
       <c r="C1896" s="6">
         <v>45206.0</v>
@@ -60568,7 +60408,7 @@
         <v>1896</v>
       </c>
       <c r="B1897" s="5" t="s">
-        <v>1534</v>
+        <v>1476</v>
       </c>
       <c r="C1897" s="6">
         <v>45206.0</v>
@@ -60626,7 +60466,7 @@
         <v>1898</v>
       </c>
       <c r="B1899" s="5" t="s">
-        <v>1535</v>
+        <v>1477</v>
       </c>
       <c r="C1899" s="6">
         <v>45206.0</v>
@@ -60655,7 +60495,7 @@
         <v>1899</v>
       </c>
       <c r="B1900" s="5" t="s">
-        <v>1536</v>
+        <v>1478</v>
       </c>
       <c r="C1900" s="6">
         <v>45206.0</v>
@@ -60742,7 +60582,7 @@
         <v>1902</v>
       </c>
       <c r="B1903" s="5" t="s">
-        <v>1537</v>
+        <v>1479</v>
       </c>
       <c r="C1903" s="6">
         <v>45206.0</v>
@@ -60800,7 +60640,7 @@
         <v>1904</v>
       </c>
       <c r="B1905" s="5" t="s">
-        <v>1538</v>
+        <v>1480</v>
       </c>
       <c r="C1905" s="6">
         <v>45206.0</v>
@@ -60829,7 +60669,7 @@
         <v>1905</v>
       </c>
       <c r="B1906" s="5" t="s">
-        <v>1539</v>
+        <v>1481</v>
       </c>
       <c r="C1906" s="6">
         <v>45208.0</v>
@@ -60858,7 +60698,7 @@
         <v>1906</v>
       </c>
       <c r="B1907" s="5" t="s">
-        <v>1540</v>
+        <v>1482</v>
       </c>
       <c r="C1907" s="6">
         <v>45208.0</v>
@@ -60887,7 +60727,7 @@
         <v>1907</v>
       </c>
       <c r="B1908" s="5" t="s">
-        <v>1541</v>
+        <v>1483</v>
       </c>
       <c r="C1908" s="6">
         <v>45208.0</v>
@@ -60916,7 +60756,7 @@
         <v>1908</v>
       </c>
       <c r="B1909" s="5" t="s">
-        <v>1542</v>
+        <v>1484</v>
       </c>
       <c r="C1909" s="6">
         <v>45208.0</v>
@@ -60945,7 +60785,7 @@
         <v>1909</v>
       </c>
       <c r="B1910" s="5" t="s">
-        <v>1543</v>
+        <v>1485</v>
       </c>
       <c r="C1910" s="6">
         <v>45208.0</v>
@@ -60974,7 +60814,7 @@
         <v>1910</v>
       </c>
       <c r="B1911" s="5" t="s">
-        <v>1544</v>
+        <v>1486</v>
       </c>
       <c r="C1911" s="6">
         <v>45208.0</v>
@@ -61003,7 +60843,7 @@
         <v>1911</v>
       </c>
       <c r="B1912" s="5" t="s">
-        <v>1545</v>
+        <v>1487</v>
       </c>
       <c r="C1912" s="6">
         <v>45208.0</v>
@@ -61032,7 +60872,7 @@
         <v>1912</v>
       </c>
       <c r="B1913" s="5" t="s">
-        <v>1546</v>
+        <v>1488</v>
       </c>
       <c r="C1913" s="6">
         <v>45208.0</v>
@@ -61061,7 +60901,7 @@
         <v>1913</v>
       </c>
       <c r="B1914" s="5" t="s">
-        <v>1547</v>
+        <v>1489</v>
       </c>
       <c r="C1914" s="6">
         <v>45208.0</v>
@@ -61090,7 +60930,7 @@
         <v>1914</v>
       </c>
       <c r="B1915" s="5" t="s">
-        <v>1548</v>
+        <v>1490</v>
       </c>
       <c r="C1915" s="6">
         <v>45208.0</v>
@@ -61119,7 +60959,7 @@
         <v>1915</v>
       </c>
       <c r="B1916" s="5" t="s">
-        <v>1549</v>
+        <v>1491</v>
       </c>
       <c r="C1916" s="6">
         <v>45208.0</v>
@@ -61148,7 +60988,7 @@
         <v>1916</v>
       </c>
       <c r="B1917" s="5" t="s">
-        <v>1550</v>
+        <v>1492</v>
       </c>
       <c r="C1917" s="6">
         <v>45208.0</v>
@@ -61177,7 +61017,7 @@
         <v>1917</v>
       </c>
       <c r="B1918" s="5" t="s">
-        <v>1551</v>
+        <v>1493</v>
       </c>
       <c r="C1918" s="6">
         <v>45208.0</v>
@@ -61206,7 +61046,7 @@
         <v>1918</v>
       </c>
       <c r="B1919" s="5" t="s">
-        <v>1552</v>
+        <v>1494</v>
       </c>
       <c r="C1919" s="6">
         <v>45208.0</v>
@@ -61235,7 +61075,7 @@
         <v>1919</v>
       </c>
       <c r="B1920" s="5" t="s">
-        <v>1553</v>
+        <v>1495</v>
       </c>
       <c r="C1920" s="6">
         <v>45208.0</v>
@@ -61264,7 +61104,7 @@
         <v>1920</v>
       </c>
       <c r="B1921" s="5" t="s">
-        <v>1554</v>
+        <v>1496</v>
       </c>
       <c r="C1921" s="6">
         <v>45208.0</v>
@@ -61293,7 +61133,7 @@
         <v>1921</v>
       </c>
       <c r="B1922" s="5" t="s">
-        <v>1555</v>
+        <v>1497</v>
       </c>
       <c r="C1922" s="6">
         <v>45208.0</v>
@@ -61322,7 +61162,7 @@
         <v>1922</v>
       </c>
       <c r="B1923" s="5" t="s">
-        <v>1556</v>
+        <v>1498</v>
       </c>
       <c r="C1923" s="6">
         <v>45208.0</v>
@@ -61351,7 +61191,7 @@
         <v>1923</v>
       </c>
       <c r="B1924" s="5" t="s">
-        <v>1557</v>
+        <v>1499</v>
       </c>
       <c r="C1924" s="6">
         <v>45208.0</v>
@@ -61380,7 +61220,7 @@
         <v>1924</v>
       </c>
       <c r="B1925" s="5" t="s">
-        <v>1558</v>
+        <v>1500</v>
       </c>
       <c r="C1925" s="6">
         <v>45208.0</v>
@@ -61409,7 +61249,7 @@
         <v>1925</v>
       </c>
       <c r="B1926" s="5" t="s">
-        <v>1559</v>
+        <v>1501</v>
       </c>
       <c r="C1926" s="6">
         <v>45208.0</v>
@@ -61438,7 +61278,7 @@
         <v>1926</v>
       </c>
       <c r="B1927" s="5" t="s">
-        <v>1560</v>
+        <v>1502</v>
       </c>
       <c r="C1927" s="6">
         <v>45208.0</v>
@@ -61467,7 +61307,7 @@
         <v>1927</v>
       </c>
       <c r="B1928" s="5" t="s">
-        <v>1561</v>
+        <v>1503</v>
       </c>
       <c r="C1928" s="6">
         <v>45208.0</v>
@@ -61496,7 +61336,7 @@
         <v>1928</v>
       </c>
       <c r="B1929" s="5" t="s">
-        <v>1562</v>
+        <v>1504</v>
       </c>
       <c r="C1929" s="6">
         <v>45208.0</v>
@@ -61525,7 +61365,7 @@
         <v>1929</v>
       </c>
       <c r="B1930" s="5" t="s">
-        <v>1563</v>
+        <v>1505</v>
       </c>
       <c r="C1930" s="6">
         <v>45208.0</v>
@@ -61554,7 +61394,7 @@
         <v>1930</v>
       </c>
       <c r="B1931" s="5" t="s">
-        <v>1564</v>
+        <v>1506</v>
       </c>
       <c r="C1931" s="6">
         <v>45208.0</v>
@@ -61612,7 +61452,7 @@
         <v>1932</v>
       </c>
       <c r="B1933" s="5" t="s">
-        <v>1382</v>
+        <v>1338</v>
       </c>
       <c r="C1933" s="6">
         <v>45209.0</v>
@@ -61670,7 +61510,7 @@
         <v>1934</v>
       </c>
       <c r="B1935" s="5" t="s">
-        <v>1565</v>
+        <v>1507</v>
       </c>
       <c r="C1935" s="6">
         <v>45209.0</v>
@@ -61699,7 +61539,7 @@
         <v>1935</v>
       </c>
       <c r="B1936" s="5" t="s">
-        <v>1514</v>
+        <v>1456</v>
       </c>
       <c r="C1936" s="6">
         <v>45209.0</v>
@@ -61728,7 +61568,7 @@
         <v>1936</v>
       </c>
       <c r="B1937" s="5" t="s">
-        <v>1566</v>
+        <v>1508</v>
       </c>
       <c r="C1937" s="6">
         <v>45209.0</v>
@@ -61757,7 +61597,7 @@
         <v>1937</v>
       </c>
       <c r="B1938" s="5" t="s">
-        <v>1567</v>
+        <v>1509</v>
       </c>
       <c r="C1938" s="6">
         <v>45209.0</v>
@@ -61786,7 +61626,7 @@
         <v>1938</v>
       </c>
       <c r="B1939" s="5" t="s">
-        <v>1568</v>
+        <v>1510</v>
       </c>
       <c r="C1939" s="6">
         <v>45209.0</v>
@@ -61815,7 +61655,7 @@
         <v>1939</v>
       </c>
       <c r="B1940" s="5" t="s">
-        <v>1569</v>
+        <v>1511</v>
       </c>
       <c r="C1940" s="6">
         <v>45209.0</v>
@@ -61844,7 +61684,7 @@
         <v>1940</v>
       </c>
       <c r="B1941" s="5" t="s">
-        <v>1517</v>
+        <v>1459</v>
       </c>
       <c r="C1941" s="6">
         <v>45209.0</v>
@@ -61902,7 +61742,7 @@
         <v>1942</v>
       </c>
       <c r="B1943" s="5" t="s">
-        <v>1570</v>
+        <v>1512</v>
       </c>
       <c r="C1943" s="6">
         <v>45209.0</v>
@@ -61931,7 +61771,7 @@
         <v>1943</v>
       </c>
       <c r="B1944" s="5" t="s">
-        <v>1571</v>
+        <v>1513</v>
       </c>
       <c r="C1944" s="6">
         <v>45209.0</v>
@@ -61960,7 +61800,7 @@
         <v>1944</v>
       </c>
       <c r="B1945" s="5" t="s">
-        <v>1572</v>
+        <v>1514</v>
       </c>
       <c r="C1945" s="6">
         <v>45209.0</v>
@@ -61989,7 +61829,7 @@
         <v>1945</v>
       </c>
       <c r="B1946" s="5" t="s">
-        <v>1573</v>
+        <v>1515</v>
       </c>
       <c r="C1946" s="6">
         <v>45209.0</v>
@@ -62018,7 +61858,7 @@
         <v>1946</v>
       </c>
       <c r="B1947" s="5" t="s">
-        <v>1574</v>
+        <v>1516</v>
       </c>
       <c r="C1947" s="6">
         <v>45209.0</v>
@@ -62047,7 +61887,7 @@
         <v>1947</v>
       </c>
       <c r="B1948" s="5" t="s">
-        <v>1574</v>
+        <v>1516</v>
       </c>
       <c r="C1948" s="6">
         <v>45209.0</v>
@@ -62105,7 +61945,7 @@
         <v>1949</v>
       </c>
       <c r="B1950" s="5" t="s">
-        <v>1575</v>
+        <v>1517</v>
       </c>
       <c r="C1950" s="6">
         <v>45210.0</v>
@@ -62134,7 +61974,7 @@
         <v>1950</v>
       </c>
       <c r="B1951" s="5" t="s">
-        <v>1569</v>
+        <v>1511</v>
       </c>
       <c r="C1951" s="6">
         <v>45210.0</v>
@@ -62163,7 +62003,7 @@
         <v>1951</v>
       </c>
       <c r="B1952" s="5" t="s">
-        <v>1576</v>
+        <v>1518</v>
       </c>
       <c r="C1952" s="6">
         <v>45210.0</v>
@@ -62192,7 +62032,7 @@
         <v>1952</v>
       </c>
       <c r="B1953" s="5" t="s">
-        <v>1577</v>
+        <v>1519</v>
       </c>
       <c r="C1953" s="6">
         <v>45210.0</v>
@@ -62221,7 +62061,7 @@
         <v>1953</v>
       </c>
       <c r="B1954" s="5" t="s">
-        <v>1578</v>
+        <v>1520</v>
       </c>
       <c r="C1954" s="6">
         <v>45210.0</v>
@@ -62279,7 +62119,7 @@
         <v>1955</v>
       </c>
       <c r="B1956" s="5" t="s">
-        <v>1579</v>
+        <v>1521</v>
       </c>
       <c r="C1956" s="6">
         <v>45211.0</v>
@@ -62308,7 +62148,7 @@
         <v>1956</v>
       </c>
       <c r="B1957" s="5" t="s">
-        <v>1580</v>
+        <v>1522</v>
       </c>
       <c r="C1957" s="6">
         <v>45211.0</v>
@@ -62337,7 +62177,7 @@
         <v>1957</v>
       </c>
       <c r="B1958" s="5" t="s">
-        <v>1581</v>
+        <v>1523</v>
       </c>
       <c r="C1958" s="6">
         <v>45211.0</v>
@@ -62366,7 +62206,7 @@
         <v>1958</v>
       </c>
       <c r="B1959" s="5" t="s">
-        <v>1582</v>
+        <v>1524</v>
       </c>
       <c r="C1959" s="6">
         <v>45211.0</v>
@@ -62395,7 +62235,7 @@
         <v>1959</v>
       </c>
       <c r="B1960" s="5" t="s">
-        <v>1583</v>
+        <v>1525</v>
       </c>
       <c r="C1960" s="6">
         <v>45211.0</v>
@@ -62424,7 +62264,7 @@
         <v>1960</v>
       </c>
       <c r="B1961" s="5" t="s">
-        <v>1584</v>
+        <v>1526</v>
       </c>
       <c r="C1961" s="6">
         <v>45211.0</v>
@@ -62453,7 +62293,7 @@
         <v>1961</v>
       </c>
       <c r="B1962" s="5" t="s">
-        <v>1585</v>
+        <v>1527</v>
       </c>
       <c r="C1962" s="6">
         <v>45211.0</v>
@@ -62511,7 +62351,7 @@
         <v>1963</v>
       </c>
       <c r="B1964" s="5" t="s">
-        <v>1586</v>
+        <v>1528</v>
       </c>
       <c r="C1964" s="6">
         <v>45212.0</v>
@@ -62540,7 +62380,7 @@
         <v>1964</v>
       </c>
       <c r="B1965" s="5" t="s">
-        <v>1587</v>
+        <v>1529</v>
       </c>
       <c r="C1965" s="6">
         <v>45212.0</v>
@@ -62598,7 +62438,7 @@
         <v>1966</v>
       </c>
       <c r="B1967" s="5" t="s">
-        <v>1588</v>
+        <v>1530</v>
       </c>
       <c r="C1967" s="6">
         <v>45213.0</v>
@@ -62627,7 +62467,7 @@
         <v>1967</v>
       </c>
       <c r="B1968" s="5" t="s">
-        <v>1589</v>
+        <v>1531</v>
       </c>
       <c r="C1968" s="6">
         <v>45213.0</v>
@@ -62656,7 +62496,7 @@
         <v>1968</v>
       </c>
       <c r="B1969" s="5" t="s">
-        <v>1590</v>
+        <v>1532</v>
       </c>
       <c r="C1969" s="6">
         <v>45213.0</v>
@@ -62685,7 +62525,7 @@
         <v>1969</v>
       </c>
       <c r="B1970" s="5" t="s">
-        <v>1591</v>
+        <v>1533</v>
       </c>
       <c r="C1970" s="6">
         <v>45213.0</v>
@@ -62743,7 +62583,7 @@
         <v>1971</v>
       </c>
       <c r="B1972" s="5" t="s">
-        <v>1517</v>
+        <v>1459</v>
       </c>
       <c r="C1972" s="6">
         <v>45213.0</v>
@@ -62772,7 +62612,7 @@
         <v>1972</v>
       </c>
       <c r="B1973" s="5" t="s">
-        <v>1468</v>
+        <v>1412</v>
       </c>
       <c r="C1973" s="6">
         <v>45213.0</v>
@@ -62801,7 +62641,7 @@
         <v>1973</v>
       </c>
       <c r="B1974" s="5" t="s">
-        <v>1592</v>
+        <v>1534</v>
       </c>
       <c r="C1974" s="6">
         <v>45213.0</v>
@@ -62830,7 +62670,7 @@
         <v>1974</v>
       </c>
       <c r="B1975" s="5" t="s">
-        <v>1593</v>
+        <v>1535</v>
       </c>
       <c r="C1975" s="6">
         <v>45213.0</v>
@@ -62859,7 +62699,7 @@
         <v>1975</v>
       </c>
       <c r="B1976" s="5" t="s">
-        <v>1594</v>
+        <v>1536</v>
       </c>
       <c r="C1976" s="6">
         <v>45213.0</v>
@@ -62888,7 +62728,7 @@
         <v>1976</v>
       </c>
       <c r="B1977" s="5" t="s">
-        <v>1595</v>
+        <v>1537</v>
       </c>
       <c r="C1977" s="6">
         <v>45213.0</v>
@@ -62917,7 +62757,7 @@
         <v>1977</v>
       </c>
       <c r="B1978" s="5" t="s">
-        <v>1596</v>
+        <v>1538</v>
       </c>
       <c r="C1978" s="6">
         <v>45215.0</v>
@@ -62946,7 +62786,7 @@
         <v>1978</v>
       </c>
       <c r="B1979" s="5" t="s">
-        <v>1597</v>
+        <v>1539</v>
       </c>
       <c r="C1979" s="6">
         <v>45215.0</v>
@@ -62975,7 +62815,7 @@
         <v>1979</v>
       </c>
       <c r="B1980" s="5" t="s">
-        <v>1598</v>
+        <v>1540</v>
       </c>
       <c r="C1980" s="6">
         <v>45215.0</v>
@@ -63004,7 +62844,7 @@
         <v>1980</v>
       </c>
       <c r="B1981" s="5" t="s">
-        <v>1599</v>
+        <v>1541</v>
       </c>
       <c r="C1981" s="6">
         <v>45215.0</v>
@@ -63033,7 +62873,7 @@
         <v>1981</v>
       </c>
       <c r="B1982" s="5" t="s">
-        <v>1600</v>
+        <v>1542</v>
       </c>
       <c r="C1982" s="6">
         <v>45215.0</v>
@@ -63062,7 +62902,7 @@
         <v>1982</v>
       </c>
       <c r="B1983" s="5" t="s">
-        <v>1601</v>
+        <v>1543</v>
       </c>
       <c r="C1983" s="6">
         <v>45216.0</v>
@@ -63091,7 +62931,7 @@
         <v>1983</v>
       </c>
       <c r="B1984" s="5" t="s">
-        <v>1602</v>
+        <v>1544</v>
       </c>
       <c r="C1984" s="6">
         <v>45216.0</v>
@@ -63120,7 +62960,7 @@
         <v>1984</v>
       </c>
       <c r="B1985" s="5" t="s">
-        <v>1603</v>
+        <v>1545</v>
       </c>
       <c r="C1985" s="6">
         <v>45216.0</v>
@@ -63149,7 +62989,7 @@
         <v>1985</v>
       </c>
       <c r="B1986" s="5" t="s">
-        <v>1604</v>
+        <v>1546</v>
       </c>
       <c r="C1986" s="6">
         <v>45216.0</v>
@@ -63178,7 +63018,7 @@
         <v>1986</v>
       </c>
       <c r="B1987" s="5" t="s">
-        <v>1604</v>
+        <v>1546</v>
       </c>
       <c r="C1987" s="6">
         <v>45216.0</v>
@@ -63207,7 +63047,7 @@
         <v>1987</v>
       </c>
       <c r="B1988" s="5" t="s">
-        <v>1601</v>
+        <v>1543</v>
       </c>
       <c r="C1988" s="6">
         <v>45216.0</v>
@@ -63236,7 +63076,7 @@
         <v>1988</v>
       </c>
       <c r="B1989" s="5" t="s">
-        <v>1605</v>
+        <v>1547</v>
       </c>
       <c r="C1989" s="6">
         <v>45216.0</v>
@@ -63265,7 +63105,7 @@
         <v>1989</v>
       </c>
       <c r="B1990" s="5" t="s">
-        <v>1601</v>
+        <v>1543</v>
       </c>
       <c r="C1990" s="6">
         <v>45216.0</v>
@@ -63323,7 +63163,7 @@
         <v>1991</v>
       </c>
       <c r="B1992" s="5" t="s">
-        <v>1606</v>
+        <v>1548</v>
       </c>
       <c r="C1992" s="6">
         <v>45216.0</v>
@@ -63352,7 +63192,7 @@
         <v>1992</v>
       </c>
       <c r="B1993" s="5" t="s">
-        <v>1607</v>
+        <v>1549</v>
       </c>
       <c r="C1993" s="6">
         <v>45216.0</v>
@@ -63381,7 +63221,7 @@
         <v>1993</v>
       </c>
       <c r="B1994" s="5" t="s">
-        <v>1608</v>
+        <v>1550</v>
       </c>
       <c r="C1994" s="6">
         <v>45217.0</v>
@@ -63439,7 +63279,7 @@
         <v>1995</v>
       </c>
       <c r="B1996" s="5" t="s">
-        <v>1609</v>
+        <v>1551</v>
       </c>
       <c r="C1996" s="6">
         <v>45217.0</v>
@@ -63468,7 +63308,7 @@
         <v>1996</v>
       </c>
       <c r="B1997" s="5" t="s">
-        <v>1610</v>
+        <v>1552</v>
       </c>
       <c r="C1997" s="6">
         <v>45217.0</v>
@@ -63497,7 +63337,7 @@
         <v>1997</v>
       </c>
       <c r="B1998" s="5" t="s">
-        <v>1316</v>
+        <v>1284</v>
       </c>
       <c r="C1998" s="6">
         <v>45217.0</v>
@@ -63526,7 +63366,7 @@
         <v>1998</v>
       </c>
       <c r="B1999" s="5" t="s">
-        <v>1611</v>
+        <v>1553</v>
       </c>
       <c r="C1999" s="6">
         <v>45217.0</v>
@@ -63555,7 +63395,7 @@
         <v>1999</v>
       </c>
       <c r="B2000" s="5" t="s">
-        <v>1612</v>
+        <v>1554</v>
       </c>
       <c r="C2000" s="6">
         <v>45218.0</v>
@@ -63584,7 +63424,7 @@
         <v>2000</v>
       </c>
       <c r="B2001" s="5" t="s">
-        <v>1613</v>
+        <v>1555</v>
       </c>
       <c r="C2001" s="6">
         <v>45218.0</v>
@@ -63613,7 +63453,7 @@
         <v>2001</v>
       </c>
       <c r="B2002" s="5" t="s">
-        <v>1613</v>
+        <v>1555</v>
       </c>
       <c r="C2002" s="6">
         <v>45218.0</v>
@@ -63642,7 +63482,7 @@
         <v>2002</v>
       </c>
       <c r="B2003" s="5" t="s">
-        <v>1614</v>
+        <v>1556</v>
       </c>
       <c r="C2003" s="6">
         <v>45218.0</v>
@@ -63671,7 +63511,7 @@
         <v>2003</v>
       </c>
       <c r="B2004" s="5" t="s">
-        <v>1615</v>
+        <v>1557</v>
       </c>
       <c r="C2004" s="6">
         <v>45218.0</v>
@@ -63729,7 +63569,7 @@
         <v>2005</v>
       </c>
       <c r="B2006" s="5" t="s">
-        <v>1616</v>
+        <v>1558</v>
       </c>
       <c r="C2006" s="6">
         <v>45218.0</v>
@@ -63758,7 +63598,7 @@
         <v>2006</v>
       </c>
       <c r="B2007" s="5" t="s">
-        <v>1617</v>
+        <v>1559</v>
       </c>
       <c r="C2007" s="6">
         <v>45218.0</v>
@@ -63787,7 +63627,7 @@
         <v>2007</v>
       </c>
       <c r="B2008" s="5" t="s">
-        <v>1618</v>
+        <v>1560</v>
       </c>
       <c r="C2008" s="6">
         <v>45218.0</v>
@@ -63816,7 +63656,7 @@
         <v>2008</v>
       </c>
       <c r="B2009" s="5" t="s">
-        <v>1402</v>
+        <v>1354</v>
       </c>
       <c r="C2009" s="6">
         <v>45219.0</v>
@@ -63874,7 +63714,7 @@
         <v>2010</v>
       </c>
       <c r="B2011" s="5" t="s">
-        <v>1619</v>
+        <v>1561</v>
       </c>
       <c r="C2011" s="6">
         <v>45219.0</v>
@@ -63903,7 +63743,7 @@
         <v>2011</v>
       </c>
       <c r="B2012" s="5" t="s">
-        <v>1620</v>
+        <v>1562</v>
       </c>
       <c r="C2012" s="6">
         <v>45219.0</v>
@@ -63932,7 +63772,7 @@
         <v>2012</v>
       </c>
       <c r="B2013" s="5" t="s">
-        <v>1621</v>
+        <v>1563</v>
       </c>
       <c r="C2013" s="6">
         <v>45220.0</v>
@@ -63961,7 +63801,7 @@
         <v>2013</v>
       </c>
       <c r="B2014" s="5" t="s">
-        <v>1622</v>
+        <v>1564</v>
       </c>
       <c r="C2014" s="6">
         <v>45220.0</v>
@@ -63990,7 +63830,7 @@
         <v>2014</v>
       </c>
       <c r="B2015" s="5" t="s">
-        <v>1623</v>
+        <v>1565</v>
       </c>
       <c r="C2015" s="6">
         <v>45221.0</v>
@@ -64019,7 +63859,7 @@
         <v>2015</v>
       </c>
       <c r="B2016" s="5" t="s">
-        <v>1623</v>
+        <v>1565</v>
       </c>
       <c r="C2016" s="6">
         <v>45221.0</v>
@@ -64048,7 +63888,7 @@
         <v>2016</v>
       </c>
       <c r="B2017" s="5" t="s">
-        <v>1624</v>
+        <v>1566</v>
       </c>
       <c r="C2017" s="6">
         <v>45221.0</v>
@@ -64077,7 +63917,7 @@
         <v>2017</v>
       </c>
       <c r="B2018" s="5" t="s">
-        <v>1625</v>
+        <v>1567</v>
       </c>
       <c r="C2018" s="6">
         <v>45222.0</v>
@@ -64106,7 +63946,7 @@
         <v>2018</v>
       </c>
       <c r="B2019" s="5" t="s">
-        <v>1626</v>
+        <v>1568</v>
       </c>
       <c r="C2019" s="6">
         <v>45222.0</v>
@@ -64135,7 +63975,7 @@
         <v>2019</v>
       </c>
       <c r="B2020" s="5" t="s">
-        <v>1627</v>
+        <v>1569</v>
       </c>
       <c r="C2020" s="6">
         <v>45222.0</v>
@@ -64164,7 +64004,7 @@
         <v>2020</v>
       </c>
       <c r="B2021" s="5" t="s">
-        <v>1628</v>
+        <v>1570</v>
       </c>
       <c r="C2021" s="6">
         <v>45222.0</v>
@@ -64193,7 +64033,7 @@
         <v>2021</v>
       </c>
       <c r="B2022" s="5" t="s">
-        <v>1629</v>
+        <v>1571</v>
       </c>
       <c r="C2022" s="6">
         <v>45222.0</v>
@@ -64222,7 +64062,7 @@
         <v>2022</v>
       </c>
       <c r="B2023" s="5" t="s">
-        <v>1630</v>
+        <v>1572</v>
       </c>
       <c r="C2023" s="6">
         <v>45223.0</v>
@@ -64251,7 +64091,7 @@
         <v>2023</v>
       </c>
       <c r="B2024" s="5" t="s">
-        <v>1631</v>
+        <v>1573</v>
       </c>
       <c r="C2024" s="6">
         <v>45223.0</v>
@@ -64280,7 +64120,7 @@
         <v>2024</v>
       </c>
       <c r="B2025" s="5" t="s">
-        <v>1521</v>
+        <v>1463</v>
       </c>
       <c r="C2025" s="6">
         <v>45223.0</v>
@@ -64309,7 +64149,7 @@
         <v>2025</v>
       </c>
       <c r="B2026" s="5" t="s">
-        <v>1632</v>
+        <v>1574</v>
       </c>
       <c r="C2026" s="6">
         <v>45223.0</v>
@@ -64338,7 +64178,7 @@
         <v>2026</v>
       </c>
       <c r="B2027" s="5" t="s">
-        <v>1605</v>
+        <v>1547</v>
       </c>
       <c r="C2027" s="6">
         <v>45223.0</v>
@@ -64367,7 +64207,7 @@
         <v>2027</v>
       </c>
       <c r="B2028" s="5" t="s">
-        <v>1633</v>
+        <v>1575</v>
       </c>
       <c r="C2028" s="6">
         <v>45223.0</v>
@@ -64396,7 +64236,7 @@
         <v>2028</v>
       </c>
       <c r="B2029" s="5" t="s">
-        <v>1634</v>
+        <v>1576</v>
       </c>
       <c r="C2029" s="6">
         <v>45223.0</v>
@@ -64425,7 +64265,7 @@
         <v>2029</v>
       </c>
       <c r="B2030" s="5" t="s">
-        <v>1635</v>
+        <v>1577</v>
       </c>
       <c r="C2030" s="6">
         <v>45223.0</v>
@@ -64454,7 +64294,7 @@
         <v>2030</v>
       </c>
       <c r="B2031" s="5" t="s">
-        <v>1636</v>
+        <v>1578</v>
       </c>
       <c r="C2031" s="6">
         <v>45223.0</v>
@@ -64483,7 +64323,7 @@
         <v>2031</v>
       </c>
       <c r="B2032" s="5" t="s">
-        <v>1637</v>
+        <v>1579</v>
       </c>
       <c r="C2032" s="6">
         <v>45224.0</v>
@@ -64512,7 +64352,7 @@
         <v>2032</v>
       </c>
       <c r="B2033" s="5" t="s">
-        <v>1638</v>
+        <v>1580</v>
       </c>
       <c r="C2033" s="6">
         <v>45224.0</v>
@@ -64541,7 +64381,7 @@
         <v>2033</v>
       </c>
       <c r="B2034" s="5" t="s">
-        <v>1636</v>
+        <v>1578</v>
       </c>
       <c r="C2034" s="6">
         <v>45224.0</v>
@@ -64570,7 +64410,7 @@
         <v>2034</v>
       </c>
       <c r="B2035" s="5" t="s">
-        <v>1639</v>
+        <v>1581</v>
       </c>
       <c r="C2035" s="6">
         <v>45224.0</v>
@@ -64599,7 +64439,7 @@
         <v>2035</v>
       </c>
       <c r="B2036" s="5" t="s">
-        <v>1640</v>
+        <v>1582</v>
       </c>
       <c r="C2036" s="6">
         <v>45224.0</v>
@@ -64628,7 +64468,7 @@
         <v>2036</v>
       </c>
       <c r="B2037" s="5" t="s">
-        <v>1641</v>
+        <v>1583</v>
       </c>
       <c r="C2037" s="6">
         <v>45225.0</v>
@@ -64686,7 +64526,7 @@
         <v>2038</v>
       </c>
       <c r="B2039" s="5" t="s">
-        <v>1642</v>
+        <v>1584</v>
       </c>
       <c r="C2039" s="6">
         <v>45225.0</v>
@@ -64715,7 +64555,7 @@
         <v>2039</v>
       </c>
       <c r="B2040" s="5" t="s">
-        <v>1643</v>
+        <v>1585</v>
       </c>
       <c r="C2040" s="6">
         <v>45225.0</v>
@@ -64744,7 +64584,7 @@
         <v>2040</v>
       </c>
       <c r="B2041" s="5" t="s">
-        <v>1644</v>
+        <v>1586</v>
       </c>
       <c r="C2041" s="6">
         <v>45225.0</v>
@@ -64773,7 +64613,7 @@
         <v>2041</v>
       </c>
       <c r="B2042" s="5" t="s">
-        <v>1644</v>
+        <v>1586</v>
       </c>
       <c r="C2042" s="6">
         <v>45225.0</v>
@@ -64802,7 +64642,7 @@
         <v>2042</v>
       </c>
       <c r="B2043" s="5" t="s">
-        <v>1645</v>
+        <v>1587</v>
       </c>
       <c r="C2043" s="6">
         <v>45226.0</v>
@@ -64831,7 +64671,7 @@
         <v>2043</v>
       </c>
       <c r="B2044" s="5" t="s">
-        <v>1646</v>
+        <v>1588</v>
       </c>
       <c r="C2044" s="6">
         <v>45226.0</v>
@@ -64918,7 +64758,7 @@
         <v>2046</v>
       </c>
       <c r="B2047" s="5" t="s">
-        <v>1647</v>
+        <v>1589</v>
       </c>
       <c r="C2047" s="6">
         <v>45227.0</v>
@@ -64947,7 +64787,7 @@
         <v>2047</v>
       </c>
       <c r="B2048" s="5" t="s">
-        <v>1648</v>
+        <v>1590</v>
       </c>
       <c r="C2048" s="6">
         <v>45227.0</v>
@@ -64976,7 +64816,7 @@
         <v>2048</v>
       </c>
       <c r="B2049" s="5" t="s">
-        <v>1649</v>
+        <v>1591</v>
       </c>
       <c r="C2049" s="6">
         <v>45227.0</v>
@@ -65005,7 +64845,7 @@
         <v>2049</v>
       </c>
       <c r="B2050" s="5" t="s">
-        <v>1650</v>
+        <v>1592</v>
       </c>
       <c r="C2050" s="6">
         <v>45228.0</v>
@@ -65034,7 +64874,7 @@
         <v>2050</v>
       </c>
       <c r="B2051" s="5" t="s">
-        <v>1651</v>
+        <v>1593</v>
       </c>
       <c r="C2051" s="6">
         <v>45228.0</v>
@@ -65063,7 +64903,7 @@
         <v>2051</v>
       </c>
       <c r="B2052" s="5" t="s">
-        <v>1652</v>
+        <v>1594</v>
       </c>
       <c r="C2052" s="6">
         <v>45229.0</v>
@@ -65092,7 +64932,7 @@
         <v>2052</v>
       </c>
       <c r="B2053" s="5" t="s">
-        <v>1653</v>
+        <v>1595</v>
       </c>
       <c r="C2053" s="6">
         <v>45229.0</v>
@@ -65121,7 +64961,7 @@
         <v>2053</v>
       </c>
       <c r="B2054" s="5" t="s">
-        <v>1654</v>
+        <v>1596</v>
       </c>
       <c r="C2054" s="6">
         <v>45229.0</v>
@@ -65150,7 +64990,7 @@
         <v>2054</v>
       </c>
       <c r="B2055" s="5" t="s">
-        <v>1655</v>
+        <v>1597</v>
       </c>
       <c r="C2055" s="6">
         <v>45229.0</v>
@@ -65179,7 +65019,7 @@
         <v>2055</v>
       </c>
       <c r="B2056" s="8" t="s">
-        <v>1656</v>
+        <v>1598</v>
       </c>
       <c r="C2056" s="6">
         <v>45229.0</v>
@@ -65237,7 +65077,7 @@
         <v>2057</v>
       </c>
       <c r="B2058" s="5" t="s">
-        <v>1657</v>
+        <v>1599</v>
       </c>
       <c r="C2058" s="6">
         <v>45230.0</v>
@@ -65266,7 +65106,7 @@
         <v>2058</v>
       </c>
       <c r="B2059" s="5" t="s">
-        <v>1658</v>
+        <v>1600</v>
       </c>
       <c r="C2059" s="6">
         <v>45230.0</v>
@@ -65353,7 +65193,7 @@
         <v>2061</v>
       </c>
       <c r="B2062" s="5" t="s">
-        <v>1659</v>
+        <v>1601</v>
       </c>
       <c r="C2062" s="6">
         <v>45230.0</v>
@@ -65382,7 +65222,7 @@
         <v>2062</v>
       </c>
       <c r="B2063" s="5" t="s">
-        <v>1660</v>
+        <v>1602</v>
       </c>
       <c r="C2063" s="6">
         <v>45230.0</v>
@@ -65411,7 +65251,7 @@
         <v>2063</v>
       </c>
       <c r="B2064" s="5" t="s">
-        <v>1661</v>
+        <v>1603</v>
       </c>
       <c r="C2064" s="6">
         <v>45231.0</v>
@@ -65440,7 +65280,7 @@
         <v>2064</v>
       </c>
       <c r="B2065" s="5" t="s">
-        <v>1662</v>
+        <v>1604</v>
       </c>
       <c r="C2065" s="6">
         <v>45232.0</v>
@@ -65469,7 +65309,7 @@
         <v>2065</v>
       </c>
       <c r="B2066" s="5" t="s">
-        <v>1663</v>
+        <v>1605</v>
       </c>
       <c r="C2066" s="6">
         <v>45232.0</v>
@@ -65498,7 +65338,7 @@
         <v>2066</v>
       </c>
       <c r="B2067" s="5" t="s">
-        <v>1664</v>
+        <v>1606</v>
       </c>
       <c r="C2067" s="6">
         <v>45232.0</v>
@@ -65527,7 +65367,7 @@
         <v>2067</v>
       </c>
       <c r="B2068" s="5" t="s">
-        <v>1665</v>
+        <v>1607</v>
       </c>
       <c r="C2068" s="6">
         <v>45232.0</v>
@@ -65556,7 +65396,7 @@
         <v>2068</v>
       </c>
       <c r="B2069" s="5" t="s">
-        <v>1666</v>
+        <v>1608</v>
       </c>
       <c r="C2069" s="6">
         <v>45232.0</v>
@@ -65585,7 +65425,7 @@
         <v>2069</v>
       </c>
       <c r="B2070" s="5" t="s">
-        <v>1667</v>
+        <v>1609</v>
       </c>
       <c r="C2070" s="6">
         <v>45233.0</v>
@@ -65614,7 +65454,7 @@
         <v>2070</v>
       </c>
       <c r="B2071" s="5" t="s">
-        <v>1668</v>
+        <v>1610</v>
       </c>
       <c r="C2071" s="6">
         <v>45234.0</v>
@@ -65643,7 +65483,7 @@
         <v>2071</v>
       </c>
       <c r="B2072" s="5" t="s">
-        <v>1669</v>
+        <v>1611</v>
       </c>
       <c r="C2072" s="6">
         <v>45234.0</v>
@@ -65672,7 +65512,7 @@
         <v>2072</v>
       </c>
       <c r="B2073" s="5" t="s">
-        <v>1670</v>
+        <v>1612</v>
       </c>
       <c r="C2073" s="6">
         <v>45234.0</v>
@@ -65701,7 +65541,7 @@
         <v>2073</v>
       </c>
       <c r="B2074" s="5" t="s">
-        <v>1671</v>
+        <v>1613</v>
       </c>
       <c r="C2074" s="6">
         <v>45234.0</v>
@@ -65730,7 +65570,7 @@
         <v>2074</v>
       </c>
       <c r="B2075" s="5" t="s">
-        <v>1605</v>
+        <v>1547</v>
       </c>
       <c r="C2075" s="6">
         <v>45235.0</v>
@@ -65759,7 +65599,7 @@
         <v>2075</v>
       </c>
       <c r="B2076" s="5" t="s">
-        <v>1605</v>
+        <v>1547</v>
       </c>
       <c r="C2076" s="6">
         <v>45235.0</v>
@@ -65788,7 +65628,7 @@
         <v>2076</v>
       </c>
       <c r="B2077" s="5" t="s">
-        <v>1672</v>
+        <v>1614</v>
       </c>
       <c r="C2077" s="6">
         <v>45235.0</v>
@@ -65817,7 +65657,7 @@
         <v>2077</v>
       </c>
       <c r="B2078" s="5" t="s">
-        <v>1673</v>
+        <v>1615</v>
       </c>
       <c r="C2078" s="6">
         <v>45235.0</v>
@@ -65846,7 +65686,7 @@
         <v>2078</v>
       </c>
       <c r="B2079" s="5" t="s">
-        <v>1674</v>
+        <v>1616</v>
       </c>
       <c r="C2079" s="6">
         <v>45235.0</v>
@@ -65875,7 +65715,7 @@
         <v>2079</v>
       </c>
       <c r="B2080" s="5" t="s">
-        <v>1675</v>
+        <v>1617</v>
       </c>
       <c r="C2080" s="6">
         <v>45235.0</v>
@@ -65904,7 +65744,7 @@
         <v>2080</v>
       </c>
       <c r="B2081" s="5" t="s">
-        <v>1676</v>
+        <v>1618</v>
       </c>
       <c r="C2081" s="6">
         <v>45236.0</v>
@@ -65933,7 +65773,7 @@
         <v>2081</v>
       </c>
       <c r="B2082" s="5" t="s">
-        <v>1677</v>
+        <v>1619</v>
       </c>
       <c r="C2082" s="6">
         <v>45236.0</v>
@@ -65962,7 +65802,7 @@
         <v>2082</v>
       </c>
       <c r="B2083" s="5" t="s">
-        <v>1678</v>
+        <v>1620</v>
       </c>
       <c r="C2083" s="6">
         <v>45237.0</v>
@@ -65991,7 +65831,7 @@
         <v>2083</v>
       </c>
       <c r="B2084" s="5" t="s">
-        <v>1678</v>
+        <v>1620</v>
       </c>
       <c r="C2084" s="6">
         <v>45237.0</v>
@@ -66020,7 +65860,7 @@
         <v>2084</v>
       </c>
       <c r="B2085" s="5" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="C2085" s="6">
         <v>45237.0</v>
@@ -66049,7 +65889,7 @@
         <v>2085</v>
       </c>
       <c r="B2086" s="5" t="s">
-        <v>1679</v>
+        <v>1621</v>
       </c>
       <c r="C2086" s="6">
         <v>45237.0</v>
@@ -66078,7 +65918,7 @@
         <v>2086</v>
       </c>
       <c r="B2087" s="5" t="s">
-        <v>1680</v>
+        <v>1622</v>
       </c>
       <c r="C2087" s="6">
         <v>45237.0</v>
@@ -66107,7 +65947,7 @@
         <v>2087</v>
       </c>
       <c r="B2088" s="5" t="s">
-        <v>1681</v>
+        <v>1623</v>
       </c>
       <c r="C2088" s="6">
         <v>45237.0</v>
@@ -66136,7 +65976,7 @@
         <v>2088</v>
       </c>
       <c r="B2089" s="5" t="s">
-        <v>1605</v>
+        <v>1547</v>
       </c>
       <c r="C2089" s="6">
         <v>45237.0</v>
@@ -66165,7 +66005,7 @@
         <v>2089</v>
       </c>
       <c r="B2090" s="5" t="s">
-        <v>1605</v>
+        <v>1547</v>
       </c>
       <c r="C2090" s="6">
         <v>45237.0</v>
@@ -66194,7 +66034,7 @@
         <v>2090</v>
       </c>
       <c r="B2091" s="5" t="s">
-        <v>1682</v>
+        <v>1624</v>
       </c>
       <c r="C2091" s="6">
         <v>45237.0</v>
@@ -66252,7 +66092,7 @@
         <v>2092</v>
       </c>
       <c r="B2093" s="5" t="s">
-        <v>1683</v>
+        <v>1625</v>
       </c>
       <c r="C2093" s="6">
         <v>45238.0</v>
@@ -66281,7 +66121,7 @@
         <v>2093</v>
       </c>
       <c r="B2094" s="5" t="s">
-        <v>1684</v>
+        <v>1626</v>
       </c>
       <c r="C2094" s="6">
         <v>45238.0</v>
@@ -66310,7 +66150,7 @@
         <v>2094</v>
       </c>
       <c r="B2095" s="5" t="s">
-        <v>1685</v>
+        <v>1627</v>
       </c>
       <c r="C2095" s="6">
         <v>45238.0</v>
@@ -66339,7 +66179,7 @@
         <v>2095</v>
       </c>
       <c r="B2096" s="5" t="s">
-        <v>1686</v>
+        <v>1628</v>
       </c>
       <c r="C2096" s="6">
         <v>45238.0</v>
@@ -66368,7 +66208,7 @@
         <v>2096</v>
       </c>
       <c r="B2097" s="5" t="s">
-        <v>1687</v>
+        <v>1629</v>
       </c>
       <c r="C2097" s="6">
         <v>45238.0</v>
@@ -66397,7 +66237,7 @@
         <v>2097</v>
       </c>
       <c r="B2098" s="5" t="s">
-        <v>1688</v>
+        <v>1630</v>
       </c>
       <c r="C2098" s="6">
         <v>45238.0</v>
@@ -66426,7 +66266,7 @@
         <v>2098</v>
       </c>
       <c r="B2099" s="5" t="s">
-        <v>1689</v>
+        <v>1631</v>
       </c>
       <c r="C2099" s="6">
         <v>45238.0</v>
@@ -66455,7 +66295,7 @@
         <v>2099</v>
       </c>
       <c r="B2100" s="5" t="s">
-        <v>1605</v>
+        <v>1547</v>
       </c>
       <c r="C2100" s="6">
         <v>45239.0</v>
@@ -66484,7 +66324,7 @@
         <v>2100</v>
       </c>
       <c r="B2101" s="5" t="s">
-        <v>1690</v>
+        <v>1632</v>
       </c>
       <c r="C2101" s="6">
         <v>45239.0</v>
@@ -66513,7 +66353,7 @@
         <v>2101</v>
       </c>
       <c r="B2102" s="5" t="s">
-        <v>1691</v>
+        <v>1633</v>
       </c>
       <c r="C2102" s="6">
         <v>45239.0</v>
@@ -66542,7 +66382,7 @@
         <v>2102</v>
       </c>
       <c r="B2103" s="5" t="s">
-        <v>1692</v>
+        <v>1634</v>
       </c>
       <c r="C2103" s="6">
         <v>45239.0</v>
@@ -66571,7 +66411,7 @@
         <v>2103</v>
       </c>
       <c r="B2104" s="5" t="s">
-        <v>1605</v>
+        <v>1547</v>
       </c>
       <c r="C2104" s="6">
         <v>45239.0</v>
@@ -66629,7 +66469,7 @@
         <v>2105</v>
       </c>
       <c r="B2106" s="5" t="s">
-        <v>1693</v>
+        <v>1635</v>
       </c>
       <c r="C2106" s="6">
         <v>45239.0</v>
@@ -66658,7 +66498,7 @@
         <v>2106</v>
       </c>
       <c r="B2107" s="5" t="s">
-        <v>1694</v>
+        <v>1636</v>
       </c>
       <c r="C2107" s="6">
         <v>45239.0</v>
@@ -66687,7 +66527,7 @@
         <v>2107</v>
       </c>
       <c r="B2108" s="5" t="s">
-        <v>1695</v>
+        <v>1637</v>
       </c>
       <c r="C2108" s="6">
         <v>45240.0</v>
@@ -66716,7 +66556,7 @@
         <v>2108</v>
       </c>
       <c r="B2109" s="5" t="s">
-        <v>1696</v>
+        <v>1638</v>
       </c>
       <c r="C2109" s="6">
         <v>45240.0</v>
@@ -66745,7 +66585,7 @@
         <v>2109</v>
       </c>
       <c r="B2110" s="5" t="s">
-        <v>1697</v>
+        <v>1639</v>
       </c>
       <c r="C2110" s="6">
         <v>45240.0</v>
@@ -66774,7 +66614,7 @@
         <v>2110</v>
       </c>
       <c r="B2111" s="5" t="s">
-        <v>1698</v>
+        <v>1640</v>
       </c>
       <c r="C2111" s="6">
         <v>45240.0</v>
@@ -66803,7 +66643,7 @@
         <v>2111</v>
       </c>
       <c r="B2112" s="5" t="s">
-        <v>1699</v>
+        <v>1641</v>
       </c>
       <c r="C2112" s="6">
         <v>45240.0</v>
@@ -66832,7 +66672,7 @@
         <v>2112</v>
       </c>
       <c r="B2113" s="5" t="s">
-        <v>1683</v>
+        <v>1625</v>
       </c>
       <c r="C2113" s="6">
         <v>45240.0</v>
@@ -66861,7 +66701,7 @@
         <v>2113</v>
       </c>
       <c r="B2114" s="5" t="s">
-        <v>1605</v>
+        <v>1547</v>
       </c>
       <c r="C2114" s="6">
         <v>45241.0</v>
@@ -66890,7 +66730,7 @@
         <v>2114</v>
       </c>
       <c r="B2115" s="5" t="s">
-        <v>1700</v>
+        <v>1642</v>
       </c>
       <c r="C2115" s="6">
         <v>45241.0</v>
@@ -66919,7 +66759,7 @@
         <v>2115</v>
       </c>
       <c r="B2116" s="5" t="s">
-        <v>1269</v>
+        <v>1246</v>
       </c>
       <c r="C2116" s="6">
         <v>45241.0</v>
@@ -66948,7 +66788,7 @@
         <v>2116</v>
       </c>
       <c r="B2117" s="5" t="s">
-        <v>1701</v>
+        <v>1643</v>
       </c>
       <c r="C2117" s="6">
         <v>45241.0</v>
@@ -66977,7 +66817,7 @@
         <v>2117</v>
       </c>
       <c r="B2118" s="5" t="s">
-        <v>1702</v>
+        <v>1644</v>
       </c>
       <c r="C2118" s="6">
         <v>45242.0</v>
@@ -67006,7 +66846,7 @@
         <v>2118</v>
       </c>
       <c r="B2119" s="5" t="s">
-        <v>1703</v>
+        <v>1645</v>
       </c>
       <c r="C2119" s="6">
         <v>45242.0</v>
@@ -67035,7 +66875,7 @@
         <v>2119</v>
       </c>
       <c r="B2120" s="5" t="s">
-        <v>1605</v>
+        <v>1547</v>
       </c>
       <c r="C2120" s="6">
         <v>45242.0</v>
@@ -67058,15 +66898,15 @@
       <c r="S2120" s="5"/>
       <c r="T2120" s="5"/>
     </row>
-    <row r="2121" ht="15.75" customHeight="1">
-      <c r="A2121" s="4">
+    <row r="2121" ht="20.25" customHeight="1">
+      <c r="A2121" s="15">
         <f t="shared" si="1"/>
         <v>2120</v>
       </c>
-      <c r="B2121" s="5" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C2121" s="6">
+      <c r="B2121" s="16" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C2121" s="17">
         <v>45242.0</v>
       </c>
       <c r="D2121" s="5"/>
@@ -67093,7 +66933,7 @@
         <v>2121</v>
       </c>
       <c r="B2122" s="5" t="s">
-        <v>1705</v>
+        <v>1647</v>
       </c>
       <c r="C2122" s="6">
         <v>45243.0</v>
@@ -67122,7 +66962,7 @@
         <v>2122</v>
       </c>
       <c r="B2123" s="5" t="s">
-        <v>1706</v>
+        <v>1648</v>
       </c>
       <c r="C2123" s="6">
         <v>45243.0</v>
@@ -67151,7 +66991,7 @@
         <v>2123</v>
       </c>
       <c r="B2124" s="5" t="s">
-        <v>1707</v>
+        <v>1649</v>
       </c>
       <c r="C2124" s="6">
         <v>45243.0</v>
@@ -67180,7 +67020,7 @@
         <v>2124</v>
       </c>
       <c r="B2125" s="5" t="s">
-        <v>1708</v>
+        <v>1650</v>
       </c>
       <c r="C2125" s="6">
         <v>45243.0</v>
@@ -67209,7 +67049,7 @@
         <v>2125</v>
       </c>
       <c r="B2126" s="5" t="s">
-        <v>1709</v>
+        <v>1651</v>
       </c>
       <c r="C2126" s="6">
         <v>45244.0</v>
@@ -67238,7 +67078,7 @@
         <v>2126</v>
       </c>
       <c r="B2127" s="5" t="s">
-        <v>1710</v>
+        <v>1652</v>
       </c>
       <c r="C2127" s="6">
         <v>45244.0</v>
@@ -67267,7 +67107,7 @@
         <v>2127</v>
       </c>
       <c r="B2128" s="5" t="s">
-        <v>1711</v>
+        <v>1653</v>
       </c>
       <c r="C2128" s="6">
         <v>45244.0</v>
@@ -67325,7 +67165,7 @@
         <v>2129</v>
       </c>
       <c r="B2130" s="5" t="s">
-        <v>1712</v>
+        <v>1654</v>
       </c>
       <c r="C2130" s="6">
         <v>45245.0</v>
@@ -67354,7 +67194,7 @@
         <v>2130</v>
       </c>
       <c r="B2131" s="5" t="s">
-        <v>1713</v>
+        <v>1655</v>
       </c>
       <c r="C2131" s="6">
         <v>45245.0</v>
@@ -67383,7 +67223,7 @@
         <v>2131</v>
       </c>
       <c r="B2132" s="5" t="s">
-        <v>1714</v>
+        <v>1656</v>
       </c>
       <c r="C2132" s="6">
         <v>45245.0</v>
@@ -67412,7 +67252,7 @@
         <v>2132</v>
       </c>
       <c r="B2133" s="5" t="s">
-        <v>1715</v>
+        <v>1657</v>
       </c>
       <c r="C2133" s="6">
         <v>45245.0</v>
@@ -67441,7 +67281,7 @@
         <v>2133</v>
       </c>
       <c r="B2134" s="5" t="s">
-        <v>1716</v>
+        <v>1658</v>
       </c>
       <c r="C2134" s="6">
         <v>45245.0</v>
@@ -67470,7 +67310,7 @@
         <v>2134</v>
       </c>
       <c r="B2135" s="5" t="s">
-        <v>1717</v>
+        <v>1659</v>
       </c>
       <c r="C2135" s="6">
         <v>45246.0</v>
@@ -67499,7 +67339,7 @@
         <v>2135</v>
       </c>
       <c r="B2136" s="5" t="s">
-        <v>1354</v>
+        <v>1314</v>
       </c>
       <c r="C2136" s="6">
         <v>45246.0</v>
@@ -67528,7 +67368,7 @@
         <v>2136</v>
       </c>
       <c r="B2137" s="5" t="s">
-        <v>1718</v>
+        <v>1660</v>
       </c>
       <c r="C2137" s="6">
         <v>45246.0</v>
@@ -67557,7 +67397,7 @@
         <v>2137</v>
       </c>
       <c r="B2138" s="5" t="s">
-        <v>1719</v>
+        <v>1661</v>
       </c>
       <c r="C2138" s="6">
         <v>45246.0</v>
@@ -67586,7 +67426,7 @@
         <v>2138</v>
       </c>
       <c r="B2139" s="5" t="s">
-        <v>1720</v>
+        <v>1662</v>
       </c>
       <c r="C2139" s="6">
         <v>45246.0</v>
@@ -67615,7 +67455,7 @@
         <v>2139</v>
       </c>
       <c r="B2140" s="5" t="s">
-        <v>1721</v>
+        <v>1663</v>
       </c>
       <c r="C2140" s="6">
         <v>45246.0</v>
@@ -67644,7 +67484,7 @@
         <v>2140</v>
       </c>
       <c r="B2141" s="5" t="s">
-        <v>1722</v>
+        <v>1664</v>
       </c>
       <c r="C2141" s="6">
         <v>45246.0</v>
@@ -67673,7 +67513,7 @@
         <v>2141</v>
       </c>
       <c r="B2142" s="5" t="s">
-        <v>1723</v>
+        <v>1665</v>
       </c>
       <c r="C2142" s="6">
         <v>45246.0</v>
@@ -67702,7 +67542,7 @@
         <v>2142</v>
       </c>
       <c r="B2143" s="5" t="s">
-        <v>1724</v>
+        <v>1666</v>
       </c>
       <c r="C2143" s="6">
         <v>45246.0</v>
@@ -67731,7 +67571,7 @@
         <v>2143</v>
       </c>
       <c r="B2144" s="5" t="s">
-        <v>1725</v>
+        <v>1667</v>
       </c>
       <c r="C2144" s="6">
         <v>45247.0</v>
@@ -67760,7 +67600,7 @@
         <v>2144</v>
       </c>
       <c r="B2145" s="5" t="s">
-        <v>1726</v>
+        <v>1668</v>
       </c>
       <c r="C2145" s="6">
         <v>45247.0</v>
@@ -67789,7 +67629,7 @@
         <v>2145</v>
       </c>
       <c r="B2146" s="5" t="s">
-        <v>1727</v>
+        <v>1669</v>
       </c>
       <c r="C2146" s="6">
         <v>45247.0</v>
@@ -67818,7 +67658,7 @@
         <v>2146</v>
       </c>
       <c r="B2147" s="5" t="s">
-        <v>1728</v>
+        <v>1670</v>
       </c>
       <c r="C2147" s="6">
         <v>45249.0</v>
@@ -67847,7 +67687,7 @@
         <v>2147</v>
       </c>
       <c r="B2148" s="5" t="s">
-        <v>1729</v>
+        <v>1671</v>
       </c>
       <c r="C2148" s="6">
         <v>45250.0</v>
@@ -67876,7 +67716,7 @@
         <v>2148</v>
       </c>
       <c r="B2149" s="5" t="s">
-        <v>1730</v>
+        <v>1672</v>
       </c>
       <c r="C2149" s="6">
         <v>45250.0</v>
@@ -67905,7 +67745,7 @@
         <v>2149</v>
       </c>
       <c r="B2150" s="5" t="s">
-        <v>1731</v>
+        <v>1673</v>
       </c>
       <c r="C2150" s="6">
         <v>45250.0</v>
@@ -67934,7 +67774,7 @@
         <v>2150</v>
       </c>
       <c r="B2151" s="5" t="s">
-        <v>1732</v>
+        <v>1674</v>
       </c>
       <c r="C2151" s="6">
         <v>45250.0</v>
@@ -67963,7 +67803,7 @@
         <v>2151</v>
       </c>
       <c r="B2152" s="5" t="s">
-        <v>1733</v>
+        <v>1675</v>
       </c>
       <c r="C2152" s="6">
         <v>45250.0</v>
@@ -67992,7 +67832,7 @@
         <v>2152</v>
       </c>
       <c r="B2153" s="12" t="s">
-        <v>1734</v>
+        <v>1676</v>
       </c>
       <c r="C2153" s="6">
         <v>45251.0</v>
@@ -68021,7 +67861,7 @@
         <v>2153</v>
       </c>
       <c r="B2154" s="12" t="s">
-        <v>1735</v>
+        <v>1677</v>
       </c>
       <c r="C2154" s="6">
         <v>45251.0</v>
@@ -68050,7 +67890,7 @@
         <v>2154</v>
       </c>
       <c r="B2155" s="5" t="s">
-        <v>1736</v>
+        <v>1678</v>
       </c>
       <c r="C2155" s="6">
         <v>45251.0</v>
@@ -68079,7 +67919,7 @@
         <v>2155</v>
       </c>
       <c r="B2156" s="5" t="s">
-        <v>1737</v>
+        <v>1679</v>
       </c>
       <c r="C2156" s="6">
         <v>45252.0</v>
@@ -68108,7 +67948,7 @@
         <v>2156</v>
       </c>
       <c r="B2157" s="5" t="s">
-        <v>1738</v>
+        <v>1680</v>
       </c>
       <c r="C2157" s="6">
         <v>45253.0</v>
@@ -68137,7 +67977,7 @@
         <v>2157</v>
       </c>
       <c r="B2158" s="5" t="s">
-        <v>1739</v>
+        <v>1681</v>
       </c>
       <c r="C2158" s="6">
         <v>45253.0</v>
@@ -68166,7 +68006,7 @@
         <v>2158</v>
       </c>
       <c r="B2159" s="5" t="s">
-        <v>1740</v>
+        <v>1682</v>
       </c>
       <c r="C2159" s="6">
         <v>45253.0</v>
@@ -68195,7 +68035,7 @@
         <v>2159</v>
       </c>
       <c r="B2160" s="5" t="s">
-        <v>1741</v>
+        <v>1683</v>
       </c>
       <c r="C2160" s="6">
         <v>45253.0</v>
@@ -68224,7 +68064,7 @@
         <v>2160</v>
       </c>
       <c r="B2161" s="5" t="s">
-        <v>1742</v>
+        <v>1684</v>
       </c>
       <c r="C2161" s="6">
         <v>45254.0</v>
@@ -68253,7 +68093,7 @@
         <v>2161</v>
       </c>
       <c r="B2162" s="5" t="s">
-        <v>1743</v>
+        <v>1685</v>
       </c>
       <c r="C2162" s="6">
         <v>45254.0</v>
@@ -68282,7 +68122,7 @@
         <v>2162</v>
       </c>
       <c r="B2163" s="5" t="s">
-        <v>1744</v>
+        <v>1686</v>
       </c>
       <c r="C2163" s="6">
         <v>45254.0</v>
@@ -68311,7 +68151,7 @@
         <v>2163</v>
       </c>
       <c r="B2164" s="5" t="s">
-        <v>1745</v>
+        <v>1687</v>
       </c>
       <c r="C2164" s="6">
         <v>45254.0</v>
@@ -72564,6 +72404,329 @@
       <c r="T2365" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$C$2165">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="10/3/2023"/>
+        <filter val="1/2/2023"/>
+        <filter val="8/1/2023"/>
+        <filter val="7/15/2023"/>
+        <filter val="8/26/2023"/>
+        <filter val="10/11/2023"/>
+        <filter val="11/22/2023"/>
+        <filter val="10/25/2023"/>
+        <filter val="2/1/2023"/>
+        <filter val="2/19/2023"/>
+        <filter val="2/20/2023"/>
+        <filter val="3/16/2023"/>
+        <filter val="4/27/2023"/>
+        <filter val="4/1/2023"/>
+        <filter val="11/19/2023"/>
+        <filter val="3/31/2023"/>
+        <filter val="6/1/2023"/>
+        <filter val="6/18/2023"/>
+        <filter val="7/29/2023"/>
+        <filter val="4/3/2023"/>
+        <filter val="4/25/2023"/>
+        <filter val="10/27/2023"/>
+        <filter val="2/17/2023"/>
+        <filter val="7/13/2023"/>
+        <filter val="11/10/2023"/>
+        <filter val="11/4/2023"/>
+        <filter val="4/11/2023"/>
+        <filter val="5/19/2023"/>
+        <filter val="8/3/2023"/>
+        <filter val="2/3/2023"/>
+        <filter val="6/3/2023"/>
+        <filter val="10/30/2023"/>
+        <filter val="5/24/2023"/>
+        <filter val="7/2/2023"/>
+        <filter val="1/23/2023"/>
+        <filter val="5/2/2023"/>
+        <filter val="9/2/2023"/>
+        <filter val="8/12/2023"/>
+        <filter val="3/2/2023"/>
+        <filter val="7/27/2023"/>
+        <filter val="5/10/2023"/>
+        <filter val="10/5/2023"/>
+        <filter val="2/22/2023"/>
+        <filter val="8/31/2023"/>
+        <filter val="9/4/2023"/>
+        <filter val="11/17/2023"/>
+        <filter val="1/21/2023"/>
+        <filter val="4/15/2023"/>
+        <filter val="5/20/2023"/>
+        <filter val="6/23/2023"/>
+        <filter val="2/5/2023"/>
+        <filter val="9/11/2023"/>
+        <filter val="3/18/2023"/>
+        <filter val="11/6/2023"/>
+        <filter val="11/20/2023"/>
+        <filter val="2/10/2023"/>
+        <filter val="1/4/2023"/>
+        <filter val="7/25/2023"/>
+        <filter val="5/4/2023"/>
+        <filter val="1/27/2023"/>
+        <filter val="3/12/2023"/>
+        <filter val="5/26/2023"/>
+        <filter val="11/24/2023"/>
+        <filter val="8/14/2023"/>
+        <filter val="3/6/2023"/>
+        <filter val="3/28/2023"/>
+        <filter val="3/9/2023"/>
+        <filter val="8/24/2023"/>
+        <filter val="7/6/2023"/>
+        <filter val="5/14/2023"/>
+        <filter val="6/8/2023"/>
+        <filter val="6/5/2023"/>
+        <filter val="2/26/2023"/>
+        <filter val="5/17/2023"/>
+        <filter val="1/30/2023"/>
+        <filter val="9/23/2023"/>
+        <filter val="7/9/2023"/>
+        <filter val="6/16/2023"/>
+        <filter val="1/11/2023"/>
+        <filter val="10/18/2023"/>
+        <filter val="7/7/2023"/>
+        <filter val="5/29/2023"/>
+        <filter val="11/14/2023"/>
+        <filter val="10/20/2023"/>
+        <filter val="3/24/2023"/>
+        <filter val="1/15/2023"/>
+        <filter val="10/17/2023"/>
+        <filter val="10/9/2023"/>
+        <filter val="11/9/2023"/>
+        <filter val="4/8/2023"/>
+        <filter val="8/18/2023"/>
+        <filter val="1/8/2023"/>
+        <filter val="2/8/2023"/>
+        <filter val="2/7/2023"/>
+        <filter val="2/13/2023"/>
+        <filter val="3/23/2023"/>
+        <filter val="2/12/2023"/>
+        <filter val="2/27/2023"/>
+        <filter val="4/7/2023"/>
+        <filter val="11/13/2023"/>
+        <filter val="5/7/2023"/>
+        <filter val="9/14/2023"/>
+        <filter val="5/31/2023"/>
+        <filter val="1/16/2023"/>
+        <filter val="4/20/2023"/>
+        <filter val="2/28/2023"/>
+        <filter val="10/21/2023"/>
+        <filter val="4/9/2023"/>
+        <filter val="7/10/2023"/>
+        <filter val="2/6/2023"/>
+        <filter val="10/16/2023"/>
+        <filter val="11/7/2023"/>
+        <filter val="9/8/2023"/>
+        <filter val="9/16/2023"/>
+        <filter val="1/20/2023"/>
+        <filter val="7/8/2023"/>
+        <filter val="5/27/2023"/>
+        <filter val="6/25/2023"/>
+        <filter val="11/12/2023"/>
+        <filter val="5/5/2023"/>
+        <filter val="8/6/2023"/>
+        <filter val="6/9/2023"/>
+        <filter val="4/17/2023"/>
+        <filter val="5/13/2023"/>
+        <filter val="7/21/2023"/>
+        <filter val="5/12/2023"/>
+        <filter val="7/20/2023"/>
+        <filter val="7/26/2023"/>
+        <filter val="6/15/2023"/>
+        <filter val="8/29/2023"/>
+        <filter val="3/5/2023"/>
+        <filter val="8/23/2023"/>
+        <filter val="8/22/2023"/>
+        <filter val="7/11/2023"/>
+        <filter val="6/14/2023"/>
+        <filter val="7/17/2023"/>
+        <filter val="8/28/2023"/>
+        <filter val="3/4/2023"/>
+        <filter val="5/18/2023"/>
+        <filter val="6/4/2023"/>
+        <filter val="9/25/2023"/>
+        <filter val="8/13/2023"/>
+        <filter val="1/9/2023"/>
+        <filter val="5/6/2023"/>
+        <filter val="7/30/2023"/>
+        <filter val="1/3/2023"/>
+        <filter val="10/4/2023"/>
+        <filter val="1/25/2023"/>
+        <filter val="4/16/2023"/>
+        <filter val="5/22/2023"/>
+        <filter val="9/3/2023"/>
+        <filter val="4/10/2023"/>
+        <filter val="11/8/2023"/>
+        <filter val="6/24/2023"/>
+        <filter val="4/2/2023"/>
+        <filter val="8/5/2023"/>
+        <filter val="9/15/2023"/>
+        <filter val="3/14/2023"/>
+        <filter val="11/2/2023"/>
+        <filter val="8/19/2023"/>
+        <filter val="10/26/2023"/>
+        <filter val="9/1/2023"/>
+        <filter val="6/20/2023"/>
+        <filter val="2/21/2023"/>
+        <filter val="7/1/2023"/>
+        <filter val="2/2/2023"/>
+        <filter val="11/3/2023"/>
+        <filter val="3/15/2023"/>
+        <filter val="4/26/2023"/>
+        <filter val="1/10/2023"/>
+        <filter val="2/18/2023"/>
+        <filter val="3/29/2023"/>
+        <filter val="7/31/2023"/>
+        <filter val="6/17/2023"/>
+        <filter val="8/25/2023"/>
+        <filter val="1/1/2023"/>
+        <filter val="9/22/2023"/>
+        <filter val="3/1/2023"/>
+        <filter val="7/14/2023"/>
+        <filter val="5/1/2023"/>
+        <filter val="8/11/2023"/>
+        <filter val="4/12/2023"/>
+        <filter val="5/23/2023"/>
+        <filter val="10/10/2023"/>
+        <filter val="1/24/2023"/>
+        <filter val="10/24/2023"/>
+        <filter val="11/21/2023"/>
+        <filter val="9/10/2023"/>
+        <filter val="9/24/2023"/>
+        <filter val="9/19/2023"/>
+        <filter val="4/14/2023"/>
+        <filter val="6/22/2023"/>
+        <filter val="11/1/2023"/>
+        <filter val="5/21/2023"/>
+        <filter val="11/23/2023"/>
+        <filter val="1/26/2023"/>
+        <filter val="10/2/2023"/>
+        <filter val="7/16/2023"/>
+        <filter val="4/28/2023"/>
+        <filter val="8/4/2023"/>
+        <filter val="10/6/2023"/>
+        <filter val="10/31/2023"/>
+        <filter val="11/11/2023"/>
+        <filter val="7/12/2023"/>
+        <filter val="1/5/2023"/>
+        <filter val="9/26/2023"/>
+        <filter val="8/15/2023"/>
+        <filter val="10/22/2023"/>
+        <filter val="3/13/2023"/>
+        <filter val="2/23/2023"/>
+        <filter val="2/16/2023"/>
+        <filter val="3/19/2023"/>
+        <filter val="7/18/2023"/>
+        <filter val="10/28/2023"/>
+        <filter val="8/30/2023"/>
+        <filter val="4/4/2023"/>
+        <filter val="9/17/2023"/>
+        <filter val="1/17/2023"/>
+        <filter val="3/25/2023"/>
+        <filter val="5/30/2023"/>
+        <filter val="3/3/2023"/>
+        <filter val="3/22/2023"/>
+        <filter val="6/19/2023"/>
+        <filter val="1/14/2023"/>
+        <filter val="7/3/2023"/>
+        <filter val="5/11/2023"/>
+        <filter val="8/21/2023"/>
+        <filter val="7/28/2023"/>
+        <filter val="6/2/2023"/>
+        <filter val="10/12/2023"/>
+        <filter val="6/10/2023"/>
+        <filter val="9/20/2023"/>
+        <filter val="8/27/2023"/>
+        <filter val="6/13/2023"/>
+        <filter val="4/18/2023"/>
+        <filter val="6/26/2023"/>
+        <filter val="8/7/2023"/>
+        <filter val="5/15/2023"/>
+        <filter val="7/23/2023"/>
+        <filter val="8/20/2023"/>
+        <filter val="6/12/2023"/>
+        <filter val="9/29/2023"/>
+        <filter val="3/8/2023"/>
+        <filter val="1/7/2023"/>
+        <filter val="9/30/2023"/>
+        <filter val="7/22/2023"/>
+        <filter val="6/11/2023"/>
+        <filter val="8/17/2023"/>
+        <filter val="3/7/2023"/>
+        <filter val="9/28/2023"/>
+        <filter val="6/7/2023"/>
+        <filter val="9/7/2023"/>
+        <filter val="7/19/2023"/>
+        <filter val="9/27/2023"/>
+        <filter val="2/9/2023"/>
+        <filter val="2/25/2023"/>
+        <filter val="4/6/2023"/>
+        <filter val="4/22/2023"/>
+        <filter val="6/6/2023"/>
+        <filter val="5/16/2023"/>
+        <filter val="10/19/2023"/>
+        <filter val="9/5/2023"/>
+        <filter val="1/31/2023"/>
+        <filter val="9/13/2023"/>
+        <filter val="5/8/2023"/>
+        <filter val="11/26/2023"/>
+        <filter val="3/10/2023"/>
+        <filter val="1/29/2023"/>
+        <filter val="6/28/2023"/>
+        <filter val="8/9/2023"/>
+        <filter val="11/15/2023"/>
+        <filter val="7/5/2023"/>
+        <filter val="1/18/2023"/>
+        <filter val="7/24/2023"/>
+        <filter val="2/14/2023"/>
+        <filter val="2/15/2023"/>
+        <filter val="3/26/2023"/>
+        <filter val="4/29/2023"/>
+        <filter val="1/12/2023"/>
+        <filter val="10/14/2023"/>
+        <filter val="3/21/2023"/>
+        <filter val="3/20/2023"/>
+        <filter val="3/27/2023"/>
+        <filter val="1/13/2023"/>
+        <filter val="4/23/2023"/>
+        <filter val="2/24/2023"/>
+        <filter val="10/7/2023"/>
+        <filter val="11/16/2023"/>
+        <filter val="1/19/2023"/>
+        <filter val="10/13/2023"/>
+        <filter val="7/4/2023"/>
+        <filter val="2/4/2023"/>
+        <filter val="8/16/2023"/>
+        <filter val="1/6/2023"/>
+        <filter val="3/11/2023"/>
+        <filter val="5/25/2023"/>
+        <filter val="4/19/2023"/>
+        <filter val="10/1/2023"/>
+        <filter val="5/3/2023"/>
+        <filter val="8/8/2023"/>
+        <filter val="1/28/2023"/>
+        <filter val="8/10/2023"/>
+        <filter val="9/12/2023"/>
+        <filter val="9/18/2023"/>
+        <filter val="10/29/2023"/>
+        <filter val="4/5/2023"/>
+        <filter val="4/13/2023"/>
+        <filter val="8/2/2023"/>
+        <filter val="9/6/2023"/>
+        <filter val="6/27/2023"/>
+        <filter val="1/22/2023"/>
+        <filter val="3/30/2023"/>
+        <filter val="5/9/2023"/>
+        <filter val="10/23/2023"/>
+        <filter val="11/5/2023"/>
+        <filter val="3/17/2023"/>
+        <filter val="6/21/2023"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B64"/>
     <hyperlink r:id="rId2" ref="B960"/>
